--- a/input/UK/nationallifetables3yearuk.xlsx
+++ b/input/UK/nationallifetables3yearuk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>National Life Tables, United Kingdom</t>
   </si>
@@ -1427,19 +1427,7 @@
     <t>Death probability input</t>
   </si>
   <si>
-    <t>Death probability input - Crohn's</t>
-  </si>
-  <si>
     <t>S(t)</t>
-  </si>
-  <si>
-    <t>S(t) - Crohns</t>
-  </si>
-  <si>
-    <t>NOT THE SAME - This can be ignored. It was calculated for validation purposes.</t>
-  </si>
-  <si>
-    <t>SMR = 1.52, CI=(1.32, 1.74)</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1439,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1646,19 +1634,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1769,7 +1744,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1834,8 +1809,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2295,10 +2268,10 @@
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="45"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="13" t="s">
@@ -2655,10 +2628,10 @@
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -2969,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2985,12 +2958,9 @@
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.140625" style="26" customWidth="1"/>
-    <col min="24" max="24" width="12" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3003,13 +2973,13 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="48" t="str">
+      <c r="K1" s="46" t="str">
         <f>HYPERLINK("#'Contents'!A1", "Back to contents")</f>
         <v>Back to contents</v>
       </c>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3023,7 +2993,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3041,7 +3011,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3027,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:24">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3085,40 +3055,31 @@
       <c r="T5" s="28">
         <v>50</v>
       </c>
-      <c r="Y5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="28">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1">
+    </row>
+    <row r="6" spans="1:24" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
       <c r="V6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" s="40"/>
-    </row>
-    <row r="7" spans="1:28">
+        <v>79</v>
+      </c>
+      <c r="X6" s="40"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3179,18 +3140,8 @@
       <c r="V7" s="41">
         <v>1</v>
       </c>
-      <c r="X7" s="26">
-        <f>V7^$Z$5</f>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15">
+    </row>
+    <row r="8" spans="1:24" ht="15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3259,20 +3210,8 @@
         <f>V7-V7*U8</f>
         <v>0.99870289197278228</v>
       </c>
-      <c r="X8" s="29">
-        <f t="shared" ref="X8:X71" si="2">V8^$Z$5</f>
-        <v>0.99802906085643639</v>
-      </c>
-      <c r="Y8" s="30">
-        <f>1-X8/X7</f>
-        <v>1.9709391435636103E-3</v>
-      </c>
-      <c r="AA8" s="42">
-        <f>U8*$Z$5</f>
-        <v>1.9716042013709334E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15">
+    </row>
+    <row r="9" spans="1:24" ht="15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3314,7 +3253,7 @@
         <v>2.2350000000000001E-4</v>
       </c>
       <c r="O9" s="30">
-        <f t="shared" ref="O9:O72" si="3">N9/2</f>
+        <f t="shared" ref="O9:O72" si="2">N9/2</f>
         <v>1.1175000000000001E-4</v>
       </c>
       <c r="P9" s="38">
@@ -3337,23 +3276,11 @@
         <v>1.2971080272177193E-3</v>
       </c>
       <c r="V9" s="29">
-        <f t="shared" ref="V9:V72" si="4">V8-V8*U9</f>
+        <f t="shared" ref="V9:V72" si="3">V8-V8*U9</f>
         <v>0.99740746643479883</v>
       </c>
-      <c r="X9" s="29">
-        <f t="shared" si="2"/>
-        <v>0.99606200631398034</v>
-      </c>
-      <c r="Y9" s="30">
-        <f t="shared" ref="Y9:Y72" si="5">1-X9/X8</f>
-        <v>1.9709391435637214E-3</v>
-      </c>
-      <c r="AA9" s="42">
-        <f t="shared" ref="AA9:AA72" si="6">U9*$Z$5</f>
-        <v>1.9716042013709334E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15">
+    </row>
+    <row r="10" spans="1:24" ht="15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3395,22 +3322,22 @@
         <v>1.2875000000000001E-4</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4375000000000006E-5</v>
       </c>
       <c r="P10" s="38">
-        <f t="shared" ref="P10:P73" si="7">1-EXP(-O10)</f>
+        <f t="shared" ref="P10:P73" si="4">1-EXP(-O10)</f>
         <v>6.4372927974121197E-5</v>
       </c>
       <c r="R10" s="32">
-        <f t="shared" ref="R10:R73" si="8">$T$5+ROUNDDOWN(T10,0)</f>
+        <f t="shared" ref="R10:R73" si="5">$T$5+ROUNDDOWN(T10,0)</f>
         <v>51</v>
       </c>
       <c r="S10" s="26">
         <v>2</v>
       </c>
       <c r="T10" s="33">
-        <f t="shared" ref="T10:T73" si="9">S10*0.5</f>
+        <f t="shared" ref="T10:T73" si="6">S10*0.5</f>
         <v>1</v>
       </c>
       <c r="U10" s="30">
@@ -3418,23 +3345,11 @@
         <v>1.3981217158872683E-3</v>
       </c>
       <c r="V10" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99601296939638828</v>
       </c>
-      <c r="X10" s="29">
-        <f t="shared" si="2"/>
-        <v>0.99394599975847664</v>
-      </c>
-      <c r="Y10" s="30">
-        <f t="shared" si="5"/>
-        <v>2.1243723202877263E-3</v>
-      </c>
-      <c r="AA10" s="42">
-        <f t="shared" si="6"/>
-        <v>2.1251450081486477E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15">
+    </row>
+    <row r="11" spans="1:24" ht="15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3476,22 +3391,22 @@
         <v>9.9049999999999995E-5</v>
       </c>
       <c r="O11" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.9524999999999998E-5</v>
       </c>
       <c r="P11" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.9523773657411674E-5</v>
       </c>
       <c r="R11" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="S11" s="26">
         <v>3</v>
       </c>
       <c r="T11" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="U11" s="30">
@@ -3499,23 +3414,11 @@
         <v>1.3981217158872683E-3</v>
       </c>
       <c r="V11" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9946204220345698</v>
       </c>
-      <c r="X11" s="29">
-        <f t="shared" si="2"/>
-        <v>0.9918344883887289</v>
-      </c>
-      <c r="Y11" s="30">
-        <f t="shared" si="5"/>
-        <v>2.1243723202878373E-3</v>
-      </c>
-      <c r="AA11" s="42">
-        <f t="shared" si="6"/>
-        <v>2.1251450081486477E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15">
+    </row>
+    <row r="12" spans="1:24" ht="15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3557,22 +3460,22 @@
         <v>7.8150000000000002E-5</v>
       </c>
       <c r="O12" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9075000000000001E-5</v>
       </c>
       <c r="P12" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.9074236582115063E-5</v>
       </c>
       <c r="R12" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="S12" s="26">
         <v>4</v>
       </c>
       <c r="T12" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U12" s="30">
@@ -3580,23 +3483,11 @@
         <v>1.5158000129131821E-3</v>
       </c>
       <c r="V12" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99311277638600604</v>
       </c>
-      <c r="X12" s="29">
-        <f t="shared" si="2"/>
-        <v>0.98955018667382322</v>
-      </c>
-      <c r="Y12" s="30">
-        <f t="shared" si="5"/>
-        <v>2.3031077681283652E-3</v>
-      </c>
-      <c r="AA12" s="42">
-        <f t="shared" si="6"/>
-        <v>2.3040160196280369E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15">
+    </row>
+    <row r="13" spans="1:24" ht="15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3638,22 +3529,22 @@
         <v>8.5650000000000008E-5</v>
       </c>
       <c r="O13" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2825000000000004E-5</v>
       </c>
       <c r="P13" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2824083022807713E-5</v>
       </c>
       <c r="R13" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="S13" s="26">
         <v>5</v>
       </c>
       <c r="T13" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="U13" s="30">
@@ -3661,23 +3552,11 @@
         <v>1.5158000129131821E-3</v>
       </c>
       <c r="V13" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99160741602673586</v>
       </c>
-      <c r="X13" s="29">
-        <f t="shared" si="2"/>
-        <v>0.98727114595194199</v>
-      </c>
-      <c r="Y13" s="30">
-        <f t="shared" si="5"/>
-        <v>2.3031077681282541E-3</v>
-      </c>
-      <c r="AA13" s="42">
-        <f t="shared" si="6"/>
-        <v>2.3040160196280369E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15">
+    </row>
+    <row r="14" spans="1:24" ht="15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3719,46 +3598,34 @@
         <v>8.4099999999999998E-5</v>
       </c>
       <c r="O14" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2049999999999999E-5</v>
       </c>
       <c r="P14" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2049115911102497E-5</v>
       </c>
       <c r="R14" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="S14" s="26">
         <v>6</v>
       </c>
       <c r="T14" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="U14" s="30">
-        <f t="shared" ref="U14:U77" si="10">VLOOKUP(ROUND(R14,0),$A$8:$P$108,16,FALSE)</f>
+        <f t="shared" ref="U14:U77" si="7">VLOOKUP(ROUND(R14,0),$A$8:$P$108,16,FALSE)</f>
         <v>1.5998189231969384E-3</v>
       </c>
       <c r="V14" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99002102371819389</v>
       </c>
-      <c r="X14" s="29">
-        <f t="shared" si="2"/>
-        <v>0.98487137312204165</v>
-      </c>
-      <c r="Y14" s="30">
-        <f t="shared" si="5"/>
-        <v>2.4307130211796979E-3</v>
-      </c>
-      <c r="AA14" s="42">
-        <f t="shared" si="6"/>
-        <v>2.4317247632593465E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15">
+    </row>
+    <row r="15" spans="1:24" ht="15">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3800,46 +3667,34 @@
         <v>6.4449999999999994E-5</v>
       </c>
       <c r="O15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2224999999999997E-5</v>
       </c>
       <c r="P15" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.2224480780218556E-5</v>
       </c>
       <c r="R15" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="S15" s="26">
         <v>7</v>
       </c>
       <c r="T15" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="U15" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.5998189231969384E-3</v>
       </c>
       <c r="V15" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98843716935008674</v>
       </c>
-      <c r="X15" s="29">
-        <f t="shared" si="2"/>
-        <v>0.98247743345120686</v>
-      </c>
-      <c r="Y15" s="30">
-        <f t="shared" si="5"/>
-        <v>2.4307130211795869E-3</v>
-      </c>
-      <c r="AA15" s="42">
-        <f t="shared" si="6"/>
-        <v>2.4317247632593465E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15">
+    </row>
+    <row r="16" spans="1:24" ht="15">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3881,46 +3736,34 @@
         <v>6.5050000000000009E-5</v>
       </c>
       <c r="O16" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2525000000000005E-5</v>
       </c>
       <c r="P16" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.2524471067940652E-5</v>
       </c>
       <c r="R16" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="S16" s="26">
         <v>8</v>
       </c>
       <c r="T16" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="U16" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.7322479236691057E-3</v>
       </c>
       <c r="V16" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98672495111580272</v>
       </c>
-      <c r="X16" s="29">
-        <f t="shared" si="2"/>
-        <v>0.97989171923361196</v>
-      </c>
-      <c r="Y16" s="30">
-        <f t="shared" si="5"/>
-        <v>2.6318306452209894E-3</v>
-      </c>
-      <c r="AA16" s="42">
-        <f t="shared" si="6"/>
-        <v>2.6330168439770408E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15">
+    </row>
+    <row r="17" spans="1:22" ht="15">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3962,46 +3805,34 @@
         <v>5.5099999999999998E-5</v>
       </c>
       <c r="O17" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7549999999999999E-5</v>
       </c>
       <c r="P17" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.7549620502220762E-5</v>
       </c>
       <c r="R17" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="S17" s="26">
         <v>9</v>
       </c>
       <c r="T17" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
       <c r="U17" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.7322479236691057E-3</v>
       </c>
       <c r="V17" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98501569886799989</v>
       </c>
-      <c r="X17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.97731281017793459</v>
-      </c>
-      <c r="Y17" s="30">
-        <f t="shared" si="5"/>
-        <v>2.6318306452211004E-3</v>
-      </c>
-      <c r="AA17" s="42">
-        <f t="shared" si="6"/>
-        <v>2.6330168439770408E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15">
+    </row>
+    <row r="18" spans="1:22" ht="15">
       <c r="A18">
         <v>10</v>
       </c>
@@ -4043,46 +3874,34 @@
         <v>6.7500000000000001E-5</v>
       </c>
       <c r="O18" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.375E-5</v>
       </c>
       <c r="P18" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.3749430475182862E-5</v>
       </c>
       <c r="R18" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="S18" s="26">
         <v>10</v>
       </c>
       <c r="T18" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U18" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.8730187070724602E-3</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98317074603726007</v>
       </c>
-      <c r="X18" s="29">
-        <f t="shared" si="2"/>
-        <v>0.97453176730241431</v>
-      </c>
-      <c r="Y18" s="30">
-        <f t="shared" si="5"/>
-        <v>2.845601578694068E-3</v>
-      </c>
-      <c r="AA18" s="42">
-        <f t="shared" si="6"/>
-        <v>2.8469884347501395E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15">
+    </row>
+    <row r="19" spans="1:22" ht="15">
       <c r="A19">
         <v>11</v>
       </c>
@@ -4124,46 +3943,34 @@
         <v>7.2650000000000004E-5</v>
       </c>
       <c r="O19" s="30">
+        <f t="shared" si="2"/>
+        <v>3.6325000000000002E-5</v>
+      </c>
+      <c r="P19" s="38">
+        <f t="shared" si="4"/>
+        <v>3.6324340255133869E-5</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="S19" s="26">
+        <v>11</v>
+      </c>
+      <c r="T19" s="33">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="U19" s="30">
+        <f t="shared" si="7"/>
+        <v>1.8730187070724602E-3</v>
+      </c>
+      <c r="V19" s="29">
         <f t="shared" si="3"/>
-        <v>3.6325000000000002E-5</v>
-      </c>
-      <c r="P19" s="38">
-        <f t="shared" si="7"/>
-        <v>3.6324340255133869E-5</v>
-      </c>
-      <c r="R19" s="32">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="S19" s="26">
-        <v>11</v>
-      </c>
-      <c r="T19" s="33">
-        <f t="shared" si="9"/>
-        <v>5.5</v>
-      </c>
-      <c r="U19" s="30">
-        <f t="shared" si="10"/>
-        <v>1.8730187070724602E-3</v>
-      </c>
-      <c r="V19" s="29">
-        <f t="shared" si="4"/>
         <v>0.98132924883768591</v>
       </c>
-      <c r="X19" s="29">
-        <f t="shared" si="2"/>
-        <v>0.97175863816689101</v>
-      </c>
-      <c r="Y19" s="30">
-        <f t="shared" si="5"/>
-        <v>2.845601578694068E-3</v>
-      </c>
-      <c r="AA19" s="42">
-        <f t="shared" si="6"/>
-        <v>2.8469884347501395E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15">
+    </row>
+    <row r="20" spans="1:22" ht="15">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4205,46 +4012,34 @@
         <v>7.5749999999999998E-5</v>
       </c>
       <c r="O20" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7874999999999999E-5</v>
       </c>
       <c r="P20" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.7874282751260147E-5</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="S20" s="26">
         <v>12</v>
       </c>
       <c r="T20" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="U20" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.0965990593273531E-3</v>
       </c>
       <c r="V20" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.97927179485768234</v>
       </c>
-      <c r="X20" s="29">
-        <f t="shared" si="2"/>
-        <v>0.96866349672957808</v>
-      </c>
-      <c r="Y20" s="30">
-        <f t="shared" si="5"/>
-        <v>3.1850927954204522E-3</v>
-      </c>
-      <c r="AA20" s="42">
-        <f t="shared" si="6"/>
-        <v>3.1868305701775769E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15">
+    </row>
+    <row r="21" spans="1:22" ht="15">
       <c r="A21">
         <v>13</v>
       </c>
@@ -4286,46 +4081,34 @@
         <v>9.645E-5</v>
       </c>
       <c r="O21" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8225E-5</v>
       </c>
       <c r="P21" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.8223837193384078E-5</v>
       </c>
       <c r="R21" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="S21" s="26">
         <v>13</v>
       </c>
       <c r="T21" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.0965990593273531E-3</v>
       </c>
       <c r="V21" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.97721865453375789</v>
       </c>
-      <c r="X21" s="29">
-        <f t="shared" si="2"/>
-        <v>0.96557821360495799</v>
-      </c>
-      <c r="Y21" s="30">
-        <f t="shared" si="5"/>
-        <v>3.1850927954203412E-3</v>
-      </c>
-      <c r="AA21" s="42">
-        <f t="shared" si="6"/>
-        <v>3.1868305701775769E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15">
+    </row>
+    <row r="22" spans="1:22" ht="15">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4367,46 +4150,34 @@
         <v>1.0800000000000001E-4</v>
       </c>
       <c r="O22" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4000000000000005E-5</v>
       </c>
       <c r="P22" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.3998542026256757E-5</v>
       </c>
       <c r="R22" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="S22" s="26">
         <v>14</v>
       </c>
       <c r="T22" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="U22" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.2678495346620808E-3</v>
       </c>
       <c r="V22" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.97500246966281046</v>
       </c>
-      <c r="X22" s="29">
-        <f t="shared" si="2"/>
-        <v>0.96225170204689681</v>
-      </c>
-      <c r="Y22" s="30">
-        <f t="shared" si="5"/>
-        <v>3.4450979850112473E-3</v>
-      </c>
-      <c r="AA22" s="42">
-        <f t="shared" si="6"/>
-        <v>3.447131292686363E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15">
+    </row>
+    <row r="23" spans="1:22" ht="15">
       <c r="A23">
         <v>15</v>
       </c>
@@ -4448,46 +4219,34 @@
         <v>1.337E-4</v>
       </c>
       <c r="O23" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6849999999999999E-5</v>
       </c>
       <c r="P23" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.6847765588518016E-5</v>
       </c>
       <c r="R23" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="S23" s="26">
         <v>15</v>
       </c>
       <c r="T23" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="U23" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.2678495346620808E-3</v>
       </c>
       <c r="V23" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.97279131076569125</v>
       </c>
-      <c r="X23" s="29">
-        <f t="shared" si="2"/>
-        <v>0.95893665064710121</v>
-      </c>
-      <c r="Y23" s="30">
-        <f t="shared" si="5"/>
-        <v>3.4450979850114694E-3</v>
-      </c>
-      <c r="AA23" s="42">
-        <f t="shared" si="6"/>
-        <v>3.447131292686363E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15">
+    </row>
+    <row r="24" spans="1:22" ht="15">
       <c r="A24">
         <v>16</v>
       </c>
@@ -4529,46 +4288,34 @@
         <v>1.75E-4</v>
       </c>
       <c r="O24" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.7499999999999999E-5</v>
       </c>
       <c r="P24" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.749617198666737E-5</v>
       </c>
       <c r="R24" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="S24" s="26">
         <v>16</v>
       </c>
       <c r="T24" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="U24" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.4971768534317595E-3</v>
       </c>
       <c r="V24" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9703620788212276</v>
       </c>
-      <c r="X24" s="29">
-        <f t="shared" si="2"/>
-        <v>0.95529917051926827</v>
-      </c>
-      <c r="Y24" s="30">
-        <f t="shared" si="5"/>
-        <v>3.7932434070366838E-3</v>
-      </c>
-      <c r="AA24" s="42">
-        <f t="shared" si="6"/>
-        <v>3.7957088172162748E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15">
+    </row>
+    <row r="25" spans="1:22" ht="15">
       <c r="A25">
         <v>17</v>
       </c>
@@ -4610,46 +4357,34 @@
         <v>2.1394999999999997E-4</v>
       </c>
       <c r="O25" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0697499999999998E-4</v>
       </c>
       <c r="P25" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.0696927837872128E-4</v>
       </c>
       <c r="R25" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="S25" s="26">
         <v>17</v>
       </c>
       <c r="T25" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="U25" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.4971768534317595E-3</v>
       </c>
       <c r="V25" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96793891309854729</v>
       </c>
-      <c r="X25" s="29">
-        <f t="shared" si="2"/>
-        <v>0.95167548823894865</v>
-      </c>
-      <c r="Y25" s="30">
-        <f t="shared" si="5"/>
-        <v>3.7932434070364618E-3</v>
-      </c>
-      <c r="AA25" s="42">
-        <f t="shared" si="6"/>
-        <v>3.7957088172162748E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15">
+    </row>
+    <row r="26" spans="1:22" ht="15">
       <c r="A26">
         <v>18</v>
       </c>
@@ -4691,46 +4426,34 @@
         <v>2.8755000000000002E-4</v>
       </c>
       <c r="O26" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4377500000000001E-4</v>
       </c>
       <c r="P26" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.4376466486998307E-4</v>
       </c>
       <c r="R26" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="S26" s="26">
         <v>18</v>
       </c>
       <c r="T26" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="U26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.7170271820793346E-3</v>
       </c>
       <c r="V26" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96530899676106618</v>
       </c>
-      <c r="X26" s="29">
-        <f t="shared" si="2"/>
-        <v>0.94774795910378751</v>
-      </c>
-      <c r="Y26" s="30">
-        <f t="shared" si="5"/>
-        <v>4.1269625872458748E-3</v>
-      </c>
-      <c r="AA26" s="42">
-        <f t="shared" si="6"/>
-        <v>4.1298813167605884E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15">
+    </row>
+    <row r="27" spans="1:22" ht="15">
       <c r="A27">
         <v>19</v>
       </c>
@@ -4772,46 +4495,34 @@
         <v>2.8680000000000003E-4</v>
       </c>
       <c r="O27" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4340000000000002E-4</v>
       </c>
       <c r="P27" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.4338971871141748E-4</v>
       </c>
       <c r="R27" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="S27" s="26">
         <v>19</v>
       </c>
       <c r="T27" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="U27" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.7170271820793346E-3</v>
       </c>
       <c r="V27" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96268622597776066</v>
       </c>
-      <c r="X27" s="29">
-        <f t="shared" si="2"/>
-        <v>0.94383663873442747</v>
-      </c>
-      <c r="Y27" s="30">
-        <f t="shared" si="5"/>
-        <v>4.1269625872459859E-3</v>
-      </c>
-      <c r="AA27" s="42">
-        <f t="shared" si="6"/>
-        <v>4.1298813167605884E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15">
+    </row>
+    <row r="28" spans="1:22" ht="15">
       <c r="A28">
         <v>20</v>
       </c>
@@ -4853,46 +4564,34 @@
         <v>3.0130000000000001E-4</v>
       </c>
       <c r="O28" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5065E-4</v>
       </c>
       <c r="P28" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.5063865285858125E-4</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="S28" s="26">
         <v>20</v>
       </c>
       <c r="T28" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="U28" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.9765363056657446E-3</v>
       </c>
       <c r="V28" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.95982075547517354</v>
       </c>
-      <c r="X28" s="29">
-        <f t="shared" si="2"/>
-        <v>0.93956971172804327</v>
-      </c>
-      <c r="Y28" s="30">
-        <f t="shared" si="5"/>
-        <v>4.5208321347914859E-3</v>
-      </c>
-      <c r="AA28" s="42">
-        <f t="shared" si="6"/>
-        <v>4.5243351846119316E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15">
+    </row>
+    <row r="29" spans="1:22" ht="15">
       <c r="A29">
         <v>21</v>
       </c>
@@ -4934,46 +4633,34 @@
         <v>3.167E-4</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5835E-4</v>
       </c>
       <c r="P29" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.5833746330051746E-4</v>
       </c>
       <c r="R29" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="S29" s="26">
         <v>21</v>
       </c>
       <c r="T29" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
       <c r="U29" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.9765363056657446E-3</v>
       </c>
       <c r="V29" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.95696381414957021</v>
       </c>
-      <c r="X29" s="29">
-        <f t="shared" si="2"/>
-        <v>0.93532207478238627</v>
-      </c>
-      <c r="Y29" s="30">
-        <f t="shared" si="5"/>
-        <v>4.520832134791597E-3</v>
-      </c>
-      <c r="AA29" s="42">
-        <f t="shared" si="6"/>
-        <v>4.5243351846119316E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15">
+    </row>
+    <row r="30" spans="1:22" ht="15">
       <c r="A30">
         <v>22</v>
       </c>
@@ -5015,46 +4702,34 @@
         <v>3.256E-4</v>
       </c>
       <c r="O30" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.628E-4</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.6278674879910415E-4</v>
       </c>
       <c r="R30" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="S30" s="26">
         <v>22</v>
       </c>
       <c r="T30" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="U30" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.2453972762924721E-3</v>
       </c>
       <c r="V30" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9538580863936188</v>
       </c>
-      <c r="X30" s="29">
-        <f t="shared" si="2"/>
-        <v>0.93071202266524522</v>
-      </c>
-      <c r="Y30" s="30">
-        <f t="shared" si="5"/>
-        <v>4.9288392110424795E-3</v>
-      </c>
-      <c r="AA30" s="42">
-        <f t="shared" si="6"/>
-        <v>4.9330038599645579E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15">
+    </row>
+    <row r="31" spans="1:22" ht="15">
       <c r="A31">
         <v>23</v>
       </c>
@@ -5096,46 +4771,34 @@
         <v>3.2105000000000002E-4</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6052500000000001E-4</v>
       </c>
       <c r="P31" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.6051211655154773E-4</v>
       </c>
       <c r="R31" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="S31" s="26">
         <v>23</v>
       </c>
       <c r="T31" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>11.5</v>
       </c>
       <c r="U31" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.2453972762924721E-3</v>
       </c>
       <c r="V31" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.95076243795806736</v>
       </c>
-      <c r="X31" s="29">
-        <f t="shared" si="2"/>
-        <v>0.92612469275374409</v>
-      </c>
-      <c r="Y31" s="30">
-        <f t="shared" si="5"/>
-        <v>4.9288392110424795E-3</v>
-      </c>
-      <c r="AA31" s="42">
-        <f t="shared" si="6"/>
-        <v>4.9330038599645579E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="15">
+    </row>
+    <row r="32" spans="1:22" ht="15">
       <c r="A32">
         <v>24</v>
       </c>
@@ -5177,46 +4840,34 @@
         <v>3.3750000000000002E-4</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6875000000000001E-4</v>
       </c>
       <c r="P32" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.6873576251963396E-4</v>
       </c>
       <c r="R32" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="S32" s="26">
         <v>24</v>
       </c>
       <c r="T32" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="U32" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.6571462912156072E-3</v>
       </c>
       <c r="V32" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94728536063426194</v>
       </c>
-      <c r="X32" s="29">
-        <f t="shared" si="2"/>
-        <v>0.92098139113140975</v>
-      </c>
-      <c r="Y32" s="30">
-        <f t="shared" si="5"/>
-        <v>5.5535735766220062E-3</v>
-      </c>
-      <c r="AA32" s="42">
-        <f t="shared" si="6"/>
-        <v>5.558862362647723E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15">
+    </row>
+    <row r="33" spans="1:22" ht="15">
       <c r="A33">
         <v>25</v>
       </c>
@@ -5258,46 +4909,34 @@
         <v>3.7439999999999999E-4</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.872E-4</v>
       </c>
       <c r="P33" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.8718247917326458E-4</v>
       </c>
       <c r="R33" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="S33" s="26">
         <v>25</v>
       </c>
       <c r="T33" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="U33" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.6571462912156072E-3</v>
       </c>
       <c r="V33" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94382099949089548</v>
       </c>
-      <c r="X33" s="29">
-        <f t="shared" si="2"/>
-        <v>0.91586665321306171</v>
-      </c>
-      <c r="Y33" s="30">
-        <f t="shared" si="5"/>
-        <v>5.5535735766221173E-3</v>
-      </c>
-      <c r="AA33" s="42">
-        <f t="shared" si="6"/>
-        <v>5.558862362647723E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="15">
+    </row>
+    <row r="34" spans="1:22" ht="15">
       <c r="A34">
         <v>26</v>
       </c>
@@ -5339,46 +4978,34 @@
         <v>3.7365E-4</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.86825E-4</v>
       </c>
       <c r="P34" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.8680754929645271E-4</v>
       </c>
       <c r="R34" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="S34" s="26">
         <v>26</v>
       </c>
       <c r="T34" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="U34" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.9718661907138797E-3</v>
       </c>
       <c r="V34" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94007226877293182</v>
       </c>
-      <c r="X34" s="29">
-        <f t="shared" si="2"/>
-        <v>0.91034306318870872</v>
-      </c>
-      <c r="Y34" s="30">
-        <f t="shared" si="5"/>
-        <v>6.0309980770399951E-3</v>
-      </c>
-      <c r="AA34" s="42">
-        <f t="shared" si="6"/>
-        <v>6.0372366098850969E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15">
+    </row>
+    <row r="35" spans="1:22" ht="15">
       <c r="A35">
         <v>27</v>
       </c>
@@ -5420,46 +5047,34 @@
         <v>4.0715E-4</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.03575E-4</v>
       </c>
       <c r="P35" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.0355428001572751E-4</v>
       </c>
       <c r="R35" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="S35" s="26">
         <v>27</v>
       </c>
       <c r="T35" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>13.5</v>
       </c>
       <c r="U35" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.9718661907138797E-3</v>
       </c>
       <c r="V35" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.93633842751176488</v>
       </c>
-      <c r="X35" s="29">
-        <f t="shared" si="2"/>
-        <v>0.90485278592517093</v>
-      </c>
-      <c r="Y35" s="30">
-        <f t="shared" si="5"/>
-        <v>6.0309980770399951E-3</v>
-      </c>
-      <c r="AA35" s="42">
-        <f t="shared" si="6"/>
-        <v>6.0372366098850969E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15">
+    </row>
+    <row r="36" spans="1:22" ht="15">
       <c r="A36">
         <v>28</v>
       </c>
@@ -5501,46 +5116,34 @@
         <v>4.4735E-4</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.23675E-4</v>
       </c>
       <c r="P36" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.2364998661217328E-4</v>
       </c>
       <c r="R36" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="S36" s="26">
         <v>28</v>
       </c>
       <c r="T36" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="U36" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.2865862493782769E-3</v>
       </c>
       <c r="V36" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.93232473208362843</v>
       </c>
-      <c r="X36" s="29">
-        <f t="shared" si="2"/>
-        <v>0.89896369238014606</v>
-      </c>
-      <c r="Y36" s="30">
-        <f t="shared" si="5"/>
-        <v>6.5083443811287944E-3</v>
-      </c>
-      <c r="AA36" s="42">
-        <f t="shared" si="6"/>
-        <v>6.5156110990549814E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15">
+    </row>
+    <row r="37" spans="1:22" ht="15">
       <c r="A37">
         <v>29</v>
       </c>
@@ -5582,46 +5185,34 @@
         <v>4.6420000000000001E-4</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.321E-4</v>
       </c>
       <c r="P37" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.320730668787796E-4</v>
       </c>
       <c r="R37" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="S37" s="26">
         <v>29</v>
       </c>
       <c r="T37" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
       <c r="U37" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.2865862493782769E-3</v>
       </c>
       <c r="V37" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.92832824170712347</v>
       </c>
-      <c r="X37" s="29">
-        <f t="shared" si="2"/>
-        <v>0.89311292708400492</v>
-      </c>
-      <c r="Y37" s="30">
-        <f t="shared" si="5"/>
-        <v>6.5083443811287944E-3</v>
-      </c>
-      <c r="AA37" s="42">
-        <f t="shared" si="6"/>
-        <v>6.5156110990549814E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15">
+    </row>
+    <row r="38" spans="1:22" ht="15">
       <c r="A38">
         <v>30</v>
       </c>
@@ -5663,46 +5254,34 @@
         <v>5.1035000000000002E-4</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5517500000000001E-4</v>
       </c>
       <c r="P38" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.5514244562874211E-4</v>
       </c>
       <c r="R38" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="S38" s="26">
         <v>30</v>
       </c>
       <c r="T38" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="U38" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.7123369356524281E-3</v>
       </c>
       <c r="V38" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.92395364624531773</v>
       </c>
-      <c r="X38" s="29">
-        <f t="shared" si="2"/>
-        <v>0.88672362430473384</v>
-      </c>
-      <c r="Y38" s="30">
-        <f t="shared" si="5"/>
-        <v>7.1539696554746568E-3</v>
-      </c>
-      <c r="AA38" s="42">
-        <f t="shared" si="6"/>
-        <v>7.1627521421916904E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15">
+    </row>
+    <row r="39" spans="1:22" ht="15">
       <c r="A39">
         <v>31</v>
       </c>
@@ -5744,46 +5323,34 @@
         <v>5.4834999999999997E-4</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7417499999999998E-4</v>
       </c>
       <c r="P39" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.7413741746951104E-4</v>
       </c>
       <c r="R39" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="S39" s="26">
         <v>31</v>
       </c>
       <c r="T39" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
       <c r="U39" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.7123369356524281E-3</v>
       </c>
       <c r="V39" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91959966535128523</v>
       </c>
-      <c r="X39" s="29">
-        <f t="shared" si="2"/>
-        <v>0.8803800304036653</v>
-      </c>
-      <c r="Y39" s="30">
-        <f t="shared" si="5"/>
-        <v>7.1539696554746568E-3</v>
-      </c>
-      <c r="AA39" s="42">
-        <f t="shared" si="6"/>
-        <v>7.1627521421916904E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15">
+    </row>
+    <row r="40" spans="1:22" ht="15">
       <c r="A40">
         <v>32</v>
       </c>
@@ -5821,50 +5388,38 @@
         <v>51.69</v>
       </c>
       <c r="N40" s="29">
-        <f t="shared" ref="N40:N71" si="11">B40*$Q$5 + H40*(1-$Q$5)</f>
+        <f t="shared" ref="N40:N71" si="8">B40*$Q$5 + H40*(1-$Q$5)</f>
         <v>5.867E-4</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9335E-4</v>
       </c>
       <c r="P40" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.9330697709573084E-4</v>
       </c>
       <c r="R40" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="S40" s="26">
         <v>32</v>
       </c>
       <c r="T40" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="U40" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.1330307417263299E-3</v>
       </c>
       <c r="V40" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91487933199895588</v>
       </c>
-      <c r="X40" s="29">
-        <f t="shared" si="2"/>
-        <v>0.87352029811174725</v>
-      </c>
-      <c r="Y40" s="30">
-        <f t="shared" si="5"/>
-        <v>7.7917854279052623E-3</v>
-      </c>
-      <c r="AA40" s="42">
-        <f t="shared" si="6"/>
-        <v>7.802206727424022E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15">
+    </row>
+    <row r="41" spans="1:22" ht="15">
       <c r="A41">
         <v>33</v>
       </c>
@@ -5902,50 +5457,38 @@
         <v>50.71</v>
       </c>
       <c r="N41" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6.4105E-4</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.20525E-4</v>
       </c>
       <c r="P41" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.204736373499939E-4</v>
       </c>
       <c r="R41" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="S41" s="26">
         <v>33</v>
       </c>
       <c r="T41" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="U41" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.1330307417263299E-3</v>
       </c>
       <c r="V41" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91018322826283515</v>
       </c>
-      <c r="X41" s="29">
-        <f t="shared" si="2"/>
-        <v>0.86671401538194048</v>
-      </c>
-      <c r="Y41" s="30">
-        <f t="shared" si="5"/>
-        <v>7.7917854279054843E-3</v>
-      </c>
-      <c r="AA41" s="42">
-        <f t="shared" si="6"/>
-        <v>7.802206727424022E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15">
+    </row>
+    <row r="42" spans="1:22" ht="15">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5983,50 +5526,38 @@
         <v>49.74</v>
       </c>
       <c r="N42" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6.9634999999999999E-4</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.4817499999999999E-4</v>
       </c>
       <c r="P42" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.4811439411874812E-4</v>
       </c>
       <c r="R42" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="S42" s="26">
         <v>34</v>
       </c>
       <c r="T42" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="U42" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.5919564790327669E-3</v>
       </c>
       <c r="V42" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.90509352326244386</v>
       </c>
-      <c r="X42" s="29">
-        <f t="shared" si="2"/>
-        <v>0.85935786262393932</v>
-      </c>
-      <c r="Y42" s="30">
-        <f t="shared" si="5"/>
-        <v>8.4874048734050467E-3</v>
-      </c>
-      <c r="AA42" s="42">
-        <f t="shared" si="6"/>
-        <v>8.4997738481298064E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15">
+    </row>
+    <row r="43" spans="1:22" ht="15">
       <c r="A43">
         <v>35</v>
       </c>
@@ -6064,50 +5595,38 @@
         <v>48.76</v>
       </c>
       <c r="N43" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7.5420000000000001E-4</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.771E-4</v>
       </c>
       <c r="P43" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.7702890673174672E-4</v>
       </c>
       <c r="R43" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="S43" s="26">
         <v>35</v>
       </c>
       <c r="T43" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="U43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.5919564790327669E-3</v>
       </c>
       <c r="V43" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.90003227967090582</v>
       </c>
-      <c r="X43" s="29">
-        <f t="shared" si="2"/>
-        <v>0.85206414451270585</v>
-      </c>
-      <c r="Y43" s="30">
-        <f t="shared" si="5"/>
-        <v>8.4874048734051577E-3</v>
-      </c>
-      <c r="AA43" s="42">
-        <f t="shared" si="6"/>
-        <v>8.4997738481298064E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="15">
+    </row>
+    <row r="44" spans="1:22" ht="15">
       <c r="A44">
         <v>36</v>
       </c>
@@ -6145,50 +5664,38 @@
         <v>47.79</v>
       </c>
       <c r="N44" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>8.2069999999999995E-4</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1034999999999997E-4</v>
       </c>
       <c r="P44" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.1026581795389205E-4</v>
       </c>
       <c r="R44" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="S44" s="26">
         <v>36</v>
       </c>
       <c r="T44" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="U44" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6.1317983197923809E-3</v>
       </c>
       <c r="V44" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.89451346325066083</v>
       </c>
-      <c r="X44" s="29">
-        <f t="shared" si="2"/>
-        <v>0.84413529592896419</v>
-      </c>
-      <c r="Y44" s="30">
-        <f t="shared" si="5"/>
-        <v>9.3054597295326724E-3</v>
-      </c>
-      <c r="AA44" s="42">
-        <f t="shared" si="6"/>
-        <v>9.3203334460844195E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="15">
+    </row>
+    <row r="45" spans="1:22" ht="15">
       <c r="A45">
         <v>37</v>
       </c>
@@ -6226,50 +5733,38 @@
         <v>46.82</v>
       </c>
       <c r="N45" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9.6809999999999995E-4</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8404999999999998E-4</v>
       </c>
       <c r="P45" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.8393286669901059E-4</v>
       </c>
       <c r="R45" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="S45" s="26">
         <v>37</v>
       </c>
       <c r="T45" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18.5</v>
       </c>
       <c r="U45" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6.1317983197923809E-3</v>
       </c>
       <c r="V45" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.88902848709966875</v>
       </c>
-      <c r="X45" s="29">
-        <f t="shared" si="2"/>
-        <v>0.83628022892642018</v>
-      </c>
-      <c r="Y45" s="30">
-        <f t="shared" si="5"/>
-        <v>9.3054597295325614E-3</v>
-      </c>
-      <c r="AA45" s="42">
-        <f t="shared" si="6"/>
-        <v>9.3203334460844195E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15">
+    </row>
+    <row r="46" spans="1:22" ht="15">
       <c r="A46">
         <v>38</v>
       </c>
@@ -6307,50 +5802,38 @@
         <v>45.86</v>
       </c>
       <c r="N46" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9.1750000000000002E-4</v>
       </c>
       <c r="O46" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5875000000000001E-4</v>
       </c>
       <c r="P46" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.586447903076607E-4</v>
       </c>
       <c r="R46" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="S46" s="26">
         <v>38</v>
       </c>
       <c r="T46" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="U46" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6.7213102671721536E-3</v>
       </c>
       <c r="V46" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.88305305080151719</v>
       </c>
-      <c r="X46" s="29">
-        <f t="shared" si="2"/>
-        <v>0.82775140929091962</v>
-      </c>
-      <c r="Y46" s="30">
-        <f t="shared" si="5"/>
-        <v>1.0198518798476774E-2</v>
-      </c>
-      <c r="AA46" s="42">
-        <f t="shared" si="6"/>
-        <v>1.0216391606101674E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15">
+    </row>
+    <row r="47" spans="1:22" ht="15">
       <c r="A47">
         <v>39</v>
       </c>
@@ -6388,50 +5871,38 @@
         <v>44.89</v>
       </c>
       <c r="N47" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.0444500000000002E-3</v>
       </c>
       <c r="O47" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.2222500000000008E-4</v>
       </c>
       <c r="P47" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.2208866425840217E-4</v>
       </c>
       <c r="R47" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="S47" s="26">
         <v>39</v>
       </c>
       <c r="T47" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>19.5</v>
       </c>
       <c r="U47" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6.7213102671721536E-3</v>
       </c>
       <c r="V47" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8771177772647073</v>
       </c>
-      <c r="X47" s="29">
-        <f t="shared" si="2"/>
-        <v>0.81930957098280066</v>
-      </c>
-      <c r="Y47" s="30">
-        <f t="shared" si="5"/>
-        <v>1.0198518798476663E-2</v>
-      </c>
-      <c r="AA47" s="42">
-        <f t="shared" si="6"/>
-        <v>1.0216391606101674E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="15">
+    </row>
+    <row r="48" spans="1:22" ht="15">
       <c r="A48">
         <v>40</v>
       </c>
@@ -6469,50 +5940,38 @@
         <v>43.93</v>
       </c>
       <c r="N48" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.1224500000000001E-3</v>
       </c>
       <c r="O48" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6122500000000005E-4</v>
       </c>
       <c r="P48" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.6106754270734971E-4</v>
       </c>
       <c r="R48" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="S48" s="26">
         <v>40</v>
       </c>
       <c r="T48" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="U48" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.2704415338050721E-3</v>
       </c>
       <c r="V48" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.87074074374684318</v>
       </c>
-      <c r="X48" s="29">
-        <f t="shared" si="2"/>
-        <v>0.81027245797846092</v>
-      </c>
-      <c r="Y48" s="30">
-        <f t="shared" si="5"/>
-        <v>1.1030156761746679E-2</v>
-      </c>
-      <c r="AA48" s="42">
-        <f t="shared" si="6"/>
-        <v>1.105107113138371E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15">
+    </row>
+    <row r="49" spans="1:22" ht="15">
       <c r="A49">
         <v>41</v>
       </c>
@@ -6550,50 +6009,38 @@
         <v>42.97</v>
       </c>
       <c r="N49" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.2257499999999998E-3</v>
       </c>
       <c r="O49" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1287499999999992E-4</v>
       </c>
       <c r="P49" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.1268723047891438E-4</v>
       </c>
       <c r="R49" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="S49" s="26">
         <v>41</v>
       </c>
       <c r="T49" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20.5</v>
       </c>
       <c r="U49" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.2704415338050721E-3</v>
       </c>
       <c r="V49" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.86441007407832982</v>
       </c>
-      <c r="X49" s="29">
-        <f t="shared" si="2"/>
-        <v>0.8013350257472327</v>
-      </c>
-      <c r="Y49" s="30">
-        <f t="shared" si="5"/>
-        <v>1.1030156761746679E-2</v>
-      </c>
-      <c r="AA49" s="42">
-        <f t="shared" si="6"/>
-        <v>1.105107113138371E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="15">
+    </row>
+    <row r="50" spans="1:22" ht="15">
       <c r="A50">
         <v>42</v>
       </c>
@@ -6631,50 +6078,38 @@
         <v>42.01</v>
       </c>
       <c r="N50" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.3341E-3</v>
       </c>
       <c r="O50" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6704999999999998E-4</v>
       </c>
       <c r="P50" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.6682757160840822E-4</v>
       </c>
       <c r="R50" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="S50" s="26">
         <v>42</v>
       </c>
       <c r="T50" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="U50" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.9169694016688608E-3</v>
       </c>
       <c r="V50" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.85756656597135739</v>
       </c>
-      <c r="X50" s="29">
-        <f t="shared" si="2"/>
-        <v>0.79171180022185939</v>
-      </c>
-      <c r="Y50" s="30">
-        <f t="shared" si="5"/>
-        <v>1.2008991515627065E-2</v>
-      </c>
-      <c r="AA50" s="42">
-        <f t="shared" si="6"/>
-        <v>1.2033793490536668E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="15">
+    </row>
+    <row r="51" spans="1:22" ht="15">
       <c r="A51">
         <v>43</v>
       </c>
@@ -6712,50 +6147,38 @@
         <v>41.05</v>
       </c>
       <c r="N51" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.4632E-3</v>
       </c>
       <c r="O51" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.316E-4</v>
       </c>
       <c r="P51" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.3133244597145541E-4</v>
       </c>
       <c r="R51" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="S51" s="26">
         <v>43</v>
       </c>
       <c r="T51" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
       <c r="U51" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7.9169694016688608E-3</v>
       </c>
       <c r="V51" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.85077723770866787</v>
       </c>
-      <c r="X51" s="29">
-        <f t="shared" si="2"/>
-        <v>0.78220413993017324</v>
-      </c>
-      <c r="Y51" s="30">
-        <f t="shared" si="5"/>
-        <v>1.2008991515627065E-2</v>
-      </c>
-      <c r="AA51" s="42">
-        <f t="shared" si="6"/>
-        <v>1.2033793490536668E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="15">
+    </row>
+    <row r="52" spans="1:22" ht="15">
       <c r="A52">
         <v>44</v>
       </c>
@@ -6793,50 +6216,38 @@
         <v>40.1</v>
       </c>
       <c r="N52" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.5893000000000001E-3</v>
       </c>
       <c r="O52" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.9465000000000004E-4</v>
       </c>
       <c r="P52" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>7.9433434930487046E-4</v>
       </c>
       <c r="R52" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="S52" s="26">
         <v>44</v>
       </c>
       <c r="T52" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="U52" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>8.9026347669918238E-3</v>
       </c>
       <c r="V52" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.84320307869327737</v>
       </c>
-      <c r="X52" s="29">
-        <f t="shared" si="2"/>
-        <v>0.77164388518820448</v>
-      </c>
-      <c r="Y52" s="30">
-        <f t="shared" si="5"/>
-        <v>1.3500637752839606E-2</v>
-      </c>
-      <c r="AA52" s="42">
-        <f t="shared" si="6"/>
-        <v>1.3532004845827571E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="15">
+    </row>
+    <row r="53" spans="1:22" ht="15">
       <c r="A53">
         <v>45</v>
       </c>
@@ -6874,50 +6285,38 @@
         <v>39.15</v>
       </c>
       <c r="N53" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.7493999999999999E-3</v>
       </c>
       <c r="O53" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.7469999999999996E-4</v>
       </c>
       <c r="P53" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.7431756146949535E-4</v>
       </c>
       <c r="R53" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="S53" s="26">
         <v>45</v>
       </c>
       <c r="T53" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22.5</v>
       </c>
       <c r="U53" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>8.9026347669918238E-3</v>
       </c>
       <c r="V53" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.83569634964926809</v>
       </c>
-      <c r="X53" s="29">
-        <f t="shared" si="2"/>
-        <v>0.76122620062008484</v>
-      </c>
-      <c r="Y53" s="30">
-        <f t="shared" si="5"/>
-        <v>1.3500637752839495E-2</v>
-      </c>
-      <c r="AA53" s="42">
-        <f t="shared" si="6"/>
-        <v>1.3532004845827571E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="15">
+    </row>
+    <row r="54" spans="1:22" ht="15">
       <c r="A54">
         <v>46</v>
       </c>
@@ -6955,50 +6354,38 @@
         <v>38.21</v>
       </c>
       <c r="N54" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1.8897499999999999E-3</v>
       </c>
       <c r="O54" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4487499999999997E-4</v>
       </c>
       <c r="P54" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.4442874617961525E-4</v>
       </c>
       <c r="R54" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="S54" s="26">
         <v>46</v>
       </c>
       <c r="T54" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="U54" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.0155332817756602E-2</v>
       </c>
       <c r="V54" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.82720957508399551</v>
       </c>
-      <c r="X54" s="29">
-        <f t="shared" si="2"/>
-        <v>0.74950690850273305</v>
-      </c>
-      <c r="Y54" s="30">
-        <f t="shared" si="5"/>
-        <v>1.5395282122193654E-2</v>
-      </c>
-      <c r="AA54" s="42">
-        <f t="shared" si="6"/>
-        <v>1.5436105882990034E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="15">
+    </row>
+    <row r="55" spans="1:22" ht="15">
       <c r="A55">
         <v>47</v>
       </c>
@@ -7036,50 +6423,38 @@
         <v>37.270000000000003</v>
       </c>
       <c r="N55" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.0474E-3</v>
       </c>
       <c r="O55" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0237E-3</v>
       </c>
       <c r="P55" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.023176197908926E-3</v>
       </c>
       <c r="R55" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="S55" s="26">
         <v>47</v>
       </c>
       <c r="T55" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>23.5</v>
       </c>
       <c r="U55" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.0155332817756602E-2</v>
       </c>
       <c r="V55" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.81880898653898249</v>
       </c>
-      <c r="X55" s="29">
-        <f t="shared" si="2"/>
-        <v>0.73796803819380019</v>
-      </c>
-      <c r="Y55" s="30">
-        <f t="shared" si="5"/>
-        <v>1.5395282122193765E-2</v>
-      </c>
-      <c r="AA55" s="42">
-        <f t="shared" si="6"/>
-        <v>1.5436105882990034E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="15">
+    </row>
+    <row r="56" spans="1:22" ht="15">
       <c r="A56">
         <v>48</v>
       </c>
@@ -7117,50 +6492,38 @@
         <v>36.33</v>
       </c>
       <c r="N56" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.1968999999999999E-3</v>
       </c>
       <c r="O56" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0984499999999999E-3</v>
       </c>
       <c r="P56" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.0978469246349931E-3</v>
       </c>
       <c r="R56" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="S56" s="26">
         <v>48</v>
       </c>
       <c r="T56" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="U56" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.1217706996264343E-2</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.80962382724208004</v>
       </c>
-      <c r="X56" s="29">
-        <f t="shared" si="2"/>
-        <v>0.72542177402990571</v>
-      </c>
-      <c r="Y56" s="30">
-        <f t="shared" si="5"/>
-        <v>1.7001094240614911E-2</v>
-      </c>
-      <c r="AA56" s="42">
-        <f t="shared" si="6"/>
-        <v>1.70509146343218E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="15">
+    </row>
+    <row r="57" spans="1:22" ht="15">
       <c r="A57">
         <v>49</v>
       </c>
@@ -7198,50 +6561,38 @@
         <v>35.4</v>
       </c>
       <c r="N57" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.3821499999999995E-3</v>
       </c>
       <c r="O57" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1910749999999998E-3</v>
       </c>
       <c r="P57" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1903659517100706E-3</v>
       </c>
       <c r="R57" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="S57" s="26">
         <v>49</v>
       </c>
       <c r="T57" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.5</v>
       </c>
       <c r="U57" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.1217706996264343E-2</v>
       </c>
       <c r="V57" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.80054170437088423</v>
       </c>
-      <c r="X57" s="29">
-        <f t="shared" si="2"/>
-        <v>0.71308881008542924</v>
-      </c>
-      <c r="Y57" s="30">
-        <f t="shared" si="5"/>
-        <v>1.7001094240614911E-2</v>
-      </c>
-      <c r="AA57" s="42">
-        <f t="shared" si="6"/>
-        <v>1.70509146343218E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="15">
+    </row>
+    <row r="58" spans="1:22" ht="15">
       <c r="A58" s="34">
         <v>50</v>
       </c>
@@ -7280,50 +6631,38 @@
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.5958999999999999E-3</v>
       </c>
       <c r="O58" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.29795E-3</v>
       </c>
       <c r="P58" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2971080272177193E-3</v>
       </c>
       <c r="R58" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="S58" s="26">
         <v>50</v>
       </c>
       <c r="T58" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="U58" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.2546404292883451E-2</v>
       </c>
       <c r="V58" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.79049778449453312</v>
       </c>
-      <c r="X58" s="29">
-        <f t="shared" si="2"/>
-        <v>0.69953427555390746</v>
-      </c>
-      <c r="Y58" s="30">
-        <f t="shared" si="5"/>
-        <v>1.9008199735875753E-2</v>
-      </c>
-      <c r="AA58" s="42">
-        <f t="shared" si="6"/>
-        <v>1.9070534525182845E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="15">
+    </row>
+    <row r="59" spans="1:22" ht="15">
       <c r="A59">
         <v>51</v>
       </c>
@@ -7361,50 +6700,38 @@
         <v>33.54</v>
       </c>
       <c r="N59" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.7982000000000003E-3</v>
       </c>
       <c r="O59" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3991000000000001E-3</v>
       </c>
       <c r="P59" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.3981217158872683E-3</v>
       </c>
       <c r="R59" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="S59" s="26">
         <v>51</v>
       </c>
       <c r="T59" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
       <c r="U59" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.2546404292883451E-2</v>
       </c>
       <c r="V59" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.78057987969763609</v>
       </c>
-      <c r="X59" s="29">
-        <f t="shared" si="2"/>
-        <v>0.6862373883220878</v>
-      </c>
-      <c r="Y59" s="30">
-        <f t="shared" si="5"/>
-        <v>1.9008199735875531E-2</v>
-      </c>
-      <c r="AA59" s="42">
-        <f t="shared" si="6"/>
-        <v>1.9070534525182845E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="15">
+    </row>
+    <row r="60" spans="1:22" ht="15">
       <c r="A60">
         <v>52</v>
       </c>
@@ -7442,50 +6769,38 @@
         <v>32.619999999999997</v>
       </c>
       <c r="N60" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0339E-3</v>
       </c>
       <c r="O60" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.51695E-3</v>
       </c>
       <c r="P60" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.5158000129131821E-3</v>
       </c>
       <c r="R60" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="S60" s="26">
         <v>52</v>
       </c>
       <c r="T60" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="U60" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.4121246506476393E-2</v>
       </c>
       <c r="V60" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.76955711879843014</v>
       </c>
-      <c r="X60" s="29">
-        <f t="shared" si="2"/>
-        <v>0.67156198971027703</v>
-      </c>
-      <c r="Y60" s="30">
-        <f t="shared" si="5"/>
-        <v>2.1385309022135091E-2</v>
-      </c>
-      <c r="AA60" s="42">
-        <f t="shared" si="6"/>
-        <v>2.1464294689844118E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="15">
+    </row>
+    <row r="61" spans="1:22" ht="15">
       <c r="A61">
         <v>53</v>
       </c>
@@ -7523,50 +6838,38 @@
         <v>31.7</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.2021999999999997E-3</v>
       </c>
       <c r="O61" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6010999999999998E-3</v>
       </c>
       <c r="P61" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.5998189231969384E-3</v>
       </c>
       <c r="R61" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="S61" s="26">
         <v>53</v>
       </c>
       <c r="T61" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>26.5</v>
       </c>
       <c r="U61" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.4121246506476393E-2</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75869001302306383</v>
       </c>
-      <c r="X61" s="29">
-        <f t="shared" si="2"/>
-        <v>0.65720042903280274</v>
-      </c>
-      <c r="Y61" s="30">
-        <f t="shared" si="5"/>
-        <v>2.1385309022135313E-2</v>
-      </c>
-      <c r="AA61" s="42">
-        <f t="shared" si="6"/>
-        <v>2.1464294689844118E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="15">
+    </row>
+    <row r="62" spans="1:22" ht="15">
       <c r="A62">
         <v>54</v>
       </c>
@@ -7604,50 +6907,38 @@
         <v>30.78</v>
       </c>
       <c r="N62" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.4675000000000001E-3</v>
       </c>
       <c r="O62" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.73375E-3</v>
       </c>
       <c r="P62" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.7322479236691057E-3</v>
       </c>
       <c r="R62" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="S62" s="26">
         <v>54</v>
       </c>
       <c r="T62" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="U62" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.5802976658933487E-2</v>
       </c>
       <c r="V62" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.74670045245589445</v>
       </c>
-      <c r="X62" s="29">
-        <f t="shared" si="2"/>
-        <v>0.64147915731491778</v>
-      </c>
-      <c r="Y62" s="30">
-        <f t="shared" si="5"/>
-        <v>2.3921578598209092E-2</v>
-      </c>
-      <c r="AA62" s="42">
-        <f t="shared" si="6"/>
-        <v>2.40205245215789E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="15">
+    </row>
+    <row r="63" spans="1:22" ht="15">
       <c r="A63">
         <v>55</v>
       </c>
@@ -7685,50 +6976,38 @@
         <v>29.87</v>
       </c>
       <c r="N63" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.7495499999999999E-3</v>
       </c>
       <c r="O63" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.874775E-3</v>
       </c>
       <c r="P63" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.8730187070724602E-3</v>
       </c>
       <c r="R63" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="S63" s="26">
         <v>55</v>
       </c>
       <c r="T63" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
       <c r="U63" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.5802976658933487E-2</v>
       </c>
       <c r="V63" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.73490036263451886</v>
       </c>
-      <c r="X63" s="29">
-        <f t="shared" si="2"/>
-        <v>0.62613396323409576</v>
-      </c>
-      <c r="Y63" s="30">
-        <f t="shared" si="5"/>
-        <v>2.3921578598209536E-2</v>
-      </c>
-      <c r="AA63" s="42">
-        <f t="shared" si="6"/>
-        <v>2.40205245215789E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="15">
+    </row>
+    <row r="64" spans="1:22" ht="15">
       <c r="A64">
         <v>56</v>
       </c>
@@ -7766,50 +7045,38 @@
         <v>28.97</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4.1976000000000001E-3</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0988000000000001E-3</v>
       </c>
       <c r="P64" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.0965990593273531E-3</v>
       </c>
       <c r="R64" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="S64" s="26">
         <v>56</v>
       </c>
       <c r="T64" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="U64" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.784503246734892E-2</v>
       </c>
       <c r="V64" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7217860418030394</v>
       </c>
-      <c r="X64" s="29">
-        <f t="shared" si="2"/>
-        <v>0.60922944941610691</v>
-      </c>
-      <c r="Y64" s="30">
-        <f t="shared" si="5"/>
-        <v>2.6998238093768223E-2</v>
-      </c>
-      <c r="AA64" s="42">
-        <f t="shared" si="6"/>
-        <v>2.712444935037036E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="15">
+    </row>
+    <row r="65" spans="1:22" ht="15">
       <c r="A65">
         <v>57</v>
       </c>
@@ -7847,50 +7114,38 @@
         <v>28.07</v>
       </c>
       <c r="N65" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4.5408499999999999E-3</v>
       </c>
       <c r="O65" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.270425E-3</v>
       </c>
       <c r="P65" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.2678495346620808E-3</v>
       </c>
       <c r="R65" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="S65" s="26">
         <v>57</v>
       </c>
       <c r="T65" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="U65" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.784503246734892E-2</v>
       </c>
       <c r="V65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70890574645258486</v>
       </c>
-      <c r="X65" s="29">
-        <f t="shared" si="2"/>
-        <v>0.5927813276870354</v>
-      </c>
-      <c r="Y65" s="30">
-        <f t="shared" si="5"/>
-        <v>2.6998238093768445E-2</v>
-      </c>
-      <c r="AA65" s="42">
-        <f t="shared" si="6"/>
-        <v>2.712444935037036E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="15">
+    </row>
+    <row r="66" spans="1:22" ht="15">
       <c r="A66">
         <v>58</v>
       </c>
@@ -7928,50 +7183,38 @@
         <v>27.17</v>
       </c>
       <c r="N66" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5.0005999999999991E-3</v>
       </c>
       <c r="O66" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5002999999999996E-3</v>
       </c>
       <c r="P66" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.4971768534317595E-3</v>
       </c>
       <c r="R66" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="S66" s="26">
         <v>58</v>
       </c>
       <c r="T66" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="U66" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.9828428811873078E-2</v>
       </c>
       <c r="V66" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.69484925932472208</v>
       </c>
-      <c r="X66" s="29">
-        <f t="shared" si="2"/>
-        <v>0.57500776610869764</v>
-      </c>
-      <c r="Y66" s="30">
-        <f t="shared" si="5"/>
-        <v>2.9983335756691543E-2</v>
-      </c>
-      <c r="AA66" s="42">
-        <f t="shared" si="6"/>
-        <v>3.0139211794047077E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="15">
+    </row>
+    <row r="67" spans="1:22" ht="15">
       <c r="A67">
         <v>59</v>
       </c>
@@ -8009,50 +7252,38 @@
         <v>26.29</v>
       </c>
       <c r="N67" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5.4414500000000005E-3</v>
       </c>
       <c r="O67" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7207250000000002E-3</v>
       </c>
       <c r="P67" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.7170271820793346E-3</v>
       </c>
       <c r="R67" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="S67" s="26">
         <v>59</v>
       </c>
       <c r="T67" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>29.5</v>
       </c>
       <c r="U67" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.9828428811873078E-2</v>
       </c>
       <c r="V67" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.68107149025121905</v>
       </c>
-      <c r="X67" s="29">
-        <f t="shared" si="2"/>
-        <v>0.55776711519475541</v>
-      </c>
-      <c r="Y67" s="30">
-        <f t="shared" si="5"/>
-        <v>2.9983335756691543E-2</v>
-      </c>
-      <c r="AA67" s="42">
-        <f t="shared" si="6"/>
-        <v>3.0139211794047077E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="15">
+    </row>
+    <row r="68" spans="1:22" ht="15">
       <c r="A68">
         <v>60</v>
       </c>
@@ -8090,50 +7321,38 @@
         <v>25.41</v>
       </c>
       <c r="N68" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5.9619499999999997E-3</v>
       </c>
       <c r="O68" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9809749999999999E-3</v>
       </c>
       <c r="P68" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.9765363056657446E-3</v>
       </c>
       <c r="R68" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="S68" s="26">
         <v>60</v>
       </c>
       <c r="T68" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U68" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.2204127443891331E-2</v>
       </c>
       <c r="V68" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.66594889208328001</v>
       </c>
-      <c r="X68" s="29">
-        <f t="shared" si="2"/>
-        <v>0.53905138859297708</v>
-      </c>
-      <c r="Y68" s="30">
-        <f t="shared" si="5"/>
-        <v>3.3554732955605293E-2</v>
-      </c>
-      <c r="AA68" s="42">
-        <f t="shared" si="6"/>
-        <v>3.3750273714714819E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="15">
+    </row>
+    <row r="69" spans="1:22" ht="15">
       <c r="A69">
         <v>61</v>
       </c>
@@ -8171,50 +7390,38 @@
         <v>24.53</v>
       </c>
       <c r="N69" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6.5013499999999995E-3</v>
       </c>
       <c r="O69" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2506749999999997E-3</v>
       </c>
       <c r="P69" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.2453972762924721E-3</v>
       </c>
       <c r="R69" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="S69" s="26">
         <v>61</v>
       </c>
       <c r="T69" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>30.5</v>
       </c>
       <c r="U69" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.2204127443891331E-2</v>
       </c>
       <c r="V69" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6511620780123446</v>
       </c>
-      <c r="X69" s="29">
-        <f t="shared" si="2"/>
-        <v>0.52096366319939147</v>
-      </c>
-      <c r="Y69" s="30">
-        <f t="shared" si="5"/>
-        <v>3.3554732955605404E-2</v>
-      </c>
-      <c r="AA69" s="42">
-        <f t="shared" si="6"/>
-        <v>3.3750273714714819E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="15">
+    </row>
+    <row r="70" spans="1:22" ht="15">
       <c r="A70">
         <v>62</v>
       </c>
@@ -8252,50 +7459,38 @@
         <v>23.67</v>
       </c>
       <c r="N70" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7.3276999999999995E-3</v>
       </c>
       <c r="O70" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.6638499999999997E-3</v>
       </c>
       <c r="P70" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.6571462912156072E-3</v>
       </c>
       <c r="R70" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S70" s="26">
         <v>62</v>
       </c>
       <c r="T70" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="U70" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.501712768987574E-2</v>
       </c>
       <c r="V70" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6348718731599049</v>
       </c>
-      <c r="X70" s="29">
-        <f t="shared" si="2"/>
-        <v>0.50128285619042101</v>
-      </c>
-      <c r="Y70" s="30">
-        <f t="shared" si="5"/>
-        <v>3.777769621801419E-2</v>
-      </c>
-      <c r="AA70" s="42">
-        <f t="shared" si="6"/>
-        <v>3.8026034088611126E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="15">
+    </row>
+    <row r="71" spans="1:22" ht="15">
       <c r="A71">
         <v>63</v>
       </c>
@@ -8333,50 +7528,38 @@
         <v>22.81</v>
       </c>
       <c r="N71" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>7.9595499999999993E-3</v>
       </c>
       <c r="O71" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9797749999999996E-3</v>
       </c>
       <c r="P71" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.9718661907138797E-3</v>
       </c>
       <c r="R71" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="S71" s="26">
         <v>63</v>
       </c>
       <c r="T71" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
       <c r="U71" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.501712768987574E-2</v>
       </c>
       <c r="V71" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.618989202442353</v>
       </c>
-      <c r="X71" s="29">
-        <f t="shared" si="2"/>
-        <v>0.48234554472996088</v>
-      </c>
-      <c r="Y71" s="30">
-        <f t="shared" si="5"/>
-        <v>3.7777696218013967E-2</v>
-      </c>
-      <c r="AA71" s="42">
-        <f t="shared" si="6"/>
-        <v>3.8026034088611126E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="15">
+    </row>
+    <row r="72" spans="1:22" ht="15">
       <c r="A72">
         <v>64</v>
       </c>
@@ -8414,50 +7597,38 @@
         <v>21.96</v>
       </c>
       <c r="N72" s="29">
-        <f t="shared" ref="N72:N108" si="12">B72*$Q$5 + H72*(1-$Q$5)</f>
+        <f t="shared" ref="N72:N108" si="9">B72*$Q$5 + H72*(1-$Q$5)</f>
         <v>8.5915999999999996E-3</v>
       </c>
       <c r="O72" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2957999999999998E-3</v>
       </c>
       <c r="P72" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.2865862493782769E-3</v>
       </c>
       <c r="R72" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="S72" s="26">
         <v>64</v>
       </c>
       <c r="T72" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="U72" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.7952662912272164E-2</v>
       </c>
       <c r="V72" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.60168680592014567</v>
       </c>
-      <c r="X72" s="29">
-        <f t="shared" ref="X72:X108" si="13">V72^$Z$5</f>
-        <v>0.46200124088765054</v>
-      </c>
-      <c r="Y72" s="30">
-        <f t="shared" si="5"/>
-        <v>4.2177862042241943E-2</v>
-      </c>
-      <c r="AA72" s="42">
-        <f t="shared" si="6"/>
-        <v>4.2488047626653688E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="15">
+    </row>
+    <row r="73" spans="1:22" ht="15">
       <c r="A73">
         <v>65</v>
       </c>
@@ -8495,50 +7666,38 @@
         <v>21.12</v>
       </c>
       <c r="N73" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>9.4469499999999991E-3</v>
       </c>
       <c r="O73" s="30">
-        <f t="shared" ref="O73:O108" si="14">N73/2</f>
+        <f t="shared" ref="O73:O108" si="10">N73/2</f>
         <v>4.7234749999999995E-3</v>
       </c>
       <c r="P73" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.7123369356524281E-3</v>
       </c>
       <c r="R73" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="S73" s="26">
         <v>65</v>
       </c>
       <c r="T73" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>32.5</v>
       </c>
       <c r="U73" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.7952662912272164E-2</v>
       </c>
       <c r="V73" s="29">
-        <f t="shared" ref="V73:V108" si="15">V72-V72*U73</f>
+        <f t="shared" ref="V73:V108" si="11">V72-V72*U73</f>
         <v>0.58486805745549808</v>
       </c>
-      <c r="X73" s="29">
-        <f t="shared" si="13"/>
-        <v>0.44251501628614665</v>
-      </c>
-      <c r="Y73" s="30">
-        <f t="shared" ref="Y73:Y108" si="16">1-X73/X72</f>
-        <v>4.2177862042241943E-2</v>
-      </c>
-      <c r="AA73" s="42">
-        <f t="shared" ref="AA73:AA108" si="17">U73*$Z$5</f>
-        <v>4.2488047626653688E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="15">
+    </row>
+    <row r="74" spans="1:22" ht="15">
       <c r="A74">
         <v>66</v>
       </c>
@@ -8576,50 +7735,38 @@
         <v>20.29</v>
       </c>
       <c r="N74" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.02925E-2</v>
       </c>
       <c r="O74" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5.1462499999999998E-3</v>
       </c>
       <c r="P74" s="38">
-        <f t="shared" ref="P74:P108" si="18">1-EXP(-O74)</f>
+        <f t="shared" ref="P74:P108" si="12">1-EXP(-O74)</f>
         <v>5.1330307417263299E-3</v>
       </c>
       <c r="R74" s="32">
-        <f t="shared" ref="R74:R108" si="19">$T$5+ROUNDDOWN(T74,0)</f>
+        <f t="shared" ref="R74:R108" si="13">$T$5+ROUNDDOWN(T74,0)</f>
         <v>83</v>
       </c>
       <c r="S74" s="26">
         <v>66</v>
       </c>
       <c r="T74" s="33">
-        <f t="shared" ref="T74:T108" si="20">S74*0.5</f>
+        <f t="shared" ref="T74:T108" si="14">S74*0.5</f>
         <v>33</v>
       </c>
       <c r="U74" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.2004436618850662E-2</v>
       </c>
       <c r="V74" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.56614968478027328</v>
       </c>
-      <c r="X74" s="29">
-        <f t="shared" si="13"/>
-        <v>0.42116815878784136</v>
-      </c>
-      <c r="Y74" s="30">
-        <f t="shared" si="16"/>
-        <v>4.8239848847302369E-2</v>
-      </c>
-      <c r="AA74" s="42">
-        <f t="shared" si="17"/>
-        <v>4.8646743660653011E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="15">
+    </row>
+    <row r="75" spans="1:22" ht="15">
       <c r="A75">
         <v>67</v>
       </c>
@@ -8657,50 +7804,38 @@
         <v>19.46</v>
       </c>
       <c r="N75" s="29">
+        <f t="shared" si="9"/>
+        <v>1.1215299999999999E-2</v>
+      </c>
+      <c r="O75" s="30">
+        <f t="shared" si="10"/>
+        <v>5.6076499999999996E-3</v>
+      </c>
+      <c r="P75" s="38">
         <f t="shared" si="12"/>
-        <v>1.1215299999999999E-2</v>
-      </c>
-      <c r="O75" s="30">
-        <f t="shared" si="14"/>
-        <v>5.6076499999999996E-3</v>
-      </c>
-      <c r="P75" s="38">
-        <f t="shared" si="18"/>
         <v>5.5919564790327669E-3</v>
       </c>
       <c r="R75" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="S75" s="26">
         <v>67</v>
       </c>
       <c r="T75" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>33.5</v>
       </c>
       <c r="U75" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.2004436618850662E-2</v>
       </c>
       <c r="V75" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.54803038307694074</v>
       </c>
-      <c r="X75" s="29">
-        <f t="shared" si="13"/>
-        <v>0.40085107046861929</v>
-      </c>
-      <c r="Y75" s="30">
-        <f t="shared" si="16"/>
-        <v>4.8239848847302258E-2</v>
-      </c>
-      <c r="AA75" s="42">
-        <f t="shared" si="17"/>
-        <v>4.8646743660653011E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="15">
+    </row>
+    <row r="76" spans="1:22" ht="15">
       <c r="A76">
         <v>68</v>
       </c>
@@ -8738,50 +7873,38 @@
         <v>18.64</v>
       </c>
       <c r="N76" s="29">
+        <f t="shared" si="9"/>
+        <v>1.2301349999999999E-2</v>
+      </c>
+      <c r="O76" s="30">
+        <f t="shared" si="10"/>
+        <v>6.1506749999999995E-3</v>
+      </c>
+      <c r="P76" s="38">
         <f t="shared" si="12"/>
-        <v>1.2301349999999999E-2</v>
-      </c>
-      <c r="O76" s="30">
-        <f t="shared" si="14"/>
-        <v>6.1506749999999995E-3</v>
-      </c>
-      <c r="P76" s="38">
-        <f t="shared" si="18"/>
         <v>6.1317983197923809E-3</v>
       </c>
       <c r="R76" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="S76" s="26">
         <v>68</v>
       </c>
       <c r="T76" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="U76" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.627936587803926E-2</v>
       </c>
       <c r="V76" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.52814818829701038</v>
       </c>
-      <c r="X76" s="29">
-        <f t="shared" si="13"/>
-        <v>0.37895601729027079</v>
-      </c>
-      <c r="Y76" s="30">
-        <f t="shared" si="16"/>
-        <v>5.462141626003858E-2</v>
-      </c>
-      <c r="AA76" s="42">
-        <f t="shared" si="17"/>
-        <v>5.5144636134619673E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="15">
+    </row>
+    <row r="77" spans="1:22" ht="15">
       <c r="A77">
         <v>69</v>
       </c>
@@ -8819,50 +7942,38 @@
         <v>17.829999999999998</v>
       </c>
       <c r="N77" s="29">
+        <f t="shared" si="9"/>
+        <v>1.3488E-2</v>
+      </c>
+      <c r="O77" s="30">
+        <f t="shared" si="10"/>
+        <v>6.744E-3</v>
+      </c>
+      <c r="P77" s="38">
         <f t="shared" si="12"/>
-        <v>1.3488E-2</v>
-      </c>
-      <c r="O77" s="30">
-        <f t="shared" si="14"/>
-        <v>6.744E-3</v>
-      </c>
-      <c r="P77" s="38">
-        <f t="shared" si="18"/>
         <v>6.7213102671721536E-3</v>
       </c>
       <c r="R77" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="S77" s="26">
         <v>69</v>
       </c>
       <c r="T77" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>34.5</v>
       </c>
       <c r="U77" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.627936587803926E-2</v>
       </c>
       <c r="V77" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.50898730693595962</v>
       </c>
-      <c r="X77" s="29">
-        <f t="shared" si="13"/>
-        <v>0.35825690292561257</v>
-      </c>
-      <c r="Y77" s="30">
-        <f t="shared" si="16"/>
-        <v>5.4621416260038469E-2</v>
-      </c>
-      <c r="AA77" s="42">
-        <f t="shared" si="17"/>
-        <v>5.5144636134619673E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="15">
+    </row>
+    <row r="78" spans="1:22" ht="15">
       <c r="A78">
         <v>70</v>
       </c>
@@ -8900,50 +8011,38 @@
         <v>17.02</v>
       </c>
       <c r="N78" s="29">
+        <f t="shared" si="9"/>
+        <v>1.4593999999999999E-2</v>
+      </c>
+      <c r="O78" s="30">
+        <f t="shared" si="10"/>
+        <v>7.2969999999999997E-3</v>
+      </c>
+      <c r="P78" s="38">
         <f t="shared" si="12"/>
-        <v>1.4593999999999999E-2</v>
-      </c>
-      <c r="O78" s="30">
-        <f t="shared" si="14"/>
-        <v>7.2969999999999997E-3</v>
-      </c>
-      <c r="P78" s="38">
-        <f t="shared" si="18"/>
         <v>7.2704415338050721E-3</v>
       </c>
       <c r="R78" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="S78" s="26">
         <v>70</v>
       </c>
       <c r="T78" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="U78" s="30">
-        <f t="shared" ref="U78:U108" si="21">VLOOKUP(ROUND(R78,0),$A$8:$P$108,16,FALSE)</f>
+        <f t="shared" ref="U78:U108" si="15">VLOOKUP(ROUND(R78,0),$A$8:$P$108,16,FALSE)</f>
         <v>4.0962090845095389E-2</v>
       </c>
       <c r="V78" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.48813812263024836</v>
       </c>
-      <c r="X78" s="29">
-        <f t="shared" si="13"/>
-        <v>0.33619011855738096</v>
-      </c>
-      <c r="Y78" s="30">
-        <f t="shared" si="16"/>
-        <v>6.1594861642661813E-2</v>
-      </c>
-      <c r="AA78" s="42">
-        <f t="shared" si="17"/>
-        <v>6.2262378084544989E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="15">
+    </row>
+    <row r="79" spans="1:22" ht="15">
       <c r="A79">
         <v>71</v>
       </c>
@@ -8981,50 +8080,38 @@
         <v>16.23</v>
       </c>
       <c r="N79" s="29">
+        <f t="shared" si="9"/>
+        <v>1.589695E-2</v>
+      </c>
+      <c r="O79" s="30">
+        <f t="shared" si="10"/>
+        <v>7.948475E-3</v>
+      </c>
+      <c r="P79" s="38">
         <f t="shared" si="12"/>
-        <v>1.589695E-2</v>
-      </c>
-      <c r="O79" s="30">
-        <f t="shared" si="14"/>
-        <v>7.948475E-3</v>
-      </c>
-      <c r="P79" s="38">
-        <f t="shared" si="18"/>
         <v>7.9169694016688608E-3</v>
       </c>
       <c r="R79" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="S79" s="26">
         <v>71</v>
       </c>
       <c r="T79" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>35.5</v>
       </c>
       <c r="U79" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.0962090845095389E-2</v>
       </c>
       <c r="V79" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.46814296450611381</v>
       </c>
-      <c r="X79" s="29">
-        <f t="shared" si="13"/>
-        <v>0.31548253471920906</v>
-      </c>
-      <c r="Y79" s="30">
-        <f t="shared" si="16"/>
-        <v>6.1594861642661591E-2</v>
-      </c>
-      <c r="AA79" s="42">
-        <f t="shared" si="17"/>
-        <v>6.2262378084544989E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="15">
+    </row>
+    <row r="80" spans="1:22" ht="15">
       <c r="A80">
         <v>72</v>
       </c>
@@ -9062,50 +8149,38 @@
         <v>15.44</v>
       </c>
       <c r="N80" s="29">
+        <f t="shared" si="9"/>
+        <v>1.7884999999999998E-2</v>
+      </c>
+      <c r="O80" s="30">
+        <f t="shared" si="10"/>
+        <v>8.9424999999999991E-3</v>
+      </c>
+      <c r="P80" s="38">
         <f t="shared" si="12"/>
-        <v>1.7884999999999998E-2</v>
-      </c>
-      <c r="O80" s="30">
-        <f t="shared" si="14"/>
-        <v>8.9424999999999991E-3</v>
-      </c>
-      <c r="P80" s="38">
-        <f t="shared" si="18"/>
         <v>8.9026347669918238E-3</v>
       </c>
       <c r="R80" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="S80" s="26">
         <v>72</v>
       </c>
       <c r="T80" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="U80" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.6800349102239402E-2</v>
       </c>
       <c r="V80" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.44623371033747039</v>
       </c>
-      <c r="X80" s="29">
-        <f t="shared" si="13"/>
-        <v>0.2933153631626782</v>
-      </c>
-      <c r="Y80" s="30">
-        <f t="shared" si="16"/>
-        <v>7.0264338329411702E-2</v>
-      </c>
-      <c r="AA80" s="42">
-        <f t="shared" si="17"/>
-        <v>7.11365306354039E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="15">
+    </row>
+    <row r="81" spans="1:22" ht="15">
       <c r="A81">
         <v>73</v>
       </c>
@@ -9143,50 +8218,38 @@
         <v>14.68</v>
       </c>
       <c r="N81" s="29">
+        <f t="shared" si="9"/>
+        <v>2.0414500000000002E-2</v>
+      </c>
+      <c r="O81" s="30">
+        <f t="shared" si="10"/>
+        <v>1.0207250000000001E-2</v>
+      </c>
+      <c r="P81" s="38">
         <f t="shared" si="12"/>
-        <v>2.0414500000000002E-2</v>
-      </c>
-      <c r="O81" s="30">
-        <f t="shared" si="14"/>
-        <v>1.0207250000000001E-2</v>
-      </c>
-      <c r="P81" s="38">
-        <f t="shared" si="18"/>
         <v>1.0155332817756602E-2</v>
       </c>
       <c r="R81" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="S81" s="26">
         <v>73</v>
       </c>
       <c r="T81" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>36.5</v>
       </c>
       <c r="U81" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.6800349102239402E-2</v>
       </c>
       <c r="V81" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.42534981691248919</v>
       </c>
-      <c r="X81" s="29">
-        <f t="shared" si="13"/>
-        <v>0.27270575324820151</v>
-      </c>
-      <c r="Y81" s="30">
-        <f t="shared" si="16"/>
-        <v>7.0264338329411702E-2</v>
-      </c>
-      <c r="AA81" s="42">
-        <f t="shared" si="17"/>
-        <v>7.11365306354039E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="15">
+    </row>
+    <row r="82" spans="1:22" ht="15">
       <c r="A82">
         <v>74</v>
       </c>
@@ -9224,50 +8287,38 @@
         <v>13.93</v>
       </c>
       <c r="N82" s="29">
+        <f t="shared" si="9"/>
+        <v>2.2562200000000001E-2</v>
+      </c>
+      <c r="O82" s="30">
+        <f t="shared" si="10"/>
+        <v>1.1281100000000001E-2</v>
+      </c>
+      <c r="P82" s="38">
         <f t="shared" si="12"/>
-        <v>2.2562200000000001E-2</v>
-      </c>
-      <c r="O82" s="30">
-        <f t="shared" si="14"/>
-        <v>1.1281100000000001E-2</v>
-      </c>
-      <c r="P82" s="38">
-        <f t="shared" si="18"/>
         <v>1.1217706996264343E-2</v>
       </c>
       <c r="R82" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="S82" s="26">
         <v>74</v>
       </c>
       <c r="T82" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="U82" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.2496643924842434E-2</v>
       </c>
       <c r="V82" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.40302037903053733</v>
       </c>
-      <c r="X82" s="29">
-        <f t="shared" si="13"/>
-        <v>0.25124478199590899</v>
-      </c>
-      <c r="Y82" s="30">
-        <f t="shared" si="16"/>
-        <v>7.8696437448314227E-2</v>
-      </c>
-      <c r="AA82" s="42">
-        <f t="shared" si="17"/>
-        <v>7.97948987657605E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="15">
+    </row>
+    <row r="83" spans="1:22" ht="15">
       <c r="A83">
         <v>75</v>
       </c>
@@ -9305,50 +8356,38 @@
         <v>13.19</v>
       </c>
       <c r="N83" s="29">
+        <f t="shared" si="9"/>
+        <v>2.5251549999999998E-2</v>
+      </c>
+      <c r="O83" s="30">
+        <f t="shared" si="10"/>
+        <v>1.2625774999999999E-2</v>
+      </c>
+      <c r="P83" s="38">
         <f t="shared" si="12"/>
-        <v>2.5251549999999998E-2</v>
-      </c>
-      <c r="O83" s="30">
-        <f t="shared" si="14"/>
-        <v>1.2625774999999999E-2</v>
-      </c>
-      <c r="P83" s="38">
-        <f t="shared" si="18"/>
         <v>1.2546404292883451E-2</v>
       </c>
       <c r="R83" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="S83" s="26">
         <v>75</v>
       </c>
       <c r="T83" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>37.5</v>
       </c>
       <c r="U83" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.2496643924842434E-2</v>
       </c>
       <c r="V83" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.38186316169811618</v>
       </c>
-      <c r="X83" s="29">
-        <f t="shared" si="13"/>
-        <v>0.23147271272535266</v>
-      </c>
-      <c r="Y83" s="30">
-        <f t="shared" si="16"/>
-        <v>7.8696437448314005E-2</v>
-      </c>
-      <c r="AA83" s="42">
-        <f t="shared" si="17"/>
-        <v>7.97948987657605E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="15">
+    </row>
+    <row r="84" spans="1:22" ht="15">
       <c r="A84">
         <v>76</v>
       </c>
@@ -9386,50 +8425,38 @@
         <v>12.47</v>
       </c>
       <c r="N84" s="29">
+        <f t="shared" si="9"/>
+        <v>2.8443799999999998E-2</v>
+      </c>
+      <c r="O84" s="30">
+        <f t="shared" si="10"/>
+        <v>1.4221899999999999E-2</v>
+      </c>
+      <c r="P84" s="38">
         <f t="shared" si="12"/>
-        <v>2.8443799999999998E-2</v>
-      </c>
-      <c r="O84" s="30">
-        <f t="shared" si="14"/>
-        <v>1.4221899999999999E-2</v>
-      </c>
-      <c r="P84" s="38">
-        <f t="shared" si="18"/>
         <v>1.4121246506476393E-2</v>
       </c>
       <c r="R84" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="S84" s="26">
         <v>76</v>
       </c>
       <c r="T84" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="U84" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.9685372862363417E-2</v>
       </c>
       <c r="V84" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.35907151650976316</v>
       </c>
-      <c r="X84" s="29">
-        <f t="shared" si="13"/>
-        <v>0.21080215824783566</v>
-      </c>
-      <c r="Y84" s="30">
-        <f t="shared" si="16"/>
-        <v>8.9300178125285345E-2</v>
-      </c>
-      <c r="AA84" s="42">
-        <f t="shared" si="17"/>
-        <v>9.0721766750792396E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="15">
+    </row>
+    <row r="85" spans="1:22" ht="15">
       <c r="A85">
         <v>77</v>
       </c>
@@ -9467,50 +8494,38 @@
         <v>11.76</v>
       </c>
       <c r="N85" s="29">
+        <f t="shared" si="9"/>
+        <v>3.1858350000000001E-2</v>
+      </c>
+      <c r="O85" s="30">
+        <f t="shared" si="10"/>
+        <v>1.5929175E-2</v>
+      </c>
+      <c r="P85" s="38">
         <f t="shared" si="12"/>
-        <v>3.1858350000000001E-2</v>
-      </c>
-      <c r="O85" s="30">
-        <f t="shared" si="14"/>
-        <v>1.5929175E-2</v>
-      </c>
-      <c r="P85" s="38">
-        <f t="shared" si="18"/>
         <v>1.5802976658933487E-2</v>
       </c>
       <c r="R85" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="S85" s="26">
         <v>77</v>
       </c>
       <c r="T85" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>38.5</v>
       </c>
       <c r="U85" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.9685372862363417E-2</v>
       </c>
       <c r="V85" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.33764019916262367</v>
       </c>
-      <c r="X85" s="29">
-        <f t="shared" si="13"/>
-        <v>0.19197748796710937</v>
-      </c>
-      <c r="Y85" s="30">
-        <f t="shared" si="16"/>
-        <v>8.9300178125285234E-2</v>
-      </c>
-      <c r="AA85" s="42">
-        <f t="shared" si="17"/>
-        <v>9.0721766750792396E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="15">
+    </row>
+    <row r="86" spans="1:22" ht="15">
       <c r="A86">
         <v>78</v>
       </c>
@@ -9548,50 +8563,38 @@
         <v>11.08</v>
       </c>
       <c r="N86" s="29">
+        <f t="shared" si="9"/>
+        <v>3.6012349999999999E-2</v>
+      </c>
+      <c r="O86" s="30">
+        <f t="shared" si="10"/>
+        <v>1.8006174999999999E-2</v>
+      </c>
+      <c r="P86" s="38">
         <f t="shared" si="12"/>
-        <v>3.6012349999999999E-2</v>
-      </c>
-      <c r="O86" s="30">
-        <f t="shared" si="14"/>
-        <v>1.8006174999999999E-2</v>
-      </c>
-      <c r="P86" s="38">
-        <f t="shared" si="18"/>
         <v>1.784503246734892E-2</v>
       </c>
       <c r="R86" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="S86" s="26">
         <v>78</v>
       </c>
       <c r="T86" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="U86" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.7091869726871978E-2</v>
       </c>
       <c r="V86" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.31498728690584982</v>
       </c>
-      <c r="X86" s="29">
-        <f t="shared" si="13"/>
-        <v>0.17274496550512256</v>
-      </c>
-      <c r="Y86" s="30">
-        <f t="shared" si="16"/>
-        <v>0.10018113407798024</v>
-      </c>
-      <c r="AA86" s="42">
-        <f t="shared" si="17"/>
-        <v>0.10197964198484541</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="15">
+    </row>
+    <row r="87" spans="1:22" ht="15">
       <c r="A87">
         <v>79</v>
       </c>
@@ -9629,50 +8632,38 @@
         <v>10.42</v>
       </c>
       <c r="N87" s="29">
+        <f t="shared" si="9"/>
+        <v>4.0055300000000002E-2</v>
+      </c>
+      <c r="O87" s="30">
+        <f t="shared" si="10"/>
+        <v>2.0027650000000001E-2</v>
+      </c>
+      <c r="P87" s="38">
         <f t="shared" si="12"/>
-        <v>4.0055300000000002E-2</v>
-      </c>
-      <c r="O87" s="30">
-        <f t="shared" si="14"/>
-        <v>2.0027650000000001E-2</v>
-      </c>
-      <c r="P87" s="38">
-        <f t="shared" si="18"/>
         <v>1.9828428811873078E-2</v>
       </c>
       <c r="R87" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="S87" s="26">
         <v>79</v>
       </c>
       <c r="T87" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>39.5</v>
       </c>
       <c r="U87" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.7091869726871978E-2</v>
       </c>
       <c r="V87" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.2938542008871417</v>
       </c>
-      <c r="X87" s="29">
-        <f t="shared" si="13"/>
-        <v>0.15543917895455783</v>
-      </c>
-      <c r="Y87" s="30">
-        <f t="shared" si="16"/>
-        <v>0.10018113407798002</v>
-      </c>
-      <c r="AA87" s="42">
-        <f t="shared" si="17"/>
-        <v>0.10197964198484541</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="15">
+    </row>
+    <row r="88" spans="1:22" ht="15">
       <c r="A88">
         <v>80</v>
       </c>
@@ -9710,50 +8701,38 @@
         <v>9.77</v>
       </c>
       <c r="N88" s="29">
+        <f t="shared" si="9"/>
+        <v>4.4908699999999996E-2</v>
+      </c>
+      <c r="O88" s="30">
+        <f t="shared" si="10"/>
+        <v>2.2454349999999998E-2</v>
+      </c>
+      <c r="P88" s="38">
         <f t="shared" si="12"/>
-        <v>4.4908699999999996E-2</v>
-      </c>
-      <c r="O88" s="30">
-        <f t="shared" si="14"/>
-        <v>2.2454349999999998E-2</v>
-      </c>
-      <c r="P88" s="38">
-        <f t="shared" si="18"/>
         <v>2.2204127443891331E-2</v>
       </c>
       <c r="R88" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="S88" s="26">
         <v>80</v>
       </c>
       <c r="T88" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="U88" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.4257744617679755E-2</v>
       </c>
       <c r="V88" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.27203325068283196</v>
       </c>
-      <c r="X88" s="29">
-        <f t="shared" si="13"/>
-        <v>0.13823735852514127</v>
-      </c>
-      <c r="Y88" s="30">
-        <f t="shared" si="16"/>
-        <v>0.11066592441565493</v>
-      </c>
-      <c r="AA88" s="42">
-        <f t="shared" si="17"/>
-        <v>0.11287177181887323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="15">
+    </row>
+    <row r="89" spans="1:22" ht="15">
       <c r="A89">
         <v>81</v>
       </c>
@@ -9791,50 +8770,38 @@
         <v>9.14</v>
       </c>
       <c r="N89" s="29">
+        <f t="shared" si="9"/>
+        <v>5.0670750000000001E-2</v>
+      </c>
+      <c r="O89" s="30">
+        <f t="shared" si="10"/>
+        <v>2.5335375E-2</v>
+      </c>
+      <c r="P89" s="38">
         <f t="shared" si="12"/>
-        <v>5.0670750000000001E-2</v>
-      </c>
-      <c r="O89" s="30">
-        <f t="shared" si="14"/>
-        <v>2.5335375E-2</v>
-      </c>
-      <c r="P89" s="38">
-        <f t="shared" si="18"/>
         <v>2.501712768987574E-2</v>
       </c>
       <c r="R89" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="S89" s="26">
         <v>81</v>
       </c>
       <c r="T89" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>40.5</v>
       </c>
       <c r="U89" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.4257744617679755E-2</v>
       </c>
       <c r="V89" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.25183267502610895</v>
       </c>
-      <c r="X89" s="29">
-        <f t="shared" si="13"/>
-        <v>0.1229391934551782</v>
-      </c>
-      <c r="Y89" s="30">
-        <f t="shared" si="16"/>
-        <v>0.11066592441565481</v>
-      </c>
-      <c r="AA89" s="42">
-        <f t="shared" si="17"/>
-        <v>0.11287177181887323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="15">
+    </row>
+    <row r="90" spans="1:22" ht="15">
       <c r="A90">
         <v>82</v>
       </c>
@@ -9872,50 +8839,38 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="N90" s="29">
+        <f t="shared" si="9"/>
+        <v>5.6701550000000003E-2</v>
+      </c>
+      <c r="O90" s="30">
+        <f t="shared" si="10"/>
+        <v>2.8350775000000002E-2</v>
+      </c>
+      <c r="P90" s="38">
         <f t="shared" si="12"/>
-        <v>5.6701550000000003E-2</v>
-      </c>
-      <c r="O90" s="30">
-        <f t="shared" si="14"/>
-        <v>2.8350775000000002E-2</v>
-      </c>
-      <c r="P90" s="38">
-        <f t="shared" si="18"/>
         <v>2.7952662912272164E-2</v>
       </c>
       <c r="R90" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="S90" s="26">
         <v>82</v>
       </c>
       <c r="T90" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="U90" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>8.3694518666953988E-2</v>
       </c>
       <c r="V90" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.23075566050518731</v>
       </c>
-      <c r="X90" s="29">
-        <f t="shared" si="13"/>
-        <v>0.10764443734846631</v>
-      </c>
-      <c r="Y90" s="30">
-        <f t="shared" si="16"/>
-        <v>0.12440911378101838</v>
-      </c>
-      <c r="AA90" s="42">
-        <f t="shared" si="17"/>
-        <v>0.12721566837377007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="15">
+    </row>
+    <row r="91" spans="1:22" ht="15">
       <c r="A91">
         <v>83</v>
       </c>
@@ -9953,50 +8908,38 @@
         <v>7.95</v>
       </c>
       <c r="N91" s="29">
+        <f t="shared" si="9"/>
+        <v>6.5055550000000004E-2</v>
+      </c>
+      <c r="O91" s="30">
+        <f t="shared" si="10"/>
+        <v>3.2527775000000002E-2</v>
+      </c>
+      <c r="P91" s="38">
         <f t="shared" si="12"/>
-        <v>6.5055550000000004E-2</v>
-      </c>
-      <c r="O91" s="30">
-        <f t="shared" si="14"/>
-        <v>3.2527775000000002E-2</v>
-      </c>
-      <c r="P91" s="38">
-        <f t="shared" si="18"/>
         <v>3.2004436618850662E-2</v>
       </c>
       <c r="R91" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="S91" s="26">
         <v>83</v>
       </c>
       <c r="T91" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>41.5</v>
       </c>
       <c r="U91" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>8.3694518666953988E-2</v>
       </c>
       <c r="V91" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.21144267656953061</v>
       </c>
-      <c r="X91" s="29">
-        <f t="shared" si="13"/>
-        <v>9.4252488294487249E-2</v>
-      </c>
-      <c r="Y91" s="30">
-        <f t="shared" si="16"/>
-        <v>0.12440911378101849</v>
-      </c>
-      <c r="AA91" s="42">
-        <f t="shared" si="17"/>
-        <v>0.12721566837377007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="15">
+    </row>
+    <row r="92" spans="1:22" ht="15">
       <c r="A92">
         <v>84</v>
       </c>
@@ -10034,50 +8977,38 @@
         <v>7.39</v>
       </c>
       <c r="N92" s="29">
+        <f t="shared" si="9"/>
+        <v>7.3907649999999991E-2</v>
+      </c>
+      <c r="O92" s="30">
+        <f t="shared" si="10"/>
+        <v>3.6953824999999996E-2</v>
+      </c>
+      <c r="P92" s="38">
         <f t="shared" si="12"/>
-        <v>7.3907649999999991E-2</v>
-      </c>
-      <c r="O92" s="30">
-        <f t="shared" si="14"/>
-        <v>3.6953824999999996E-2</v>
-      </c>
-      <c r="P92" s="38">
-        <f t="shared" si="18"/>
         <v>3.627936587803926E-2</v>
       </c>
       <c r="R92" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="S92" s="26">
         <v>84</v>
       </c>
       <c r="T92" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="U92" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.2880831539693398E-2</v>
       </c>
       <c r="V92" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.19180370494677418</v>
       </c>
-      <c r="X92" s="29">
-        <f t="shared" si="13"/>
-        <v>8.1272314457653205E-2</v>
-      </c>
-      <c r="Y92" s="30">
-        <f t="shared" si="16"/>
-        <v>0.13771704144593122</v>
-      </c>
-      <c r="AA92" s="42">
-        <f t="shared" si="17"/>
-        <v>0.14117886394033397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="15">
+    </row>
+    <row r="93" spans="1:22" ht="15">
       <c r="A93">
         <v>85</v>
       </c>
@@ -10115,50 +9046,38 @@
         <v>6.87</v>
       </c>
       <c r="N93" s="29">
+        <f t="shared" si="9"/>
+        <v>8.3649349999999997E-2</v>
+      </c>
+      <c r="O93" s="30">
+        <f t="shared" si="10"/>
+        <v>4.1824674999999999E-2</v>
+      </c>
+      <c r="P93" s="38">
         <f t="shared" si="12"/>
-        <v>8.3649349999999997E-2</v>
-      </c>
-      <c r="O93" s="30">
-        <f t="shared" si="14"/>
-        <v>4.1824674999999999E-2</v>
-      </c>
-      <c r="P93" s="38">
-        <f t="shared" si="18"/>
         <v>4.0962090845095389E-2</v>
       </c>
       <c r="R93" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="S93" s="26">
         <v>85</v>
       </c>
       <c r="T93" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>42.5</v>
       </c>
       <c r="U93" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.2880831539693398E-2</v>
       </c>
       <c r="V93" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.1739888173389238</v>
       </c>
-      <c r="X93" s="29">
-        <f t="shared" si="13"/>
-        <v>7.0079731759081762E-2</v>
-      </c>
-      <c r="Y93" s="30">
-        <f t="shared" si="16"/>
-        <v>0.137717041445932</v>
-      </c>
-      <c r="AA93" s="42">
-        <f t="shared" si="17"/>
-        <v>0.14117886394033397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="15">
+    </row>
+    <row r="94" spans="1:22" ht="15">
       <c r="A94">
         <v>86</v>
       </c>
@@ -10196,50 +9115,38 @@
         <v>6.36</v>
       </c>
       <c r="N94" s="29">
+        <f t="shared" si="9"/>
+        <v>9.5861799999999997E-2</v>
+      </c>
+      <c r="O94" s="30">
+        <f t="shared" si="10"/>
+        <v>4.7930899999999999E-2</v>
+      </c>
+      <c r="P94" s="38">
         <f t="shared" si="12"/>
-        <v>9.5861799999999997E-2</v>
-      </c>
-      <c r="O94" s="30">
-        <f t="shared" si="14"/>
-        <v>4.7930899999999999E-2</v>
-      </c>
-      <c r="P94" s="38">
-        <f t="shared" si="18"/>
         <v>4.6800349102239402E-2</v>
       </c>
       <c r="R94" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="S94" s="26">
         <v>86</v>
       </c>
       <c r="T94" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="U94" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.1025169997278168</v>
       </c>
       <c r="V94" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.15615200579914618</v>
       </c>
-      <c r="X94" s="29">
-        <f t="shared" si="13"/>
-        <v>5.9455536470390542E-2</v>
-      </c>
-      <c r="Y94" s="30">
-        <f t="shared" si="16"/>
-        <v>0.15160154044559981</v>
-      </c>
-      <c r="AA94" s="42">
-        <f t="shared" si="17"/>
-        <v>0.15582583958628154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="15">
+    </row>
+    <row r="95" spans="1:22" ht="15">
       <c r="A95">
         <v>87</v>
       </c>
@@ -10277,50 +9184,38 @@
         <v>5.89</v>
       </c>
       <c r="N95" s="29">
+        <f t="shared" si="9"/>
+        <v>0.10784960000000002</v>
+      </c>
+      <c r="O95" s="30">
+        <f t="shared" si="10"/>
+        <v>5.3924800000000009E-2</v>
+      </c>
+      <c r="P95" s="38">
         <f t="shared" si="12"/>
-        <v>0.10784960000000002</v>
-      </c>
-      <c r="O95" s="30">
-        <f t="shared" si="14"/>
-        <v>5.3924800000000009E-2</v>
-      </c>
-      <c r="P95" s="38">
-        <f t="shared" si="18"/>
         <v>5.2496643924842434E-2</v>
       </c>
       <c r="R95" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="S95" s="26">
         <v>87</v>
       </c>
       <c r="T95" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>43.5</v>
       </c>
       <c r="U95" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.1025169997278168</v>
       </c>
       <c r="V95" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.14014377066313705</v>
       </c>
-      <c r="X95" s="29">
-        <f t="shared" si="13"/>
-        <v>5.0441985553459794E-2</v>
-      </c>
-      <c r="Y95" s="30">
-        <f t="shared" si="16"/>
-        <v>0.15160154044559981</v>
-      </c>
-      <c r="AA95" s="42">
-        <f t="shared" si="17"/>
-        <v>0.15582583958628154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="15">
+    </row>
+    <row r="96" spans="1:22" ht="15">
       <c r="A96">
         <v>88</v>
       </c>
@@ -10358,50 +9253,38 @@
         <v>5.45</v>
       </c>
       <c r="N96" s="29">
+        <f t="shared" si="9"/>
+        <v>0.12308149999999998</v>
+      </c>
+      <c r="O96" s="30">
+        <f t="shared" si="10"/>
+        <v>6.1540749999999991E-2</v>
+      </c>
+      <c r="P96" s="38">
         <f t="shared" si="12"/>
-        <v>0.12308149999999998</v>
-      </c>
-      <c r="O96" s="30">
-        <f t="shared" si="14"/>
-        <v>6.1540749999999991E-2</v>
-      </c>
-      <c r="P96" s="38">
-        <f t="shared" si="18"/>
         <v>5.9685372862363417E-2</v>
       </c>
       <c r="R96" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="S96" s="26">
         <v>88</v>
       </c>
       <c r="T96" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="U96" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.11424427782698754</v>
       </c>
       <c r="V96" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.12413314679177599</v>
       </c>
-      <c r="X96" s="29">
-        <f t="shared" si="13"/>
-        <v>4.194782067310189E-2</v>
-      </c>
-      <c r="Y96" s="30">
-        <f t="shared" si="16"/>
-        <v>0.16839473678837558</v>
-      </c>
-      <c r="AA96" s="42">
-        <f t="shared" si="17"/>
-        <v>0.17365130229702105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="15">
+    </row>
+    <row r="97" spans="1:22" ht="15">
       <c r="A97">
         <v>89</v>
       </c>
@@ -10439,50 +9322,38 @@
         <v>5.04</v>
       </c>
       <c r="N97" s="29">
+        <f t="shared" si="9"/>
+        <v>0.1388971</v>
+      </c>
+      <c r="O97" s="30">
+        <f t="shared" si="10"/>
+        <v>6.9448549999999998E-2</v>
+      </c>
+      <c r="P97" s="38">
         <f t="shared" si="12"/>
-        <v>0.1388971</v>
-      </c>
-      <c r="O97" s="30">
-        <f t="shared" si="14"/>
-        <v>6.9448549999999998E-2</v>
-      </c>
-      <c r="P97" s="38">
-        <f t="shared" si="18"/>
         <v>6.7091869726871978E-2</v>
       </c>
       <c r="R97" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="S97" s="26">
         <v>89</v>
       </c>
       <c r="T97" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>44.5</v>
       </c>
       <c r="U97" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.11424427782698754</v>
       </c>
       <c r="V97" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.10995164508215811</v>
       </c>
-      <c r="X97" s="29">
-        <f t="shared" si="13"/>
-        <v>3.4884028452008907E-2</v>
-      </c>
-      <c r="Y97" s="30">
-        <f t="shared" si="16"/>
-        <v>0.1683947367883758</v>
-      </c>
-      <c r="AA97" s="42">
-        <f t="shared" si="17"/>
-        <v>0.17365130229702105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="15">
+    </row>
+    <row r="98" spans="1:22" ht="15">
       <c r="A98">
         <v>90</v>
       </c>
@@ -10520,50 +9391,38 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="N98" s="29">
+        <f t="shared" si="9"/>
+        <v>0.15431885000000001</v>
+      </c>
+      <c r="O98" s="30">
+        <f t="shared" si="10"/>
+        <v>7.7159425000000004E-2</v>
+      </c>
+      <c r="P98" s="38">
         <f t="shared" si="12"/>
-        <v>0.15431885000000001</v>
-      </c>
-      <c r="O98" s="30">
-        <f t="shared" si="14"/>
-        <v>7.7159425000000004E-2</v>
-      </c>
-      <c r="P98" s="38">
-        <f t="shared" si="18"/>
         <v>7.4257744617679755E-2</v>
       </c>
       <c r="R98" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="S98" s="26">
         <v>90</v>
       </c>
       <c r="T98" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="U98" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.12737908501720574</v>
       </c>
       <c r="V98" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>9.5946105135456261E-2</v>
       </c>
-      <c r="X98" s="29">
-        <f t="shared" si="13"/>
-        <v>2.8358390029164456E-2</v>
-      </c>
-      <c r="Y98" s="30">
-        <f t="shared" si="16"/>
-        <v>0.18706665234555642</v>
-      </c>
-      <c r="AA98" s="42">
-        <f t="shared" si="17"/>
-        <v>0.19361620922615272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="15">
+    </row>
+    <row r="99" spans="1:22" ht="15">
       <c r="A99">
         <v>91</v>
       </c>
@@ -10601,50 +9460,38 @@
         <v>4.3</v>
       </c>
       <c r="N99" s="29">
+        <f t="shared" si="9"/>
+        <v>0.17481094999999999</v>
+      </c>
+      <c r="O99" s="30">
+        <f t="shared" si="10"/>
+        <v>8.7405474999999996E-2</v>
+      </c>
+      <c r="P99" s="38">
         <f t="shared" si="12"/>
-        <v>0.17481094999999999</v>
-      </c>
-      <c r="O99" s="30">
-        <f t="shared" si="14"/>
-        <v>8.7405474999999996E-2</v>
-      </c>
-      <c r="P99" s="38">
-        <f t="shared" si="18"/>
         <v>8.3694518666953988E-2</v>
       </c>
       <c r="R99" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="S99" s="26">
         <v>91</v>
       </c>
       <c r="T99" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>45.5</v>
       </c>
       <c r="U99" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.12737908501720574</v>
       </c>
       <c r="V99" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>8.3724578052337212E-2</v>
       </c>
-      <c r="X99" s="29">
-        <f t="shared" si="13"/>
-        <v>2.3053480940499034E-2</v>
-      </c>
-      <c r="Y99" s="30">
-        <f t="shared" si="16"/>
-        <v>0.18706665234555719</v>
-      </c>
-      <c r="AA99" s="42">
-        <f t="shared" si="17"/>
-        <v>0.19361620922615272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="15">
+    </row>
+    <row r="100" spans="1:22" ht="15">
       <c r="A100">
         <v>92</v>
       </c>
@@ -10682,50 +9529,38 @@
         <v>3.97</v>
       </c>
       <c r="N100" s="29">
+        <f t="shared" si="9"/>
+        <v>0.19496289999999999</v>
+      </c>
+      <c r="O100" s="30">
+        <f t="shared" si="10"/>
+        <v>9.7481449999999997E-2</v>
+      </c>
+      <c r="P100" s="38">
         <f t="shared" si="12"/>
-        <v>0.19496289999999999</v>
-      </c>
-      <c r="O100" s="30">
-        <f t="shared" si="14"/>
-        <v>9.7481449999999997E-2</v>
-      </c>
-      <c r="P100" s="38">
-        <f t="shared" si="18"/>
         <v>9.2880831539693398E-2</v>
       </c>
       <c r="R100" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="S100" s="26">
         <v>92</v>
       </c>
       <c r="T100" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="U100" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.14080025326846302</v>
       </c>
       <c r="V100" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7.1936136257772926E-2</v>
       </c>
-      <c r="X100" s="29">
-        <f t="shared" si="13"/>
-        <v>1.8304573066662732E-2</v>
-      </c>
-      <c r="Y100" s="30">
-        <f t="shared" si="16"/>
-        <v>0.20599526319227968</v>
-      </c>
-      <c r="AA100" s="42">
-        <f t="shared" si="17"/>
-        <v>0.2140163849680638</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="15">
+    </row>
+    <row r="101" spans="1:22" ht="15">
       <c r="A101">
         <v>93</v>
       </c>
@@ -10763,50 +9598,38 @@
         <v>3.67</v>
       </c>
       <c r="N101" s="29">
+        <f t="shared" si="9"/>
+        <v>0.21632219999999999</v>
+      </c>
+      <c r="O101" s="30">
+        <f t="shared" si="10"/>
+        <v>0.1081611</v>
+      </c>
+      <c r="P101" s="38">
         <f t="shared" si="12"/>
-        <v>0.21632219999999999</v>
-      </c>
-      <c r="O101" s="30">
-        <f t="shared" si="14"/>
-        <v>0.1081611</v>
-      </c>
-      <c r="P101" s="38">
-        <f t="shared" si="18"/>
         <v>0.1025169997278168</v>
       </c>
       <c r="R101" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="S101" s="26">
         <v>93</v>
       </c>
       <c r="T101" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
       <c r="U101" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.14080025326846302</v>
       </c>
       <c r="V101" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>6.1807510053523834E-2</v>
       </c>
-      <c r="X101" s="29">
-        <f t="shared" si="13"/>
-        <v>1.4533917720173234E-2</v>
-      </c>
-      <c r="Y101" s="30">
-        <f t="shared" si="16"/>
-        <v>0.20599526319227934</v>
-      </c>
-      <c r="AA101" s="42">
-        <f t="shared" si="17"/>
-        <v>0.2140163849680638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="15">
+    </row>
+    <row r="102" spans="1:22" ht="15">
       <c r="A102">
         <v>94</v>
       </c>
@@ -10844,50 +9667,38 @@
         <v>3.38</v>
       </c>
       <c r="N102" s="29">
+        <f t="shared" si="9"/>
+        <v>0.24262815000000001</v>
+      </c>
+      <c r="O102" s="30">
+        <f t="shared" si="10"/>
+        <v>0.12131407500000001</v>
+      </c>
+      <c r="P102" s="38">
         <f t="shared" si="12"/>
-        <v>0.24262815000000001</v>
-      </c>
-      <c r="O102" s="30">
-        <f t="shared" si="14"/>
-        <v>0.12131407500000001</v>
-      </c>
-      <c r="P102" s="38">
-        <f t="shared" si="18"/>
         <v>0.11424427782698754</v>
       </c>
       <c r="R102" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="S102" s="26">
         <v>94</v>
       </c>
       <c r="T102" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="U102" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.15035184458642925</v>
       </c>
       <c r="V102" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5.2514636907682252E-2</v>
       </c>
-      <c r="X102" s="29">
-        <f t="shared" si="13"/>
-        <v>1.1345565775079648E-2</v>
-      </c>
-      <c r="Y102" s="30">
-        <f t="shared" si="16"/>
-        <v>0.21937319355180596</v>
-      </c>
-      <c r="AA102" s="42">
-        <f t="shared" si="17"/>
-        <v>0.22853480377137247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="15">
+    </row>
+    <row r="103" spans="1:22" ht="15">
       <c r="A103">
         <v>95</v>
       </c>
@@ -10925,50 +9736,38 @@
         <v>3.12</v>
       </c>
       <c r="N103" s="29">
+        <f t="shared" si="9"/>
+        <v>0.27250810000000003</v>
+      </c>
+      <c r="O103" s="30">
+        <f t="shared" si="10"/>
+        <v>0.13625405000000002</v>
+      </c>
+      <c r="P103" s="38">
         <f t="shared" si="12"/>
-        <v>0.27250810000000003</v>
-      </c>
-      <c r="O103" s="30">
-        <f t="shared" si="14"/>
-        <v>0.13625405000000002</v>
-      </c>
-      <c r="P103" s="38">
-        <f t="shared" si="18"/>
         <v>0.12737908501720574</v>
       </c>
       <c r="R103" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="S103" s="26">
         <v>95</v>
       </c>
       <c r="T103" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>47.5</v>
       </c>
       <c r="U103" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.15035184458642925</v>
       </c>
       <c r="V103" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4.4618964380825646E-2</v>
       </c>
-      <c r="X103" s="29">
-        <f t="shared" si="13"/>
-        <v>8.8566527783483541E-3</v>
-      </c>
-      <c r="Y103" s="30">
-        <f t="shared" si="16"/>
-        <v>0.21937319355180607</v>
-      </c>
-      <c r="AA103" s="42">
-        <f t="shared" si="17"/>
-        <v>0.22853480377137247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="15">
+    </row>
+    <row r="104" spans="1:22" ht="15">
       <c r="A104">
         <v>96</v>
       </c>
@@ -11006,50 +9805,38 @@
         <v>2.9</v>
       </c>
       <c r="N104" s="29">
+        <f t="shared" si="9"/>
+        <v>0.30350770000000005</v>
+      </c>
+      <c r="O104" s="30">
+        <f t="shared" si="10"/>
+        <v>0.15175385000000002</v>
+      </c>
+      <c r="P104" s="38">
         <f t="shared" si="12"/>
-        <v>0.30350770000000005</v>
-      </c>
-      <c r="O104" s="30">
-        <f t="shared" si="14"/>
-        <v>0.15175385000000002</v>
-      </c>
-      <c r="P104" s="38">
-        <f t="shared" si="18"/>
         <v>0.14080025326846302</v>
       </c>
       <c r="R104" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="S104" s="26">
         <v>96</v>
       </c>
       <c r="T104" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="U104" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.16383364796110145</v>
       </c>
       <c r="V104" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>3.730887667806853E-2</v>
       </c>
-      <c r="X104" s="29">
-        <f t="shared" si="13"/>
-        <v>6.7476803838151852E-3</v>
-      </c>
-      <c r="Y104" s="30">
-        <f t="shared" si="16"/>
-        <v>0.23812296217470819</v>
-      </c>
-      <c r="AA104" s="42">
-        <f t="shared" si="17"/>
-        <v>0.24902714490087421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="15">
+    </row>
+    <row r="105" spans="1:22" ht="15">
       <c r="A105">
         <v>97</v>
       </c>
@@ -11087,50 +9874,38 @@
         <v>2.7</v>
       </c>
       <c r="N105" s="29">
+        <f t="shared" si="9"/>
+        <v>0.32586589999999999</v>
+      </c>
+      <c r="O105" s="30">
+        <f t="shared" si="10"/>
+        <v>0.16293294999999999</v>
+      </c>
+      <c r="P105" s="38">
         <f t="shared" si="12"/>
-        <v>0.32586589999999999</v>
-      </c>
-      <c r="O105" s="30">
-        <f t="shared" si="14"/>
-        <v>0.16293294999999999</v>
-      </c>
-      <c r="P105" s="38">
-        <f t="shared" si="18"/>
         <v>0.15035184458642925</v>
       </c>
       <c r="R105" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="S105" s="26">
         <v>97</v>
       </c>
       <c r="T105" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>48.5</v>
       </c>
       <c r="U105" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.16383364796110145</v>
       </c>
       <c r="V105" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>3.1196427310569701E-2</v>
       </c>
-      <c r="X105" s="29">
-        <f t="shared" si="13"/>
-        <v>5.1409027430129421E-3</v>
-      </c>
-      <c r="Y105" s="30">
-        <f t="shared" si="16"/>
-        <v>0.23812296217470807</v>
-      </c>
-      <c r="AA105" s="42">
-        <f t="shared" si="17"/>
-        <v>0.24902714490087421</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="15">
+    </row>
+    <row r="106" spans="1:22" ht="15">
       <c r="A106">
         <v>98</v>
       </c>
@@ -11168,50 +9943,38 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="N106" s="29">
+        <f t="shared" si="9"/>
+        <v>0.35785540000000005</v>
+      </c>
+      <c r="O106" s="30">
+        <f t="shared" si="10"/>
+        <v>0.17892770000000002</v>
+      </c>
+      <c r="P106" s="38">
         <f t="shared" si="12"/>
-        <v>0.35785540000000005</v>
-      </c>
-      <c r="O106" s="30">
-        <f t="shared" si="14"/>
-        <v>0.17892770000000002</v>
-      </c>
-      <c r="P106" s="38">
-        <f t="shared" si="18"/>
         <v>0.16383364796110145</v>
       </c>
       <c r="R106" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="S106" s="26">
         <v>98</v>
       </c>
       <c r="T106" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="U106" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.17991050136265796</v>
       </c>
       <c r="V106" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.5583862432401391E-2</v>
       </c>
-      <c r="X106" s="29">
-        <f t="shared" si="13"/>
-        <v>3.802843814134255E-3</v>
-      </c>
-      <c r="Y106" s="30">
-        <f t="shared" si="16"/>
-        <v>0.26027703610951558</v>
-      </c>
-      <c r="AA106" s="42">
-        <f t="shared" si="17"/>
-        <v>0.27346396207124007</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="15">
+    </row>
+    <row r="107" spans="1:22" ht="15">
       <c r="A107">
         <v>99</v>
       </c>
@@ -11249,50 +10012,38 @@
         <v>2.33</v>
       </c>
       <c r="N107" s="29">
+        <f t="shared" si="9"/>
+        <v>0.39668360000000003</v>
+      </c>
+      <c r="O107" s="30">
+        <f t="shared" si="10"/>
+        <v>0.19834180000000001</v>
+      </c>
+      <c r="P107" s="38">
         <f t="shared" si="12"/>
-        <v>0.39668360000000003</v>
-      </c>
-      <c r="O107" s="30">
-        <f t="shared" si="14"/>
-        <v>0.19834180000000001</v>
-      </c>
-      <c r="P107" s="38">
-        <f t="shared" si="18"/>
         <v>0.17991050136265796</v>
       </c>
       <c r="R107" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="S107" s="26">
         <v>99</v>
       </c>
       <c r="T107" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>49.5</v>
       </c>
       <c r="U107" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.17991050136265796</v>
       </c>
       <c r="V107" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.0981056915394786E-2</v>
       </c>
-      <c r="X107" s="29">
-        <f t="shared" si="13"/>
-        <v>2.813050897403988E-3</v>
-      </c>
-      <c r="Y107" s="30">
-        <f t="shared" si="16"/>
-        <v>0.26027703610951491</v>
-      </c>
-      <c r="AA107" s="42">
-        <f t="shared" si="17"/>
-        <v>0.27346396207124007</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="15">
+    </row>
+    <row r="108" spans="1:22" ht="15">
       <c r="A108">
         <v>100</v>
       </c>
@@ -11330,47 +10081,35 @@
         <v>2.15</v>
       </c>
       <c r="N108" s="29">
+        <f t="shared" si="9"/>
+        <v>0.43598815000000002</v>
+      </c>
+      <c r="O108" s="30">
+        <f t="shared" si="10"/>
+        <v>0.21799407500000001</v>
+      </c>
+      <c r="P108" s="38">
         <f t="shared" si="12"/>
-        <v>0.43598815000000002</v>
-      </c>
-      <c r="O108" s="30">
-        <f t="shared" si="14"/>
-        <v>0.21799407500000001</v>
-      </c>
-      <c r="P108" s="38">
-        <f t="shared" si="18"/>
         <v>0.19586979387608383</v>
       </c>
       <c r="R108" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="S108" s="26">
         <v>100</v>
       </c>
       <c r="T108" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="U108" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.19586979387608383</v>
       </c>
       <c r="V108" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1.6871501622074025E-2</v>
-      </c>
-      <c r="X108" s="29">
-        <f t="shared" si="13"/>
-        <v>2.019638689806411E-3</v>
-      </c>
-      <c r="Y108" s="30">
-        <f t="shared" si="16"/>
-        <v>0.28204687242942317</v>
-      </c>
-      <c r="AA108" s="42">
-        <f t="shared" si="17"/>
-        <v>0.2977220866916474</v>
       </c>
     </row>
   </sheetData>
@@ -11394,15 +10133,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66bfcbf4bccf85a1e5fe9945d50e202a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1366b0ad4ac173e0c9745adbca88cb2b" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -11541,6 +10271,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC48AE-B3DB-46D6-B4E7-97D4169F4298}">
   <ds:schemaRefs>
@@ -11550,17 +10289,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB3D695-28AF-4E8B-8C44-209B85B2568A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11577,4 +10305,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/UK/nationallifetables3yearuk.xlsx
+++ b/input/UK/nationallifetables3yearuk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t>National Life Tables, United Kingdom</t>
   </si>
@@ -92,22 +92,6 @@
   </si>
   <si>
     <r>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">is the mortality rate between age </t>
     </r>
     <r>
@@ -1399,47 +1383,16 @@
   <si>
     <t xml:space="preserve">The period expectation of life at exact age x is given by dividing the number of years lived by the number at that age i.e. </t>
   </si>
-  <si>
-    <t>males</t>
-  </si>
-  <si>
-    <t>Calculate mx (annual mortality rate) based on the proportion of male/females</t>
-  </si>
-  <si>
-    <t>Mortality rate per model cycle - half year</t>
-  </si>
-  <si>
-    <t>Death probability per model cycle</t>
-  </si>
-  <si>
-    <t>Age in model</t>
-  </si>
-  <si>
-    <t>Model cycle</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Starting age</t>
-  </si>
-  <si>
-    <t>Death probability input</t>
-  </si>
-  <si>
-    <t>S(t)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1619,21 +1572,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1744,7 +1682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,28 +1725,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="9"/>
     <xf numFmtId="164" fontId="27" fillId="3" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="27" fillId="3" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="27" fillId="3" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2129,7 +2050,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2268,10 +2189,10 @@
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="13" t="s">
@@ -2294,54 +2215,54 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21">
-      <c r="A8" s="16" t="s">
-        <v>20</v>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21">
       <c r="A11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="21">
       <c r="A15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.25">
       <c r="A16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
       <c r="A18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2626,16 +2547,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="45"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -2644,22 +2565,22 @@
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2667,7 +2588,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -2675,17 +2596,17 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15">
       <c r="A24" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -2699,7 +2620,7 @@
     </row>
     <row r="29" spans="1:1" ht="15">
       <c r="A29" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -2713,7 +2634,7 @@
     </row>
     <row r="34" spans="1:1" ht="20.25">
       <c r="A34" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15">
@@ -2721,7 +2642,7 @@
     </row>
     <row r="36" spans="1:1" ht="20.25">
       <c r="A36" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15">
@@ -2729,7 +2650,7 @@
     </row>
     <row r="38" spans="1:1" ht="15">
       <c r="A38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -2737,17 +2658,17 @@
     </row>
     <row r="42" spans="1:1" ht="14.25">
       <c r="A42" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="20.25">
       <c r="A44" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="20.25">
       <c r="A45" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -2758,17 +2679,17 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="20.25">
       <c r="A53" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="20.25">
       <c r="A54" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -2776,7 +2697,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
@@ -2790,7 +2711,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2798,27 +2719,27 @@
     </row>
     <row r="65" spans="1:3" ht="20.25">
       <c r="A65" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.25">
       <c r="A71" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.35" customHeight="1">
       <c r="B73" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -2826,12 +2747,12 @@
     </row>
     <row r="75" spans="1:3" ht="14.1" customHeight="1">
       <c r="A75" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.1" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2840,29 +2761,29 @@
     <row r="78" spans="1:3" ht="13.5" thickBot="1"/>
     <row r="79" spans="1:3" ht="30.6" customHeight="1" thickBot="1">
       <c r="A79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="C79" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="27" customHeight="1" thickBot="1">
       <c r="A80" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="24">
         <v>0.2</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.5" thickBot="1">
       <c r="A81" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="24">
         <v>1.5</v>
@@ -2871,7 +2792,7 @@
     </row>
     <row r="82" spans="1:3" ht="13.5" thickBot="1">
       <c r="A82" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="24">
         <v>4</v>
@@ -2880,7 +2801,7 @@
     </row>
     <row r="83" spans="1:3" ht="13.5" thickBot="1">
       <c r="A83" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="24">
         <v>7</v>
@@ -2889,7 +2810,7 @@
     </row>
     <row r="84" spans="1:3" ht="13.5" thickBot="1">
       <c r="A84" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="24">
         <v>10</v>
@@ -2901,12 +2822,12 @@
     </row>
     <row r="86" spans="1:3" ht="20.25">
       <c r="A86" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2942,25 +2863,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" style="26" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2973,13 +2884,13 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="46" t="str">
+      <c r="K1" s="35" t="str">
         <f>HYPERLINK("#'Contents'!A1", "Back to contents")</f>
         <v>Back to contents</v>
       </c>
-      <c r="L1" s="46"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2993,7 +2904,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +2922,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +2938,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3040,46 +2951,28 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="28">
-        <v>0.35</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1">
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="V6" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" s="40"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3116,32 +3009,8 @@
       <c r="L7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3178,40 +3047,8 @@
       <c r="L8" s="3">
         <v>83.06</v>
       </c>
-      <c r="N8" s="29">
-        <f t="shared" ref="N8:N39" si="0">B8*$Q$5 + H8*(1-$Q$5)</f>
-        <v>3.7989E-3</v>
-      </c>
-      <c r="O8" s="30">
-        <f>N8/2</f>
-        <v>1.89945E-3</v>
-      </c>
-      <c r="P8" s="38">
-        <f>1-EXP(-O8)</f>
-        <v>1.8976471864807776E-3</v>
-      </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="32">
-        <f>$T$5+ROUNDDOWN(T8,0)</f>
-        <v>50</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="33">
-        <f>S8*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="30">
-        <f t="shared" ref="U8:U13" si="1">VLOOKUP(ROUND(R8,0),$A$8:$P$108,16,FALSE)</f>
-        <v>1.2971080272177193E-3</v>
-      </c>
-      <c r="V8" s="29">
-        <f>V7-V7*U8</f>
-        <v>0.99870289197278228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="15">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3248,39 +3085,8 @@
       <c r="L9" s="3">
         <v>82.35</v>
       </c>
-      <c r="N9" s="29">
-        <f t="shared" si="0"/>
-        <v>2.2350000000000001E-4</v>
-      </c>
-      <c r="O9" s="30">
-        <f t="shared" ref="O9:O72" si="2">N9/2</f>
-        <v>1.1175000000000001E-4</v>
-      </c>
-      <c r="P9" s="38">
-        <f>1-EXP(-O9)</f>
-        <v>1.1174375620137678E-4</v>
-      </c>
-      <c r="R9" s="32">
-        <f>$T$5+ROUNDDOWN(T9,0)</f>
-        <v>50</v>
-      </c>
-      <c r="S9" s="26">
-        <v>1</v>
-      </c>
-      <c r="T9" s="33">
-        <f>S9*0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="30">
-        <f t="shared" si="1"/>
-        <v>1.2971080272177193E-3</v>
-      </c>
-      <c r="V9" s="29">
-        <f t="shared" ref="V9:V72" si="3">V8-V8*U9</f>
-        <v>0.99740746643479883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3317,39 +3123,8 @@
       <c r="L10" s="3">
         <v>81.37</v>
       </c>
-      <c r="N10" s="29">
-        <f t="shared" si="0"/>
-        <v>1.2875000000000001E-4</v>
-      </c>
-      <c r="O10" s="30">
-        <f t="shared" si="2"/>
-        <v>6.4375000000000006E-5</v>
-      </c>
-      <c r="P10" s="38">
-        <f t="shared" ref="P10:P73" si="4">1-EXP(-O10)</f>
-        <v>6.4372927974121197E-5</v>
-      </c>
-      <c r="R10" s="32">
-        <f t="shared" ref="R10:R73" si="5">$T$5+ROUNDDOWN(T10,0)</f>
-        <v>51</v>
-      </c>
-      <c r="S10" s="26">
-        <v>2</v>
-      </c>
-      <c r="T10" s="33">
-        <f t="shared" ref="T10:T73" si="6">S10*0.5</f>
-        <v>1</v>
-      </c>
-      <c r="U10" s="30">
-        <f t="shared" si="1"/>
-        <v>1.3981217158872683E-3</v>
-      </c>
-      <c r="V10" s="29">
-        <f t="shared" si="3"/>
-        <v>0.99601296939638828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3386,39 +3161,8 @@
       <c r="L11" s="3">
         <v>80.38</v>
       </c>
-      <c r="N11" s="29">
-        <f t="shared" si="0"/>
-        <v>9.9049999999999995E-5</v>
-      </c>
-      <c r="O11" s="30">
-        <f t="shared" si="2"/>
-        <v>4.9524999999999998E-5</v>
-      </c>
-      <c r="P11" s="38">
-        <f t="shared" si="4"/>
-        <v>4.9523773657411674E-5</v>
-      </c>
-      <c r="R11" s="32">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="S11" s="26">
-        <v>3</v>
-      </c>
-      <c r="T11" s="33">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="U11" s="30">
-        <f t="shared" si="1"/>
-        <v>1.3981217158872683E-3</v>
-      </c>
-      <c r="V11" s="29">
-        <f t="shared" si="3"/>
-        <v>0.9946204220345698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3455,39 +3199,8 @@
       <c r="L12" s="3">
         <v>79.39</v>
       </c>
-      <c r="N12" s="29">
-        <f t="shared" si="0"/>
-        <v>7.8150000000000002E-5</v>
-      </c>
-      <c r="O12" s="30">
-        <f t="shared" si="2"/>
-        <v>3.9075000000000001E-5</v>
-      </c>
-      <c r="P12" s="38">
-        <f t="shared" si="4"/>
-        <v>3.9074236582115063E-5</v>
-      </c>
-      <c r="R12" s="32">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="S12" s="26">
-        <v>4</v>
-      </c>
-      <c r="T12" s="33">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="U12" s="30">
-        <f t="shared" si="1"/>
-        <v>1.5158000129131821E-3</v>
-      </c>
-      <c r="V12" s="29">
-        <f t="shared" si="3"/>
-        <v>0.99311277638600604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3524,39 +3237,8 @@
       <c r="L13" s="3">
         <v>78.39</v>
       </c>
-      <c r="N13" s="29">
-        <f t="shared" si="0"/>
-        <v>8.5650000000000008E-5</v>
-      </c>
-      <c r="O13" s="30">
-        <f t="shared" si="2"/>
-        <v>4.2825000000000004E-5</v>
-      </c>
-      <c r="P13" s="38">
-        <f t="shared" si="4"/>
-        <v>4.2824083022807713E-5</v>
-      </c>
-      <c r="R13" s="32">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="S13" s="26">
-        <v>5</v>
-      </c>
-      <c r="T13" s="33">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="U13" s="30">
-        <f t="shared" si="1"/>
-        <v>1.5158000129131821E-3</v>
-      </c>
-      <c r="V13" s="29">
-        <f t="shared" si="3"/>
-        <v>0.99160741602673586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3593,39 +3275,8 @@
       <c r="L14" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="N14" s="29">
-        <f t="shared" si="0"/>
-        <v>8.4099999999999998E-5</v>
-      </c>
-      <c r="O14" s="30">
-        <f t="shared" si="2"/>
-        <v>4.2049999999999999E-5</v>
-      </c>
-      <c r="P14" s="38">
-        <f t="shared" si="4"/>
-        <v>4.2049115911102497E-5</v>
-      </c>
-      <c r="R14" s="32">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="S14" s="26">
-        <v>6</v>
-      </c>
-      <c r="T14" s="33">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="U14" s="30">
-        <f t="shared" ref="U14:U77" si="7">VLOOKUP(ROUND(R14,0),$A$8:$P$108,16,FALSE)</f>
-        <v>1.5998189231969384E-3</v>
-      </c>
-      <c r="V14" s="29">
-        <f t="shared" si="3"/>
-        <v>0.99002102371819389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3662,39 +3313,8 @@
       <c r="L15" s="3">
         <v>76.41</v>
       </c>
-      <c r="N15" s="29">
-        <f t="shared" si="0"/>
-        <v>6.4449999999999994E-5</v>
-      </c>
-      <c r="O15" s="30">
-        <f t="shared" si="2"/>
-        <v>3.2224999999999997E-5</v>
-      </c>
-      <c r="P15" s="38">
-        <f t="shared" si="4"/>
-        <v>3.2224480780218556E-5</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="S15" s="26">
-        <v>7</v>
-      </c>
-      <c r="T15" s="33">
-        <f t="shared" si="6"/>
-        <v>3.5</v>
-      </c>
-      <c r="U15" s="30">
-        <f t="shared" si="7"/>
-        <v>1.5998189231969384E-3</v>
-      </c>
-      <c r="V15" s="29">
-        <f t="shared" si="3"/>
-        <v>0.98843716935008674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3731,39 +3351,8 @@
       <c r="L16" s="3">
         <v>75.41</v>
       </c>
-      <c r="N16" s="29">
-        <f t="shared" si="0"/>
-        <v>6.5050000000000009E-5</v>
-      </c>
-      <c r="O16" s="30">
-        <f t="shared" si="2"/>
-        <v>3.2525000000000005E-5</v>
-      </c>
-      <c r="P16" s="38">
-        <f t="shared" si="4"/>
-        <v>3.2524471067940652E-5</v>
-      </c>
-      <c r="R16" s="32">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="S16" s="26">
-        <v>8</v>
-      </c>
-      <c r="T16" s="33">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="U16" s="30">
-        <f t="shared" si="7"/>
-        <v>1.7322479236691057E-3</v>
-      </c>
-      <c r="V16" s="29">
-        <f t="shared" si="3"/>
-        <v>0.98672495111580272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>9</v>
       </c>
@@ -3800,39 +3389,8 @@
       <c r="L17" s="3">
         <v>74.42</v>
       </c>
-      <c r="N17" s="29">
-        <f t="shared" si="0"/>
-        <v>5.5099999999999998E-5</v>
-      </c>
-      <c r="O17" s="30">
-        <f t="shared" si="2"/>
-        <v>2.7549999999999999E-5</v>
-      </c>
-      <c r="P17" s="38">
-        <f t="shared" si="4"/>
-        <v>2.7549620502220762E-5</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="S17" s="26">
-        <v>9</v>
-      </c>
-      <c r="T17" s="33">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
-      <c r="U17" s="30">
-        <f t="shared" si="7"/>
-        <v>1.7322479236691057E-3</v>
-      </c>
-      <c r="V17" s="29">
-        <f t="shared" si="3"/>
-        <v>0.98501569886799989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3869,39 +3427,8 @@
       <c r="L18" s="3">
         <v>73.42</v>
       </c>
-      <c r="N18" s="29">
-        <f t="shared" si="0"/>
-        <v>6.7500000000000001E-5</v>
-      </c>
-      <c r="O18" s="30">
-        <f t="shared" si="2"/>
-        <v>3.375E-5</v>
-      </c>
-      <c r="P18" s="38">
-        <f t="shared" si="4"/>
-        <v>3.3749430475182862E-5</v>
-      </c>
-      <c r="R18" s="32">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="S18" s="26">
-        <v>10</v>
-      </c>
-      <c r="T18" s="33">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="30">
-        <f t="shared" si="7"/>
-        <v>1.8730187070724602E-3</v>
-      </c>
-      <c r="V18" s="29">
-        <f t="shared" si="3"/>
-        <v>0.98317074603726007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>11</v>
       </c>
@@ -3938,39 +3465,8 @@
       <c r="L19" s="3">
         <v>72.42</v>
       </c>
-      <c r="N19" s="29">
-        <f t="shared" si="0"/>
-        <v>7.2650000000000004E-5</v>
-      </c>
-      <c r="O19" s="30">
-        <f t="shared" si="2"/>
-        <v>3.6325000000000002E-5</v>
-      </c>
-      <c r="P19" s="38">
-        <f t="shared" si="4"/>
-        <v>3.6324340255133869E-5</v>
-      </c>
-      <c r="R19" s="32">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="S19" s="26">
-        <v>11</v>
-      </c>
-      <c r="T19" s="33">
-        <f t="shared" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="U19" s="30">
-        <f t="shared" si="7"/>
-        <v>1.8730187070724602E-3</v>
-      </c>
-      <c r="V19" s="29">
-        <f t="shared" si="3"/>
-        <v>0.98132924883768591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4007,39 +3503,8 @@
       <c r="L20" s="3">
         <v>71.430000000000007</v>
       </c>
-      <c r="N20" s="29">
-        <f t="shared" si="0"/>
-        <v>7.5749999999999998E-5</v>
-      </c>
-      <c r="O20" s="30">
-        <f t="shared" si="2"/>
-        <v>3.7874999999999999E-5</v>
-      </c>
-      <c r="P20" s="38">
-        <f t="shared" si="4"/>
-        <v>3.7874282751260147E-5</v>
-      </c>
-      <c r="R20" s="32">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="S20" s="26">
-        <v>12</v>
-      </c>
-      <c r="T20" s="33">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="U20" s="30">
-        <f t="shared" si="7"/>
-        <v>2.0965990593273531E-3</v>
-      </c>
-      <c r="V20" s="29">
-        <f t="shared" si="3"/>
-        <v>0.97927179485768234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>13</v>
       </c>
@@ -4076,39 +3541,8 @@
       <c r="L21" s="3">
         <v>70.430000000000007</v>
       </c>
-      <c r="N21" s="29">
-        <f t="shared" si="0"/>
-        <v>9.645E-5</v>
-      </c>
-      <c r="O21" s="30">
-        <f t="shared" si="2"/>
-        <v>4.8225E-5</v>
-      </c>
-      <c r="P21" s="38">
-        <f t="shared" si="4"/>
-        <v>4.8223837193384078E-5</v>
-      </c>
-      <c r="R21" s="32">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="S21" s="26">
-        <v>13</v>
-      </c>
-      <c r="T21" s="33">
-        <f t="shared" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="U21" s="30">
-        <f t="shared" si="7"/>
-        <v>2.0965990593273531E-3</v>
-      </c>
-      <c r="V21" s="29">
-        <f t="shared" si="3"/>
-        <v>0.97721865453375789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4145,39 +3579,8 @@
       <c r="L22" s="3">
         <v>69.44</v>
       </c>
-      <c r="N22" s="29">
-        <f t="shared" si="0"/>
-        <v>1.0800000000000001E-4</v>
-      </c>
-      <c r="O22" s="30">
-        <f t="shared" si="2"/>
-        <v>5.4000000000000005E-5</v>
-      </c>
-      <c r="P22" s="38">
-        <f t="shared" si="4"/>
-        <v>5.3998542026256757E-5</v>
-      </c>
-      <c r="R22" s="32">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="S22" s="26">
-        <v>14</v>
-      </c>
-      <c r="T22" s="33">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="U22" s="30">
-        <f t="shared" si="7"/>
-        <v>2.2678495346620808E-3</v>
-      </c>
-      <c r="V22" s="29">
-        <f t="shared" si="3"/>
-        <v>0.97500246966281046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>15</v>
       </c>
@@ -4214,39 +3617,8 @@
       <c r="L23" s="3">
         <v>68.45</v>
       </c>
-      <c r="N23" s="29">
-        <f t="shared" si="0"/>
-        <v>1.337E-4</v>
-      </c>
-      <c r="O23" s="30">
-        <f t="shared" si="2"/>
-        <v>6.6849999999999999E-5</v>
-      </c>
-      <c r="P23" s="38">
-        <f t="shared" si="4"/>
-        <v>6.6847765588518016E-5</v>
-      </c>
-      <c r="R23" s="32">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="S23" s="26">
-        <v>15</v>
-      </c>
-      <c r="T23" s="33">
-        <f t="shared" si="6"/>
-        <v>7.5</v>
-      </c>
-      <c r="U23" s="30">
-        <f t="shared" si="7"/>
-        <v>2.2678495346620808E-3</v>
-      </c>
-      <c r="V23" s="29">
-        <f t="shared" si="3"/>
-        <v>0.97279131076569125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>16</v>
       </c>
@@ -4283,39 +3655,8 @@
       <c r="L24" s="3">
         <v>67.45</v>
       </c>
-      <c r="N24" s="29">
-        <f t="shared" si="0"/>
-        <v>1.75E-4</v>
-      </c>
-      <c r="O24" s="30">
-        <f t="shared" si="2"/>
-        <v>8.7499999999999999E-5</v>
-      </c>
-      <c r="P24" s="38">
-        <f t="shared" si="4"/>
-        <v>8.749617198666737E-5</v>
-      </c>
-      <c r="R24" s="32">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="S24" s="26">
-        <v>16</v>
-      </c>
-      <c r="T24" s="33">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="U24" s="30">
-        <f t="shared" si="7"/>
-        <v>2.4971768534317595E-3</v>
-      </c>
-      <c r="V24" s="29">
-        <f t="shared" si="3"/>
-        <v>0.9703620788212276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>17</v>
       </c>
@@ -4352,39 +3693,8 @@
       <c r="L25" s="3">
         <v>66.459999999999994</v>
       </c>
-      <c r="N25" s="29">
-        <f t="shared" si="0"/>
-        <v>2.1394999999999997E-4</v>
-      </c>
-      <c r="O25" s="30">
-        <f t="shared" si="2"/>
-        <v>1.0697499999999998E-4</v>
-      </c>
-      <c r="P25" s="38">
-        <f t="shared" si="4"/>
-        <v>1.0696927837872128E-4</v>
-      </c>
-      <c r="R25" s="32">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="S25" s="26">
-        <v>17</v>
-      </c>
-      <c r="T25" s="33">
-        <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="U25" s="30">
-        <f t="shared" si="7"/>
-        <v>2.4971768534317595E-3</v>
-      </c>
-      <c r="V25" s="29">
-        <f t="shared" si="3"/>
-        <v>0.96793891309854729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>18</v>
       </c>
@@ -4421,39 +3731,8 @@
       <c r="L26" s="3">
         <v>65.47</v>
       </c>
-      <c r="N26" s="29">
-        <f t="shared" si="0"/>
-        <v>2.8755000000000002E-4</v>
-      </c>
-      <c r="O26" s="30">
-        <f t="shared" si="2"/>
-        <v>1.4377500000000001E-4</v>
-      </c>
-      <c r="P26" s="38">
-        <f t="shared" si="4"/>
-        <v>1.4376466486998307E-4</v>
-      </c>
-      <c r="R26" s="32">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="S26" s="26">
-        <v>18</v>
-      </c>
-      <c r="T26" s="33">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="U26" s="30">
-        <f t="shared" si="7"/>
-        <v>2.7170271820793346E-3</v>
-      </c>
-      <c r="V26" s="29">
-        <f t="shared" si="3"/>
-        <v>0.96530899676106618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>19</v>
       </c>
@@ -4490,39 +3769,8 @@
       <c r="L27" s="3">
         <v>64.489999999999995</v>
       </c>
-      <c r="N27" s="29">
-        <f t="shared" si="0"/>
-        <v>2.8680000000000003E-4</v>
-      </c>
-      <c r="O27" s="30">
-        <f t="shared" si="2"/>
-        <v>1.4340000000000002E-4</v>
-      </c>
-      <c r="P27" s="38">
-        <f t="shared" si="4"/>
-        <v>1.4338971871141748E-4</v>
-      </c>
-      <c r="R27" s="32">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="S27" s="26">
-        <v>19</v>
-      </c>
-      <c r="T27" s="33">
-        <f t="shared" si="6"/>
-        <v>9.5</v>
-      </c>
-      <c r="U27" s="30">
-        <f t="shared" si="7"/>
-        <v>2.7170271820793346E-3</v>
-      </c>
-      <c r="V27" s="29">
-        <f t="shared" si="3"/>
-        <v>0.96268622597776066</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>20</v>
       </c>
@@ -4559,39 +3807,8 @@
       <c r="L28" s="3">
         <v>63.5</v>
       </c>
-      <c r="N28" s="29">
-        <f t="shared" si="0"/>
-        <v>3.0130000000000001E-4</v>
-      </c>
-      <c r="O28" s="30">
-        <f t="shared" si="2"/>
-        <v>1.5065E-4</v>
-      </c>
-      <c r="P28" s="38">
-        <f t="shared" si="4"/>
-        <v>1.5063865285858125E-4</v>
-      </c>
-      <c r="R28" s="32">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="S28" s="26">
-        <v>20</v>
-      </c>
-      <c r="T28" s="33">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="U28" s="30">
-        <f t="shared" si="7"/>
-        <v>2.9765363056657446E-3</v>
-      </c>
-      <c r="V28" s="29">
-        <f t="shared" si="3"/>
-        <v>0.95982075547517354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>21</v>
       </c>
@@ -4628,39 +3845,8 @@
       <c r="L29" s="3">
         <v>62.51</v>
       </c>
-      <c r="N29" s="29">
-        <f t="shared" si="0"/>
-        <v>3.167E-4</v>
-      </c>
-      <c r="O29" s="30">
-        <f t="shared" si="2"/>
-        <v>1.5835E-4</v>
-      </c>
-      <c r="P29" s="38">
-        <f t="shared" si="4"/>
-        <v>1.5833746330051746E-4</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="S29" s="26">
-        <v>21</v>
-      </c>
-      <c r="T29" s="33">
-        <f t="shared" si="6"/>
-        <v>10.5</v>
-      </c>
-      <c r="U29" s="30">
-        <f t="shared" si="7"/>
-        <v>2.9765363056657446E-3</v>
-      </c>
-      <c r="V29" s="29">
-        <f t="shared" si="3"/>
-        <v>0.95696381414957021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>22</v>
       </c>
@@ -4697,39 +3883,8 @@
       <c r="L30" s="3">
         <v>61.53</v>
       </c>
-      <c r="N30" s="29">
-        <f t="shared" si="0"/>
-        <v>3.256E-4</v>
-      </c>
-      <c r="O30" s="30">
-        <f t="shared" si="2"/>
-        <v>1.628E-4</v>
-      </c>
-      <c r="P30" s="38">
-        <f t="shared" si="4"/>
-        <v>1.6278674879910415E-4</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="S30" s="26">
-        <v>22</v>
-      </c>
-      <c r="T30" s="33">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="U30" s="30">
-        <f t="shared" si="7"/>
-        <v>3.2453972762924721E-3</v>
-      </c>
-      <c r="V30" s="29">
-        <f t="shared" si="3"/>
-        <v>0.9538580863936188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>23</v>
       </c>
@@ -4766,39 +3921,8 @@
       <c r="L31" s="3">
         <v>60.54</v>
       </c>
-      <c r="N31" s="29">
-        <f t="shared" si="0"/>
-        <v>3.2105000000000002E-4</v>
-      </c>
-      <c r="O31" s="30">
-        <f t="shared" si="2"/>
-        <v>1.6052500000000001E-4</v>
-      </c>
-      <c r="P31" s="38">
-        <f t="shared" si="4"/>
-        <v>1.6051211655154773E-4</v>
-      </c>
-      <c r="R31" s="32">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="S31" s="26">
-        <v>23</v>
-      </c>
-      <c r="T31" s="33">
-        <f t="shared" si="6"/>
-        <v>11.5</v>
-      </c>
-      <c r="U31" s="30">
-        <f t="shared" si="7"/>
-        <v>3.2453972762924721E-3</v>
-      </c>
-      <c r="V31" s="29">
-        <f t="shared" si="3"/>
-        <v>0.95076243795806736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>24</v>
       </c>
@@ -4835,39 +3959,8 @@
       <c r="L32" s="3">
         <v>59.55</v>
       </c>
-      <c r="N32" s="29">
-        <f t="shared" si="0"/>
-        <v>3.3750000000000002E-4</v>
-      </c>
-      <c r="O32" s="30">
-        <f t="shared" si="2"/>
-        <v>1.6875000000000001E-4</v>
-      </c>
-      <c r="P32" s="38">
-        <f t="shared" si="4"/>
-        <v>1.6873576251963396E-4</v>
-      </c>
-      <c r="R32" s="32">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="S32" s="26">
-        <v>24</v>
-      </c>
-      <c r="T32" s="33">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="U32" s="30">
-        <f t="shared" si="7"/>
-        <v>3.6571462912156072E-3</v>
-      </c>
-      <c r="V32" s="29">
-        <f t="shared" si="3"/>
-        <v>0.94728536063426194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>25</v>
       </c>
@@ -4904,39 +3997,8 @@
       <c r="L33" s="3">
         <v>58.57</v>
       </c>
-      <c r="N33" s="29">
-        <f t="shared" si="0"/>
-        <v>3.7439999999999999E-4</v>
-      </c>
-      <c r="O33" s="30">
-        <f t="shared" si="2"/>
-        <v>1.872E-4</v>
-      </c>
-      <c r="P33" s="38">
-        <f t="shared" si="4"/>
-        <v>1.8718247917326458E-4</v>
-      </c>
-      <c r="R33" s="32">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="S33" s="26">
-        <v>25</v>
-      </c>
-      <c r="T33" s="33">
-        <f t="shared" si="6"/>
-        <v>12.5</v>
-      </c>
-      <c r="U33" s="30">
-        <f t="shared" si="7"/>
-        <v>3.6571462912156072E-3</v>
-      </c>
-      <c r="V33" s="29">
-        <f t="shared" si="3"/>
-        <v>0.94382099949089548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>26</v>
       </c>
@@ -4973,39 +4035,8 @@
       <c r="L34" s="3">
         <v>57.58</v>
       </c>
-      <c r="N34" s="29">
-        <f t="shared" si="0"/>
-        <v>3.7365E-4</v>
-      </c>
-      <c r="O34" s="30">
-        <f t="shared" si="2"/>
-        <v>1.86825E-4</v>
-      </c>
-      <c r="P34" s="38">
-        <f t="shared" si="4"/>
-        <v>1.8680754929645271E-4</v>
-      </c>
-      <c r="R34" s="32">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="S34" s="26">
-        <v>26</v>
-      </c>
-      <c r="T34" s="33">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="U34" s="30">
-        <f t="shared" si="7"/>
-        <v>3.9718661907138797E-3</v>
-      </c>
-      <c r="V34" s="29">
-        <f t="shared" si="3"/>
-        <v>0.94007226877293182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>27</v>
       </c>
@@ -5042,39 +4073,8 @@
       <c r="L35" s="3">
         <v>56.6</v>
       </c>
-      <c r="N35" s="29">
-        <f t="shared" si="0"/>
-        <v>4.0715E-4</v>
-      </c>
-      <c r="O35" s="30">
-        <f t="shared" si="2"/>
-        <v>2.03575E-4</v>
-      </c>
-      <c r="P35" s="38">
-        <f t="shared" si="4"/>
-        <v>2.0355428001572751E-4</v>
-      </c>
-      <c r="R35" s="32">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="S35" s="26">
-        <v>27</v>
-      </c>
-      <c r="T35" s="33">
-        <f t="shared" si="6"/>
-        <v>13.5</v>
-      </c>
-      <c r="U35" s="30">
-        <f t="shared" si="7"/>
-        <v>3.9718661907138797E-3</v>
-      </c>
-      <c r="V35" s="29">
-        <f t="shared" si="3"/>
-        <v>0.93633842751176488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="15">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>28</v>
       </c>
@@ -5111,39 +4111,8 @@
       <c r="L36" s="3">
         <v>55.61</v>
       </c>
-      <c r="N36" s="29">
-        <f t="shared" si="0"/>
-        <v>4.4735E-4</v>
-      </c>
-      <c r="O36" s="30">
-        <f t="shared" si="2"/>
-        <v>2.23675E-4</v>
-      </c>
-      <c r="P36" s="38">
-        <f t="shared" si="4"/>
-        <v>2.2364998661217328E-4</v>
-      </c>
-      <c r="R36" s="32">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="S36" s="26">
-        <v>28</v>
-      </c>
-      <c r="T36" s="33">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="U36" s="30">
-        <f t="shared" si="7"/>
-        <v>4.2865862493782769E-3</v>
-      </c>
-      <c r="V36" s="29">
-        <f t="shared" si="3"/>
-        <v>0.93232473208362843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="15">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>29</v>
       </c>
@@ -5180,39 +4149,8 @@
       <c r="L37" s="3">
         <v>54.63</v>
       </c>
-      <c r="N37" s="29">
-        <f t="shared" si="0"/>
-        <v>4.6420000000000001E-4</v>
-      </c>
-      <c r="O37" s="30">
-        <f t="shared" si="2"/>
-        <v>2.321E-4</v>
-      </c>
-      <c r="P37" s="38">
-        <f t="shared" si="4"/>
-        <v>2.320730668787796E-4</v>
-      </c>
-      <c r="R37" s="32">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="S37" s="26">
-        <v>29</v>
-      </c>
-      <c r="T37" s="33">
-        <f t="shared" si="6"/>
-        <v>14.5</v>
-      </c>
-      <c r="U37" s="30">
-        <f t="shared" si="7"/>
-        <v>4.2865862493782769E-3</v>
-      </c>
-      <c r="V37" s="29">
-        <f t="shared" si="3"/>
-        <v>0.92832824170712347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>30</v>
       </c>
@@ -5249,39 +4187,8 @@
       <c r="L38" s="3">
         <v>53.65</v>
       </c>
-      <c r="N38" s="29">
-        <f t="shared" si="0"/>
-        <v>5.1035000000000002E-4</v>
-      </c>
-      <c r="O38" s="30">
-        <f t="shared" si="2"/>
-        <v>2.5517500000000001E-4</v>
-      </c>
-      <c r="P38" s="38">
-        <f t="shared" si="4"/>
-        <v>2.5514244562874211E-4</v>
-      </c>
-      <c r="R38" s="32">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="S38" s="26">
-        <v>30</v>
-      </c>
-      <c r="T38" s="33">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="U38" s="30">
-        <f t="shared" si="7"/>
-        <v>4.7123369356524281E-3</v>
-      </c>
-      <c r="V38" s="29">
-        <f t="shared" si="3"/>
-        <v>0.92395364624531773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15">
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>31</v>
       </c>
@@ -5318,39 +4225,8 @@
       <c r="L39" s="3">
         <v>52.67</v>
       </c>
-      <c r="N39" s="29">
-        <f t="shared" si="0"/>
-        <v>5.4834999999999997E-4</v>
-      </c>
-      <c r="O39" s="30">
-        <f t="shared" si="2"/>
-        <v>2.7417499999999998E-4</v>
-      </c>
-      <c r="P39" s="38">
-        <f t="shared" si="4"/>
-        <v>2.7413741746951104E-4</v>
-      </c>
-      <c r="R39" s="32">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="S39" s="26">
-        <v>31</v>
-      </c>
-      <c r="T39" s="33">
-        <f t="shared" si="6"/>
-        <v>15.5</v>
-      </c>
-      <c r="U39" s="30">
-        <f t="shared" si="7"/>
-        <v>4.7123369356524281E-3</v>
-      </c>
-      <c r="V39" s="29">
-        <f t="shared" si="3"/>
-        <v>0.91959966535128523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="15">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>32</v>
       </c>
@@ -5387,39 +4263,8 @@
       <c r="L40" s="3">
         <v>51.69</v>
       </c>
-      <c r="N40" s="29">
-        <f t="shared" ref="N40:N71" si="8">B40*$Q$5 + H40*(1-$Q$5)</f>
-        <v>5.867E-4</v>
-      </c>
-      <c r="O40" s="30">
-        <f t="shared" si="2"/>
-        <v>2.9335E-4</v>
-      </c>
-      <c r="P40" s="38">
-        <f t="shared" si="4"/>
-        <v>2.9330697709573084E-4</v>
-      </c>
-      <c r="R40" s="32">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="S40" s="26">
-        <v>32</v>
-      </c>
-      <c r="T40" s="33">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="U40" s="30">
-        <f t="shared" si="7"/>
-        <v>5.1330307417263299E-3</v>
-      </c>
-      <c r="V40" s="29">
-        <f t="shared" si="3"/>
-        <v>0.91487933199895588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="15">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>33</v>
       </c>
@@ -5456,39 +4301,8 @@
       <c r="L41" s="3">
         <v>50.71</v>
       </c>
-      <c r="N41" s="29">
-        <f t="shared" si="8"/>
-        <v>6.4105E-4</v>
-      </c>
-      <c r="O41" s="30">
-        <f t="shared" si="2"/>
-        <v>3.20525E-4</v>
-      </c>
-      <c r="P41" s="38">
-        <f t="shared" si="4"/>
-        <v>3.204736373499939E-4</v>
-      </c>
-      <c r="R41" s="32">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="S41" s="26">
-        <v>33</v>
-      </c>
-      <c r="T41" s="33">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-      <c r="U41" s="30">
-        <f t="shared" si="7"/>
-        <v>5.1330307417263299E-3</v>
-      </c>
-      <c r="V41" s="29">
-        <f t="shared" si="3"/>
-        <v>0.91018322826283515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5525,39 +4339,8 @@
       <c r="L42" s="3">
         <v>49.74</v>
       </c>
-      <c r="N42" s="29">
-        <f t="shared" si="8"/>
-        <v>6.9634999999999999E-4</v>
-      </c>
-      <c r="O42" s="30">
-        <f t="shared" si="2"/>
-        <v>3.4817499999999999E-4</v>
-      </c>
-      <c r="P42" s="38">
-        <f t="shared" si="4"/>
-        <v>3.4811439411874812E-4</v>
-      </c>
-      <c r="R42" s="32">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="S42" s="26">
-        <v>34</v>
-      </c>
-      <c r="T42" s="33">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="U42" s="30">
-        <f t="shared" si="7"/>
-        <v>5.5919564790327669E-3</v>
-      </c>
-      <c r="V42" s="29">
-        <f t="shared" si="3"/>
-        <v>0.90509352326244386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="15">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5594,39 +4377,8 @@
       <c r="L43" s="3">
         <v>48.76</v>
       </c>
-      <c r="N43" s="29">
-        <f t="shared" si="8"/>
-        <v>7.5420000000000001E-4</v>
-      </c>
-      <c r="O43" s="30">
-        <f t="shared" si="2"/>
-        <v>3.771E-4</v>
-      </c>
-      <c r="P43" s="38">
-        <f t="shared" si="4"/>
-        <v>3.7702890673174672E-4</v>
-      </c>
-      <c r="R43" s="32">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="S43" s="26">
-        <v>35</v>
-      </c>
-      <c r="T43" s="33">
-        <f t="shared" si="6"/>
-        <v>17.5</v>
-      </c>
-      <c r="U43" s="30">
-        <f t="shared" si="7"/>
-        <v>5.5919564790327669E-3</v>
-      </c>
-      <c r="V43" s="29">
-        <f t="shared" si="3"/>
-        <v>0.90003227967090582</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="15">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>36</v>
       </c>
@@ -5663,39 +4415,8 @@
       <c r="L44" s="3">
         <v>47.79</v>
       </c>
-      <c r="N44" s="29">
-        <f t="shared" si="8"/>
-        <v>8.2069999999999995E-4</v>
-      </c>
-      <c r="O44" s="30">
-        <f t="shared" si="2"/>
-        <v>4.1034999999999997E-4</v>
-      </c>
-      <c r="P44" s="38">
-        <f t="shared" si="4"/>
-        <v>4.1026581795389205E-4</v>
-      </c>
-      <c r="R44" s="32">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="S44" s="26">
-        <v>36</v>
-      </c>
-      <c r="T44" s="33">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="U44" s="30">
-        <f t="shared" si="7"/>
-        <v>6.1317983197923809E-3</v>
-      </c>
-      <c r="V44" s="29">
-        <f t="shared" si="3"/>
-        <v>0.89451346325066083</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>37</v>
       </c>
@@ -5732,39 +4453,8 @@
       <c r="L45" s="3">
         <v>46.82</v>
       </c>
-      <c r="N45" s="29">
-        <f t="shared" si="8"/>
-        <v>9.6809999999999995E-4</v>
-      </c>
-      <c r="O45" s="30">
-        <f t="shared" si="2"/>
-        <v>4.8404999999999998E-4</v>
-      </c>
-      <c r="P45" s="38">
-        <f t="shared" si="4"/>
-        <v>4.8393286669901059E-4</v>
-      </c>
-      <c r="R45" s="32">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="S45" s="26">
-        <v>37</v>
-      </c>
-      <c r="T45" s="33">
-        <f t="shared" si="6"/>
-        <v>18.5</v>
-      </c>
-      <c r="U45" s="30">
-        <f t="shared" si="7"/>
-        <v>6.1317983197923809E-3</v>
-      </c>
-      <c r="V45" s="29">
-        <f t="shared" si="3"/>
-        <v>0.88902848709966875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>38</v>
       </c>
@@ -5801,39 +4491,8 @@
       <c r="L46" s="3">
         <v>45.86</v>
       </c>
-      <c r="N46" s="29">
-        <f t="shared" si="8"/>
-        <v>9.1750000000000002E-4</v>
-      </c>
-      <c r="O46" s="30">
-        <f t="shared" si="2"/>
-        <v>4.5875000000000001E-4</v>
-      </c>
-      <c r="P46" s="38">
-        <f t="shared" si="4"/>
-        <v>4.586447903076607E-4</v>
-      </c>
-      <c r="R46" s="32">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="S46" s="26">
-        <v>38</v>
-      </c>
-      <c r="T46" s="33">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="U46" s="30">
-        <f t="shared" si="7"/>
-        <v>6.7213102671721536E-3</v>
-      </c>
-      <c r="V46" s="29">
-        <f t="shared" si="3"/>
-        <v>0.88305305080151719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="15">
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>39</v>
       </c>
@@ -5870,39 +4529,8 @@
       <c r="L47" s="3">
         <v>44.89</v>
       </c>
-      <c r="N47" s="29">
-        <f t="shared" si="8"/>
-        <v>1.0444500000000002E-3</v>
-      </c>
-      <c r="O47" s="30">
-        <f t="shared" si="2"/>
-        <v>5.2222500000000008E-4</v>
-      </c>
-      <c r="P47" s="38">
-        <f t="shared" si="4"/>
-        <v>5.2208866425840217E-4</v>
-      </c>
-      <c r="R47" s="32">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="S47" s="26">
-        <v>39</v>
-      </c>
-      <c r="T47" s="33">
-        <f t="shared" si="6"/>
-        <v>19.5</v>
-      </c>
-      <c r="U47" s="30">
-        <f t="shared" si="7"/>
-        <v>6.7213102671721536E-3</v>
-      </c>
-      <c r="V47" s="29">
-        <f t="shared" si="3"/>
-        <v>0.8771177772647073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="15">
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>40</v>
       </c>
@@ -5939,39 +4567,8 @@
       <c r="L48" s="3">
         <v>43.93</v>
       </c>
-      <c r="N48" s="29">
-        <f t="shared" si="8"/>
-        <v>1.1224500000000001E-3</v>
-      </c>
-      <c r="O48" s="30">
-        <f t="shared" si="2"/>
-        <v>5.6122500000000005E-4</v>
-      </c>
-      <c r="P48" s="38">
-        <f t="shared" si="4"/>
-        <v>5.6106754270734971E-4</v>
-      </c>
-      <c r="R48" s="32">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="S48" s="26">
-        <v>40</v>
-      </c>
-      <c r="T48" s="33">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="U48" s="30">
-        <f t="shared" si="7"/>
-        <v>7.2704415338050721E-3</v>
-      </c>
-      <c r="V48" s="29">
-        <f t="shared" si="3"/>
-        <v>0.87074074374684318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="15">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>41</v>
       </c>
@@ -6008,39 +4605,8 @@
       <c r="L49" s="3">
         <v>42.97</v>
       </c>
-      <c r="N49" s="29">
-        <f t="shared" si="8"/>
-        <v>1.2257499999999998E-3</v>
-      </c>
-      <c r="O49" s="30">
-        <f t="shared" si="2"/>
-        <v>6.1287499999999992E-4</v>
-      </c>
-      <c r="P49" s="38">
-        <f t="shared" si="4"/>
-        <v>6.1268723047891438E-4</v>
-      </c>
-      <c r="R49" s="32">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="S49" s="26">
-        <v>41</v>
-      </c>
-      <c r="T49" s="33">
-        <f t="shared" si="6"/>
-        <v>20.5</v>
-      </c>
-      <c r="U49" s="30">
-        <f t="shared" si="7"/>
-        <v>7.2704415338050721E-3</v>
-      </c>
-      <c r="V49" s="29">
-        <f t="shared" si="3"/>
-        <v>0.86441007407832982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>42</v>
       </c>
@@ -6077,39 +4643,8 @@
       <c r="L50" s="3">
         <v>42.01</v>
       </c>
-      <c r="N50" s="29">
-        <f t="shared" si="8"/>
-        <v>1.3341E-3</v>
-      </c>
-      <c r="O50" s="30">
-        <f t="shared" si="2"/>
-        <v>6.6704999999999998E-4</v>
-      </c>
-      <c r="P50" s="38">
-        <f t="shared" si="4"/>
-        <v>6.6682757160840822E-4</v>
-      </c>
-      <c r="R50" s="32">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="S50" s="26">
-        <v>42</v>
-      </c>
-      <c r="T50" s="33">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="U50" s="30">
-        <f t="shared" si="7"/>
-        <v>7.9169694016688608E-3</v>
-      </c>
-      <c r="V50" s="29">
-        <f t="shared" si="3"/>
-        <v>0.85756656597135739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="15">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>43</v>
       </c>
@@ -6146,39 +4681,8 @@
       <c r="L51" s="3">
         <v>41.05</v>
       </c>
-      <c r="N51" s="29">
-        <f t="shared" si="8"/>
-        <v>1.4632E-3</v>
-      </c>
-      <c r="O51" s="30">
-        <f t="shared" si="2"/>
-        <v>7.316E-4</v>
-      </c>
-      <c r="P51" s="38">
-        <f t="shared" si="4"/>
-        <v>7.3133244597145541E-4</v>
-      </c>
-      <c r="R51" s="32">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="S51" s="26">
-        <v>43</v>
-      </c>
-      <c r="T51" s="33">
-        <f t="shared" si="6"/>
-        <v>21.5</v>
-      </c>
-      <c r="U51" s="30">
-        <f t="shared" si="7"/>
-        <v>7.9169694016688608E-3</v>
-      </c>
-      <c r="V51" s="29">
-        <f t="shared" si="3"/>
-        <v>0.85077723770866787</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="15">
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>44</v>
       </c>
@@ -6215,39 +4719,8 @@
       <c r="L52" s="3">
         <v>40.1</v>
       </c>
-      <c r="N52" s="29">
-        <f t="shared" si="8"/>
-        <v>1.5893000000000001E-3</v>
-      </c>
-      <c r="O52" s="30">
-        <f t="shared" si="2"/>
-        <v>7.9465000000000004E-4</v>
-      </c>
-      <c r="P52" s="38">
-        <f t="shared" si="4"/>
-        <v>7.9433434930487046E-4</v>
-      </c>
-      <c r="R52" s="32">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="S52" s="26">
-        <v>44</v>
-      </c>
-      <c r="T52" s="33">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="U52" s="30">
-        <f t="shared" si="7"/>
-        <v>8.9026347669918238E-3</v>
-      </c>
-      <c r="V52" s="29">
-        <f t="shared" si="3"/>
-        <v>0.84320307869327737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="15">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>45</v>
       </c>
@@ -6284,39 +4757,8 @@
       <c r="L53" s="3">
         <v>39.15</v>
       </c>
-      <c r="N53" s="29">
-        <f t="shared" si="8"/>
-        <v>1.7493999999999999E-3</v>
-      </c>
-      <c r="O53" s="30">
-        <f t="shared" si="2"/>
-        <v>8.7469999999999996E-4</v>
-      </c>
-      <c r="P53" s="38">
-        <f t="shared" si="4"/>
-        <v>8.7431756146949535E-4</v>
-      </c>
-      <c r="R53" s="32">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="S53" s="26">
-        <v>45</v>
-      </c>
-      <c r="T53" s="33">
-        <f t="shared" si="6"/>
-        <v>22.5</v>
-      </c>
-      <c r="U53" s="30">
-        <f t="shared" si="7"/>
-        <v>8.9026347669918238E-3</v>
-      </c>
-      <c r="V53" s="29">
-        <f t="shared" si="3"/>
-        <v>0.83569634964926809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="15">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>46</v>
       </c>
@@ -6353,39 +4795,8 @@
       <c r="L54" s="3">
         <v>38.21</v>
       </c>
-      <c r="N54" s="29">
-        <f t="shared" si="8"/>
-        <v>1.8897499999999999E-3</v>
-      </c>
-      <c r="O54" s="30">
-        <f t="shared" si="2"/>
-        <v>9.4487499999999997E-4</v>
-      </c>
-      <c r="P54" s="38">
-        <f t="shared" si="4"/>
-        <v>9.4442874617961525E-4</v>
-      </c>
-      <c r="R54" s="32">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="S54" s="26">
-        <v>46</v>
-      </c>
-      <c r="T54" s="33">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="U54" s="30">
-        <f t="shared" si="7"/>
-        <v>1.0155332817756602E-2</v>
-      </c>
-      <c r="V54" s="29">
-        <f t="shared" si="3"/>
-        <v>0.82720957508399551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="15">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>47</v>
       </c>
@@ -6422,39 +4833,8 @@
       <c r="L55" s="3">
         <v>37.270000000000003</v>
       </c>
-      <c r="N55" s="29">
-        <f t="shared" si="8"/>
-        <v>2.0474E-3</v>
-      </c>
-      <c r="O55" s="30">
-        <f t="shared" si="2"/>
-        <v>1.0237E-3</v>
-      </c>
-      <c r="P55" s="38">
-        <f t="shared" si="4"/>
-        <v>1.023176197908926E-3</v>
-      </c>
-      <c r="R55" s="32">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="S55" s="26">
-        <v>47</v>
-      </c>
-      <c r="T55" s="33">
-        <f t="shared" si="6"/>
-        <v>23.5</v>
-      </c>
-      <c r="U55" s="30">
-        <f t="shared" si="7"/>
-        <v>1.0155332817756602E-2</v>
-      </c>
-      <c r="V55" s="29">
-        <f t="shared" si="3"/>
-        <v>0.81880898653898249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="15">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>48</v>
       </c>
@@ -6491,39 +4871,8 @@
       <c r="L56" s="3">
         <v>36.33</v>
       </c>
-      <c r="N56" s="29">
-        <f t="shared" si="8"/>
-        <v>2.1968999999999999E-3</v>
-      </c>
-      <c r="O56" s="30">
-        <f t="shared" si="2"/>
-        <v>1.0984499999999999E-3</v>
-      </c>
-      <c r="P56" s="38">
-        <f t="shared" si="4"/>
-        <v>1.0978469246349931E-3</v>
-      </c>
-      <c r="R56" s="32">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="S56" s="26">
-        <v>48</v>
-      </c>
-      <c r="T56" s="33">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="U56" s="30">
-        <f t="shared" si="7"/>
-        <v>1.1217706996264343E-2</v>
-      </c>
-      <c r="V56" s="29">
-        <f t="shared" si="3"/>
-        <v>0.80962382724208004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="15">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>49</v>
       </c>
@@ -6560,109 +4909,47 @@
       <c r="L57" s="3">
         <v>35.4</v>
       </c>
-      <c r="N57" s="29">
-        <f t="shared" si="8"/>
-        <v>2.3821499999999995E-3</v>
-      </c>
-      <c r="O57" s="30">
-        <f t="shared" si="2"/>
-        <v>1.1910749999999998E-3</v>
-      </c>
-      <c r="P57" s="38">
-        <f t="shared" si="4"/>
-        <v>1.1903659517100706E-3</v>
-      </c>
-      <c r="R57" s="32">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="S57" s="26">
-        <v>49</v>
-      </c>
-      <c r="T57" s="33">
-        <f t="shared" si="6"/>
-        <v>24.5</v>
-      </c>
-      <c r="U57" s="30">
-        <f t="shared" si="7"/>
-        <v>1.1217706996264343E-2</v>
-      </c>
-      <c r="V57" s="29">
-        <f t="shared" si="3"/>
-        <v>0.80054170437088423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="15">
-      <c r="A58" s="34">
+    </row>
+    <row r="58" spans="1:13" ht="15">
+      <c r="A58" s="26">
         <v>50</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="27">
         <v>3.385E-3</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="27">
         <v>3.3790000000000001E-3</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="28">
         <v>95472</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="28">
         <v>322.60000000000002</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="29">
         <v>31.5</v>
       </c>
-      <c r="G58" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="35">
+      <c r="G58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="27">
         <v>2.1710000000000002E-3</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="27">
         <v>2.1689999999999999E-3</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="28">
         <v>97247.8</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="28">
         <v>210.9</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="29">
         <v>34.47</v>
       </c>
-      <c r="M58" s="34"/>
-      <c r="N58" s="38">
-        <f t="shared" si="8"/>
-        <v>2.5958999999999999E-3</v>
-      </c>
-      <c r="O58" s="35">
-        <f t="shared" si="2"/>
-        <v>1.29795E-3</v>
-      </c>
-      <c r="P58" s="39">
-        <f t="shared" si="4"/>
-        <v>1.2971080272177193E-3</v>
-      </c>
-      <c r="R58" s="32">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="S58" s="26">
-        <v>50</v>
-      </c>
-      <c r="T58" s="33">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="U58" s="30">
-        <f t="shared" si="7"/>
-        <v>1.2546404292883451E-2</v>
-      </c>
-      <c r="V58" s="29">
-        <f t="shared" si="3"/>
-        <v>0.79049778449453312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="15">
+      <c r="M58" s="26"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>51</v>
       </c>
@@ -6699,39 +4986,8 @@
       <c r="L59" s="3">
         <v>33.54</v>
       </c>
-      <c r="N59" s="29">
-        <f t="shared" si="8"/>
-        <v>2.7982000000000003E-3</v>
-      </c>
-      <c r="O59" s="30">
-        <f t="shared" si="2"/>
-        <v>1.3991000000000001E-3</v>
-      </c>
-      <c r="P59" s="38">
-        <f t="shared" si="4"/>
-        <v>1.3981217158872683E-3</v>
-      </c>
-      <c r="R59" s="32">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="S59" s="26">
-        <v>51</v>
-      </c>
-      <c r="T59" s="33">
-        <f t="shared" si="6"/>
-        <v>25.5</v>
-      </c>
-      <c r="U59" s="30">
-        <f t="shared" si="7"/>
-        <v>1.2546404292883451E-2</v>
-      </c>
-      <c r="V59" s="29">
-        <f t="shared" si="3"/>
-        <v>0.78057987969763609</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="15">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>52</v>
       </c>
@@ -6768,39 +5024,8 @@
       <c r="L60" s="3">
         <v>32.619999999999997</v>
       </c>
-      <c r="N60" s="29">
-        <f t="shared" si="8"/>
-        <v>3.0339E-3</v>
-      </c>
-      <c r="O60" s="30">
-        <f t="shared" si="2"/>
-        <v>1.51695E-3</v>
-      </c>
-      <c r="P60" s="38">
-        <f t="shared" si="4"/>
-        <v>1.5158000129131821E-3</v>
-      </c>
-      <c r="R60" s="32">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="S60" s="26">
-        <v>52</v>
-      </c>
-      <c r="T60" s="33">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="U60" s="30">
-        <f t="shared" si="7"/>
-        <v>1.4121246506476393E-2</v>
-      </c>
-      <c r="V60" s="29">
-        <f t="shared" si="3"/>
-        <v>0.76955711879843014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="15">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>53</v>
       </c>
@@ -6837,39 +5062,8 @@
       <c r="L61" s="3">
         <v>31.7</v>
       </c>
-      <c r="N61" s="29">
-        <f t="shared" si="8"/>
-        <v>3.2021999999999997E-3</v>
-      </c>
-      <c r="O61" s="30">
-        <f t="shared" si="2"/>
-        <v>1.6010999999999998E-3</v>
-      </c>
-      <c r="P61" s="38">
-        <f t="shared" si="4"/>
-        <v>1.5998189231969384E-3</v>
-      </c>
-      <c r="R61" s="32">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="S61" s="26">
-        <v>53</v>
-      </c>
-      <c r="T61" s="33">
-        <f t="shared" si="6"/>
-        <v>26.5</v>
-      </c>
-      <c r="U61" s="30">
-        <f t="shared" si="7"/>
-        <v>1.4121246506476393E-2</v>
-      </c>
-      <c r="V61" s="29">
-        <f t="shared" si="3"/>
-        <v>0.75869001302306383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="15">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>54</v>
       </c>
@@ -6906,39 +5100,8 @@
       <c r="L62" s="3">
         <v>30.78</v>
       </c>
-      <c r="N62" s="29">
-        <f t="shared" si="8"/>
-        <v>3.4675000000000001E-3</v>
-      </c>
-      <c r="O62" s="30">
-        <f t="shared" si="2"/>
-        <v>1.73375E-3</v>
-      </c>
-      <c r="P62" s="38">
-        <f t="shared" si="4"/>
-        <v>1.7322479236691057E-3</v>
-      </c>
-      <c r="R62" s="32">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="S62" s="26">
-        <v>54</v>
-      </c>
-      <c r="T62" s="33">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="U62" s="30">
-        <f t="shared" si="7"/>
-        <v>1.5802976658933487E-2</v>
-      </c>
-      <c r="V62" s="29">
-        <f t="shared" si="3"/>
-        <v>0.74670045245589445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="15">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>55</v>
       </c>
@@ -6975,39 +5138,8 @@
       <c r="L63" s="3">
         <v>29.87</v>
       </c>
-      <c r="N63" s="29">
-        <f t="shared" si="8"/>
-        <v>3.7495499999999999E-3</v>
-      </c>
-      <c r="O63" s="30">
-        <f t="shared" si="2"/>
-        <v>1.874775E-3</v>
-      </c>
-      <c r="P63" s="38">
-        <f t="shared" si="4"/>
-        <v>1.8730187070724602E-3</v>
-      </c>
-      <c r="R63" s="32">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="S63" s="26">
-        <v>55</v>
-      </c>
-      <c r="T63" s="33">
-        <f t="shared" si="6"/>
-        <v>27.5</v>
-      </c>
-      <c r="U63" s="30">
-        <f t="shared" si="7"/>
-        <v>1.5802976658933487E-2</v>
-      </c>
-      <c r="V63" s="29">
-        <f t="shared" si="3"/>
-        <v>0.73490036263451886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="15">
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>56</v>
       </c>
@@ -7044,39 +5176,8 @@
       <c r="L64" s="3">
         <v>28.97</v>
       </c>
-      <c r="N64" s="29">
-        <f t="shared" si="8"/>
-        <v>4.1976000000000001E-3</v>
-      </c>
-      <c r="O64" s="30">
-        <f t="shared" si="2"/>
-        <v>2.0988000000000001E-3</v>
-      </c>
-      <c r="P64" s="38">
-        <f t="shared" si="4"/>
-        <v>2.0965990593273531E-3</v>
-      </c>
-      <c r="R64" s="32">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="S64" s="26">
-        <v>56</v>
-      </c>
-      <c r="T64" s="33">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="U64" s="30">
-        <f t="shared" si="7"/>
-        <v>1.784503246734892E-2</v>
-      </c>
-      <c r="V64" s="29">
-        <f t="shared" si="3"/>
-        <v>0.7217860418030394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="15">
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>57</v>
       </c>
@@ -7113,39 +5214,8 @@
       <c r="L65" s="3">
         <v>28.07</v>
       </c>
-      <c r="N65" s="29">
-        <f t="shared" si="8"/>
-        <v>4.5408499999999999E-3</v>
-      </c>
-      <c r="O65" s="30">
-        <f t="shared" si="2"/>
-        <v>2.270425E-3</v>
-      </c>
-      <c r="P65" s="38">
-        <f t="shared" si="4"/>
-        <v>2.2678495346620808E-3</v>
-      </c>
-      <c r="R65" s="32">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="S65" s="26">
-        <v>57</v>
-      </c>
-      <c r="T65" s="33">
-        <f t="shared" si="6"/>
-        <v>28.5</v>
-      </c>
-      <c r="U65" s="30">
-        <f t="shared" si="7"/>
-        <v>1.784503246734892E-2</v>
-      </c>
-      <c r="V65" s="29">
-        <f t="shared" si="3"/>
-        <v>0.70890574645258486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="15">
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>58</v>
       </c>
@@ -7182,39 +5252,8 @@
       <c r="L66" s="3">
         <v>27.17</v>
       </c>
-      <c r="N66" s="29">
-        <f t="shared" si="8"/>
-        <v>5.0005999999999991E-3</v>
-      </c>
-      <c r="O66" s="30">
-        <f t="shared" si="2"/>
-        <v>2.5002999999999996E-3</v>
-      </c>
-      <c r="P66" s="38">
-        <f t="shared" si="4"/>
-        <v>2.4971768534317595E-3</v>
-      </c>
-      <c r="R66" s="32">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="S66" s="26">
-        <v>58</v>
-      </c>
-      <c r="T66" s="33">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="U66" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9828428811873078E-2</v>
-      </c>
-      <c r="V66" s="29">
-        <f t="shared" si="3"/>
-        <v>0.69484925932472208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="15">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>59</v>
       </c>
@@ -7251,39 +5290,8 @@
       <c r="L67" s="3">
         <v>26.29</v>
       </c>
-      <c r="N67" s="29">
-        <f t="shared" si="8"/>
-        <v>5.4414500000000005E-3</v>
-      </c>
-      <c r="O67" s="30">
-        <f t="shared" si="2"/>
-        <v>2.7207250000000002E-3</v>
-      </c>
-      <c r="P67" s="38">
-        <f t="shared" si="4"/>
-        <v>2.7170271820793346E-3</v>
-      </c>
-      <c r="R67" s="32">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="S67" s="26">
-        <v>59</v>
-      </c>
-      <c r="T67" s="33">
-        <f t="shared" si="6"/>
-        <v>29.5</v>
-      </c>
-      <c r="U67" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9828428811873078E-2</v>
-      </c>
-      <c r="V67" s="29">
-        <f t="shared" si="3"/>
-        <v>0.68107149025121905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="15">
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>60</v>
       </c>
@@ -7320,39 +5328,8 @@
       <c r="L68" s="3">
         <v>25.41</v>
       </c>
-      <c r="N68" s="29">
-        <f t="shared" si="8"/>
-        <v>5.9619499999999997E-3</v>
-      </c>
-      <c r="O68" s="30">
-        <f t="shared" si="2"/>
-        <v>2.9809749999999999E-3</v>
-      </c>
-      <c r="P68" s="38">
-        <f t="shared" si="4"/>
-        <v>2.9765363056657446E-3</v>
-      </c>
-      <c r="R68" s="32">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="S68" s="26">
-        <v>60</v>
-      </c>
-      <c r="T68" s="33">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="U68" s="30">
-        <f t="shared" si="7"/>
-        <v>2.2204127443891331E-2</v>
-      </c>
-      <c r="V68" s="29">
-        <f t="shared" si="3"/>
-        <v>0.66594889208328001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="15">
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>61</v>
       </c>
@@ -7389,39 +5366,8 @@
       <c r="L69" s="3">
         <v>24.53</v>
       </c>
-      <c r="N69" s="29">
-        <f t="shared" si="8"/>
-        <v>6.5013499999999995E-3</v>
-      </c>
-      <c r="O69" s="30">
-        <f t="shared" si="2"/>
-        <v>3.2506749999999997E-3</v>
-      </c>
-      <c r="P69" s="38">
-        <f t="shared" si="4"/>
-        <v>3.2453972762924721E-3</v>
-      </c>
-      <c r="R69" s="32">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="S69" s="26">
-        <v>61</v>
-      </c>
-      <c r="T69" s="33">
-        <f t="shared" si="6"/>
-        <v>30.5</v>
-      </c>
-      <c r="U69" s="30">
-        <f t="shared" si="7"/>
-        <v>2.2204127443891331E-2</v>
-      </c>
-      <c r="V69" s="29">
-        <f t="shared" si="3"/>
-        <v>0.6511620780123446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="15">
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>62</v>
       </c>
@@ -7458,39 +5404,8 @@
       <c r="L70" s="3">
         <v>23.67</v>
       </c>
-      <c r="N70" s="29">
-        <f t="shared" si="8"/>
-        <v>7.3276999999999995E-3</v>
-      </c>
-      <c r="O70" s="30">
-        <f t="shared" si="2"/>
-        <v>3.6638499999999997E-3</v>
-      </c>
-      <c r="P70" s="38">
-        <f t="shared" si="4"/>
-        <v>3.6571462912156072E-3</v>
-      </c>
-      <c r="R70" s="32">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="S70" s="26">
-        <v>62</v>
-      </c>
-      <c r="T70" s="33">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="U70" s="30">
-        <f t="shared" si="7"/>
-        <v>2.501712768987574E-2</v>
-      </c>
-      <c r="V70" s="29">
-        <f t="shared" si="3"/>
-        <v>0.6348718731599049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="15">
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>63</v>
       </c>
@@ -7527,39 +5442,8 @@
       <c r="L71" s="3">
         <v>22.81</v>
       </c>
-      <c r="N71" s="29">
-        <f t="shared" si="8"/>
-        <v>7.9595499999999993E-3</v>
-      </c>
-      <c r="O71" s="30">
-        <f t="shared" si="2"/>
-        <v>3.9797749999999996E-3</v>
-      </c>
-      <c r="P71" s="38">
-        <f t="shared" si="4"/>
-        <v>3.9718661907138797E-3</v>
-      </c>
-      <c r="R71" s="32">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="S71" s="26">
-        <v>63</v>
-      </c>
-      <c r="T71" s="33">
-        <f t="shared" si="6"/>
-        <v>31.5</v>
-      </c>
-      <c r="U71" s="30">
-        <f t="shared" si="7"/>
-        <v>2.501712768987574E-2</v>
-      </c>
-      <c r="V71" s="29">
-        <f t="shared" si="3"/>
-        <v>0.618989202442353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="15">
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>64</v>
       </c>
@@ -7596,39 +5480,8 @@
       <c r="L72" s="3">
         <v>21.96</v>
       </c>
-      <c r="N72" s="29">
-        <f t="shared" ref="N72:N108" si="9">B72*$Q$5 + H72*(1-$Q$5)</f>
-        <v>8.5915999999999996E-3</v>
-      </c>
-      <c r="O72" s="30">
-        <f t="shared" si="2"/>
-        <v>4.2957999999999998E-3</v>
-      </c>
-      <c r="P72" s="38">
-        <f t="shared" si="4"/>
-        <v>4.2865862493782769E-3</v>
-      </c>
-      <c r="R72" s="32">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="S72" s="26">
-        <v>64</v>
-      </c>
-      <c r="T72" s="33">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="U72" s="30">
-        <f t="shared" si="7"/>
-        <v>2.7952662912272164E-2</v>
-      </c>
-      <c r="V72" s="29">
-        <f t="shared" si="3"/>
-        <v>0.60168680592014567</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="15">
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>65</v>
       </c>
@@ -7665,39 +5518,8 @@
       <c r="L73" s="3">
         <v>21.12</v>
       </c>
-      <c r="N73" s="29">
-        <f t="shared" si="9"/>
-        <v>9.4469499999999991E-3</v>
-      </c>
-      <c r="O73" s="30">
-        <f t="shared" ref="O73:O108" si="10">N73/2</f>
-        <v>4.7234749999999995E-3</v>
-      </c>
-      <c r="P73" s="38">
-        <f t="shared" si="4"/>
-        <v>4.7123369356524281E-3</v>
-      </c>
-      <c r="R73" s="32">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="S73" s="26">
-        <v>65</v>
-      </c>
-      <c r="T73" s="33">
-        <f t="shared" si="6"/>
-        <v>32.5</v>
-      </c>
-      <c r="U73" s="30">
-        <f t="shared" si="7"/>
-        <v>2.7952662912272164E-2</v>
-      </c>
-      <c r="V73" s="29">
-        <f t="shared" ref="V73:V108" si="11">V72-V72*U73</f>
-        <v>0.58486805745549808</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="15">
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>66</v>
       </c>
@@ -7734,39 +5556,8 @@
       <c r="L74" s="3">
         <v>20.29</v>
       </c>
-      <c r="N74" s="29">
-        <f t="shared" si="9"/>
-        <v>1.02925E-2</v>
-      </c>
-      <c r="O74" s="30">
-        <f t="shared" si="10"/>
-        <v>5.1462499999999998E-3</v>
-      </c>
-      <c r="P74" s="38">
-        <f t="shared" ref="P74:P108" si="12">1-EXP(-O74)</f>
-        <v>5.1330307417263299E-3</v>
-      </c>
-      <c r="R74" s="32">
-        <f t="shared" ref="R74:R108" si="13">$T$5+ROUNDDOWN(T74,0)</f>
-        <v>83</v>
-      </c>
-      <c r="S74" s="26">
-        <v>66</v>
-      </c>
-      <c r="T74" s="33">
-        <f t="shared" ref="T74:T108" si="14">S74*0.5</f>
-        <v>33</v>
-      </c>
-      <c r="U74" s="30">
-        <f t="shared" si="7"/>
-        <v>3.2004436618850662E-2</v>
-      </c>
-      <c r="V74" s="29">
-        <f t="shared" si="11"/>
-        <v>0.56614968478027328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="15">
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>67</v>
       </c>
@@ -7803,39 +5594,8 @@
       <c r="L75" s="3">
         <v>19.46</v>
       </c>
-      <c r="N75" s="29">
-        <f t="shared" si="9"/>
-        <v>1.1215299999999999E-2</v>
-      </c>
-      <c r="O75" s="30">
-        <f t="shared" si="10"/>
-        <v>5.6076499999999996E-3</v>
-      </c>
-      <c r="P75" s="38">
-        <f t="shared" si="12"/>
-        <v>5.5919564790327669E-3</v>
-      </c>
-      <c r="R75" s="32">
-        <f t="shared" si="13"/>
-        <v>83</v>
-      </c>
-      <c r="S75" s="26">
-        <v>67</v>
-      </c>
-      <c r="T75" s="33">
-        <f t="shared" si="14"/>
-        <v>33.5</v>
-      </c>
-      <c r="U75" s="30">
-        <f t="shared" si="7"/>
-        <v>3.2004436618850662E-2</v>
-      </c>
-      <c r="V75" s="29">
-        <f t="shared" si="11"/>
-        <v>0.54803038307694074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="15">
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>68</v>
       </c>
@@ -7872,39 +5632,8 @@
       <c r="L76" s="3">
         <v>18.64</v>
       </c>
-      <c r="N76" s="29">
-        <f t="shared" si="9"/>
-        <v>1.2301349999999999E-2</v>
-      </c>
-      <c r="O76" s="30">
-        <f t="shared" si="10"/>
-        <v>6.1506749999999995E-3</v>
-      </c>
-      <c r="P76" s="38">
-        <f t="shared" si="12"/>
-        <v>6.1317983197923809E-3</v>
-      </c>
-      <c r="R76" s="32">
-        <f t="shared" si="13"/>
-        <v>84</v>
-      </c>
-      <c r="S76" s="26">
-        <v>68</v>
-      </c>
-      <c r="T76" s="33">
-        <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="U76" s="30">
-        <f t="shared" si="7"/>
-        <v>3.627936587803926E-2</v>
-      </c>
-      <c r="V76" s="29">
-        <f t="shared" si="11"/>
-        <v>0.52814818829701038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="15">
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>69</v>
       </c>
@@ -7941,39 +5670,8 @@
       <c r="L77" s="3">
         <v>17.829999999999998</v>
       </c>
-      <c r="N77" s="29">
-        <f t="shared" si="9"/>
-        <v>1.3488E-2</v>
-      </c>
-      <c r="O77" s="30">
-        <f t="shared" si="10"/>
-        <v>6.744E-3</v>
-      </c>
-      <c r="P77" s="38">
-        <f t="shared" si="12"/>
-        <v>6.7213102671721536E-3</v>
-      </c>
-      <c r="R77" s="32">
-        <f t="shared" si="13"/>
-        <v>84</v>
-      </c>
-      <c r="S77" s="26">
-        <v>69</v>
-      </c>
-      <c r="T77" s="33">
-        <f t="shared" si="14"/>
-        <v>34.5</v>
-      </c>
-      <c r="U77" s="30">
-        <f t="shared" si="7"/>
-        <v>3.627936587803926E-2</v>
-      </c>
-      <c r="V77" s="29">
-        <f t="shared" si="11"/>
-        <v>0.50898730693595962</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="15">
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>70</v>
       </c>
@@ -8010,39 +5708,8 @@
       <c r="L78" s="3">
         <v>17.02</v>
       </c>
-      <c r="N78" s="29">
-        <f t="shared" si="9"/>
-        <v>1.4593999999999999E-2</v>
-      </c>
-      <c r="O78" s="30">
-        <f t="shared" si="10"/>
-        <v>7.2969999999999997E-3</v>
-      </c>
-      <c r="P78" s="38">
-        <f t="shared" si="12"/>
-        <v>7.2704415338050721E-3</v>
-      </c>
-      <c r="R78" s="32">
-        <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="S78" s="26">
-        <v>70</v>
-      </c>
-      <c r="T78" s="33">
-        <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="U78" s="30">
-        <f t="shared" ref="U78:U108" si="15">VLOOKUP(ROUND(R78,0),$A$8:$P$108,16,FALSE)</f>
-        <v>4.0962090845095389E-2</v>
-      </c>
-      <c r="V78" s="29">
-        <f t="shared" si="11"/>
-        <v>0.48813812263024836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="15">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>71</v>
       </c>
@@ -8079,39 +5746,8 @@
       <c r="L79" s="3">
         <v>16.23</v>
       </c>
-      <c r="N79" s="29">
-        <f t="shared" si="9"/>
-        <v>1.589695E-2</v>
-      </c>
-      <c r="O79" s="30">
-        <f t="shared" si="10"/>
-        <v>7.948475E-3</v>
-      </c>
-      <c r="P79" s="38">
-        <f t="shared" si="12"/>
-        <v>7.9169694016688608E-3</v>
-      </c>
-      <c r="R79" s="32">
-        <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="S79" s="26">
-        <v>71</v>
-      </c>
-      <c r="T79" s="33">
-        <f t="shared" si="14"/>
-        <v>35.5</v>
-      </c>
-      <c r="U79" s="30">
-        <f t="shared" si="15"/>
-        <v>4.0962090845095389E-2</v>
-      </c>
-      <c r="V79" s="29">
-        <f t="shared" si="11"/>
-        <v>0.46814296450611381</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="15">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>72</v>
       </c>
@@ -8148,39 +5784,8 @@
       <c r="L80" s="3">
         <v>15.44</v>
       </c>
-      <c r="N80" s="29">
-        <f t="shared" si="9"/>
-        <v>1.7884999999999998E-2</v>
-      </c>
-      <c r="O80" s="30">
-        <f t="shared" si="10"/>
-        <v>8.9424999999999991E-3</v>
-      </c>
-      <c r="P80" s="38">
-        <f t="shared" si="12"/>
-        <v>8.9026347669918238E-3</v>
-      </c>
-      <c r="R80" s="32">
-        <f t="shared" si="13"/>
-        <v>86</v>
-      </c>
-      <c r="S80" s="26">
-        <v>72</v>
-      </c>
-      <c r="T80" s="33">
-        <f t="shared" si="14"/>
-        <v>36</v>
-      </c>
-      <c r="U80" s="30">
-        <f t="shared" si="15"/>
-        <v>4.6800349102239402E-2</v>
-      </c>
-      <c r="V80" s="29">
-        <f t="shared" si="11"/>
-        <v>0.44623371033747039</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="15">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>73</v>
       </c>
@@ -8217,39 +5822,8 @@
       <c r="L81" s="3">
         <v>14.68</v>
       </c>
-      <c r="N81" s="29">
-        <f t="shared" si="9"/>
-        <v>2.0414500000000002E-2</v>
-      </c>
-      <c r="O81" s="30">
-        <f t="shared" si="10"/>
-        <v>1.0207250000000001E-2</v>
-      </c>
-      <c r="P81" s="38">
-        <f t="shared" si="12"/>
-        <v>1.0155332817756602E-2</v>
-      </c>
-      <c r="R81" s="32">
-        <f t="shared" si="13"/>
-        <v>86</v>
-      </c>
-      <c r="S81" s="26">
-        <v>73</v>
-      </c>
-      <c r="T81" s="33">
-        <f t="shared" si="14"/>
-        <v>36.5</v>
-      </c>
-      <c r="U81" s="30">
-        <f t="shared" si="15"/>
-        <v>4.6800349102239402E-2</v>
-      </c>
-      <c r="V81" s="29">
-        <f t="shared" si="11"/>
-        <v>0.42534981691248919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="15">
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>74</v>
       </c>
@@ -8286,39 +5860,8 @@
       <c r="L82" s="3">
         <v>13.93</v>
       </c>
-      <c r="N82" s="29">
-        <f t="shared" si="9"/>
-        <v>2.2562200000000001E-2</v>
-      </c>
-      <c r="O82" s="30">
-        <f t="shared" si="10"/>
-        <v>1.1281100000000001E-2</v>
-      </c>
-      <c r="P82" s="38">
-        <f t="shared" si="12"/>
-        <v>1.1217706996264343E-2</v>
-      </c>
-      <c r="R82" s="32">
-        <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="S82" s="26">
-        <v>74</v>
-      </c>
-      <c r="T82" s="33">
-        <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="U82" s="30">
-        <f t="shared" si="15"/>
-        <v>5.2496643924842434E-2</v>
-      </c>
-      <c r="V82" s="29">
-        <f t="shared" si="11"/>
-        <v>0.40302037903053733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="15">
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>75</v>
       </c>
@@ -8355,39 +5898,8 @@
       <c r="L83" s="3">
         <v>13.19</v>
       </c>
-      <c r="N83" s="29">
-        <f t="shared" si="9"/>
-        <v>2.5251549999999998E-2</v>
-      </c>
-      <c r="O83" s="30">
-        <f t="shared" si="10"/>
-        <v>1.2625774999999999E-2</v>
-      </c>
-      <c r="P83" s="38">
-        <f t="shared" si="12"/>
-        <v>1.2546404292883451E-2</v>
-      </c>
-      <c r="R83" s="32">
-        <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="S83" s="26">
-        <v>75</v>
-      </c>
-      <c r="T83" s="33">
-        <f t="shared" si="14"/>
-        <v>37.5</v>
-      </c>
-      <c r="U83" s="30">
-        <f t="shared" si="15"/>
-        <v>5.2496643924842434E-2</v>
-      </c>
-      <c r="V83" s="29">
-        <f t="shared" si="11"/>
-        <v>0.38186316169811618</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="15">
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>76</v>
       </c>
@@ -8424,39 +5936,8 @@
       <c r="L84" s="3">
         <v>12.47</v>
       </c>
-      <c r="N84" s="29">
-        <f t="shared" si="9"/>
-        <v>2.8443799999999998E-2</v>
-      </c>
-      <c r="O84" s="30">
-        <f t="shared" si="10"/>
-        <v>1.4221899999999999E-2</v>
-      </c>
-      <c r="P84" s="38">
-        <f t="shared" si="12"/>
-        <v>1.4121246506476393E-2</v>
-      </c>
-      <c r="R84" s="32">
-        <f t="shared" si="13"/>
-        <v>88</v>
-      </c>
-      <c r="S84" s="26">
-        <v>76</v>
-      </c>
-      <c r="T84" s="33">
-        <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="U84" s="30">
-        <f t="shared" si="15"/>
-        <v>5.9685372862363417E-2</v>
-      </c>
-      <c r="V84" s="29">
-        <f t="shared" si="11"/>
-        <v>0.35907151650976316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="15">
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>77</v>
       </c>
@@ -8493,39 +5974,8 @@
       <c r="L85" s="3">
         <v>11.76</v>
       </c>
-      <c r="N85" s="29">
-        <f t="shared" si="9"/>
-        <v>3.1858350000000001E-2</v>
-      </c>
-      <c r="O85" s="30">
-        <f t="shared" si="10"/>
-        <v>1.5929175E-2</v>
-      </c>
-      <c r="P85" s="38">
-        <f t="shared" si="12"/>
-        <v>1.5802976658933487E-2</v>
-      </c>
-      <c r="R85" s="32">
-        <f t="shared" si="13"/>
-        <v>88</v>
-      </c>
-      <c r="S85" s="26">
-        <v>77</v>
-      </c>
-      <c r="T85" s="33">
-        <f t="shared" si="14"/>
-        <v>38.5</v>
-      </c>
-      <c r="U85" s="30">
-        <f t="shared" si="15"/>
-        <v>5.9685372862363417E-2</v>
-      </c>
-      <c r="V85" s="29">
-        <f t="shared" si="11"/>
-        <v>0.33764019916262367</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="15">
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>78</v>
       </c>
@@ -8562,39 +6012,8 @@
       <c r="L86" s="3">
         <v>11.08</v>
       </c>
-      <c r="N86" s="29">
-        <f t="shared" si="9"/>
-        <v>3.6012349999999999E-2</v>
-      </c>
-      <c r="O86" s="30">
-        <f t="shared" si="10"/>
-        <v>1.8006174999999999E-2</v>
-      </c>
-      <c r="P86" s="38">
-        <f t="shared" si="12"/>
-        <v>1.784503246734892E-2</v>
-      </c>
-      <c r="R86" s="32">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-      <c r="S86" s="26">
-        <v>78</v>
-      </c>
-      <c r="T86" s="33">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="U86" s="30">
-        <f t="shared" si="15"/>
-        <v>6.7091869726871978E-2</v>
-      </c>
-      <c r="V86" s="29">
-        <f t="shared" si="11"/>
-        <v>0.31498728690584982</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="15">
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>79</v>
       </c>
@@ -8631,39 +6050,8 @@
       <c r="L87" s="3">
         <v>10.42</v>
       </c>
-      <c r="N87" s="29">
-        <f t="shared" si="9"/>
-        <v>4.0055300000000002E-2</v>
-      </c>
-      <c r="O87" s="30">
-        <f t="shared" si="10"/>
-        <v>2.0027650000000001E-2</v>
-      </c>
-      <c r="P87" s="38">
-        <f t="shared" si="12"/>
-        <v>1.9828428811873078E-2</v>
-      </c>
-      <c r="R87" s="32">
-        <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-      <c r="S87" s="26">
-        <v>79</v>
-      </c>
-      <c r="T87" s="33">
-        <f t="shared" si="14"/>
-        <v>39.5</v>
-      </c>
-      <c r="U87" s="30">
-        <f t="shared" si="15"/>
-        <v>6.7091869726871978E-2</v>
-      </c>
-      <c r="V87" s="29">
-        <f t="shared" si="11"/>
-        <v>0.2938542008871417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="15">
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>80</v>
       </c>
@@ -8700,39 +6088,8 @@
       <c r="L88" s="3">
         <v>9.77</v>
       </c>
-      <c r="N88" s="29">
-        <f t="shared" si="9"/>
-        <v>4.4908699999999996E-2</v>
-      </c>
-      <c r="O88" s="30">
-        <f t="shared" si="10"/>
-        <v>2.2454349999999998E-2</v>
-      </c>
-      <c r="P88" s="38">
-        <f t="shared" si="12"/>
-        <v>2.2204127443891331E-2</v>
-      </c>
-      <c r="R88" s="32">
-        <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="S88" s="26">
-        <v>80</v>
-      </c>
-      <c r="T88" s="33">
-        <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="U88" s="30">
-        <f t="shared" si="15"/>
-        <v>7.4257744617679755E-2</v>
-      </c>
-      <c r="V88" s="29">
-        <f t="shared" si="11"/>
-        <v>0.27203325068283196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="15">
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>81</v>
       </c>
@@ -8769,39 +6126,8 @@
       <c r="L89" s="3">
         <v>9.14</v>
       </c>
-      <c r="N89" s="29">
-        <f t="shared" si="9"/>
-        <v>5.0670750000000001E-2</v>
-      </c>
-      <c r="O89" s="30">
-        <f t="shared" si="10"/>
-        <v>2.5335375E-2</v>
-      </c>
-      <c r="P89" s="38">
-        <f t="shared" si="12"/>
-        <v>2.501712768987574E-2</v>
-      </c>
-      <c r="R89" s="32">
-        <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="S89" s="26">
-        <v>81</v>
-      </c>
-      <c r="T89" s="33">
-        <f t="shared" si="14"/>
-        <v>40.5</v>
-      </c>
-      <c r="U89" s="30">
-        <f t="shared" si="15"/>
-        <v>7.4257744617679755E-2</v>
-      </c>
-      <c r="V89" s="29">
-        <f t="shared" si="11"/>
-        <v>0.25183267502610895</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="15">
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>82</v>
       </c>
@@ -8838,39 +6164,8 @@
       <c r="L90" s="3">
         <v>8.5399999999999991</v>
       </c>
-      <c r="N90" s="29">
-        <f t="shared" si="9"/>
-        <v>5.6701550000000003E-2</v>
-      </c>
-      <c r="O90" s="30">
-        <f t="shared" si="10"/>
-        <v>2.8350775000000002E-2</v>
-      </c>
-      <c r="P90" s="38">
-        <f t="shared" si="12"/>
-        <v>2.7952662912272164E-2</v>
-      </c>
-      <c r="R90" s="32">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="S90" s="26">
-        <v>82</v>
-      </c>
-      <c r="T90" s="33">
-        <f t="shared" si="14"/>
-        <v>41</v>
-      </c>
-      <c r="U90" s="30">
-        <f t="shared" si="15"/>
-        <v>8.3694518666953988E-2</v>
-      </c>
-      <c r="V90" s="29">
-        <f t="shared" si="11"/>
-        <v>0.23075566050518731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="15">
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>83</v>
       </c>
@@ -8907,39 +6202,8 @@
       <c r="L91" s="3">
         <v>7.95</v>
       </c>
-      <c r="N91" s="29">
-        <f t="shared" si="9"/>
-        <v>6.5055550000000004E-2</v>
-      </c>
-      <c r="O91" s="30">
-        <f t="shared" si="10"/>
-        <v>3.2527775000000002E-2</v>
-      </c>
-      <c r="P91" s="38">
-        <f t="shared" si="12"/>
-        <v>3.2004436618850662E-2</v>
-      </c>
-      <c r="R91" s="32">
-        <f t="shared" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="S91" s="26">
-        <v>83</v>
-      </c>
-      <c r="T91" s="33">
-        <f t="shared" si="14"/>
-        <v>41.5</v>
-      </c>
-      <c r="U91" s="30">
-        <f t="shared" si="15"/>
-        <v>8.3694518666953988E-2</v>
-      </c>
-      <c r="V91" s="29">
-        <f t="shared" si="11"/>
-        <v>0.21144267656953061</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="15">
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>84</v>
       </c>
@@ -8976,39 +6240,8 @@
       <c r="L92" s="3">
         <v>7.39</v>
       </c>
-      <c r="N92" s="29">
-        <f t="shared" si="9"/>
-        <v>7.3907649999999991E-2</v>
-      </c>
-      <c r="O92" s="30">
-        <f t="shared" si="10"/>
-        <v>3.6953824999999996E-2</v>
-      </c>
-      <c r="P92" s="38">
-        <f t="shared" si="12"/>
-        <v>3.627936587803926E-2</v>
-      </c>
-      <c r="R92" s="32">
-        <f t="shared" si="13"/>
-        <v>92</v>
-      </c>
-      <c r="S92" s="26">
-        <v>84</v>
-      </c>
-      <c r="T92" s="33">
-        <f t="shared" si="14"/>
-        <v>42</v>
-      </c>
-      <c r="U92" s="30">
-        <f t="shared" si="15"/>
-        <v>9.2880831539693398E-2</v>
-      </c>
-      <c r="V92" s="29">
-        <f t="shared" si="11"/>
-        <v>0.19180370494677418</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="15">
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>85</v>
       </c>
@@ -9045,39 +6278,8 @@
       <c r="L93" s="3">
         <v>6.87</v>
       </c>
-      <c r="N93" s="29">
-        <f t="shared" si="9"/>
-        <v>8.3649349999999997E-2</v>
-      </c>
-      <c r="O93" s="30">
-        <f t="shared" si="10"/>
-        <v>4.1824674999999999E-2</v>
-      </c>
-      <c r="P93" s="38">
-        <f t="shared" si="12"/>
-        <v>4.0962090845095389E-2</v>
-      </c>
-      <c r="R93" s="32">
-        <f t="shared" si="13"/>
-        <v>92</v>
-      </c>
-      <c r="S93" s="26">
-        <v>85</v>
-      </c>
-      <c r="T93" s="33">
-        <f t="shared" si="14"/>
-        <v>42.5</v>
-      </c>
-      <c r="U93" s="30">
-        <f t="shared" si="15"/>
-        <v>9.2880831539693398E-2</v>
-      </c>
-      <c r="V93" s="29">
-        <f t="shared" si="11"/>
-        <v>0.1739888173389238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="15">
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>86</v>
       </c>
@@ -9114,39 +6316,8 @@
       <c r="L94" s="3">
         <v>6.36</v>
       </c>
-      <c r="N94" s="29">
-        <f t="shared" si="9"/>
-        <v>9.5861799999999997E-2</v>
-      </c>
-      <c r="O94" s="30">
-        <f t="shared" si="10"/>
-        <v>4.7930899999999999E-2</v>
-      </c>
-      <c r="P94" s="38">
-        <f t="shared" si="12"/>
-        <v>4.6800349102239402E-2</v>
-      </c>
-      <c r="R94" s="32">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="S94" s="26">
-        <v>86</v>
-      </c>
-      <c r="T94" s="33">
-        <f t="shared" si="14"/>
-        <v>43</v>
-      </c>
-      <c r="U94" s="30">
-        <f t="shared" si="15"/>
-        <v>0.1025169997278168</v>
-      </c>
-      <c r="V94" s="29">
-        <f t="shared" si="11"/>
-        <v>0.15615200579914618</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="15">
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>87</v>
       </c>
@@ -9183,39 +6354,8 @@
       <c r="L95" s="3">
         <v>5.89</v>
       </c>
-      <c r="N95" s="29">
-        <f t="shared" si="9"/>
-        <v>0.10784960000000002</v>
-      </c>
-      <c r="O95" s="30">
-        <f t="shared" si="10"/>
-        <v>5.3924800000000009E-2</v>
-      </c>
-      <c r="P95" s="38">
-        <f t="shared" si="12"/>
-        <v>5.2496643924842434E-2</v>
-      </c>
-      <c r="R95" s="32">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="S95" s="26">
-        <v>87</v>
-      </c>
-      <c r="T95" s="33">
-        <f t="shared" si="14"/>
-        <v>43.5</v>
-      </c>
-      <c r="U95" s="30">
-        <f t="shared" si="15"/>
-        <v>0.1025169997278168</v>
-      </c>
-      <c r="V95" s="29">
-        <f t="shared" si="11"/>
-        <v>0.14014377066313705</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="15">
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>88</v>
       </c>
@@ -9252,39 +6392,8 @@
       <c r="L96" s="3">
         <v>5.45</v>
       </c>
-      <c r="N96" s="29">
-        <f t="shared" si="9"/>
-        <v>0.12308149999999998</v>
-      </c>
-      <c r="O96" s="30">
-        <f t="shared" si="10"/>
-        <v>6.1540749999999991E-2</v>
-      </c>
-      <c r="P96" s="38">
-        <f t="shared" si="12"/>
-        <v>5.9685372862363417E-2</v>
-      </c>
-      <c r="R96" s="32">
-        <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-      <c r="S96" s="26">
-        <v>88</v>
-      </c>
-      <c r="T96" s="33">
-        <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="U96" s="30">
-        <f t="shared" si="15"/>
-        <v>0.11424427782698754</v>
-      </c>
-      <c r="V96" s="29">
-        <f t="shared" si="11"/>
-        <v>0.12413314679177599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="15">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>89</v>
       </c>
@@ -9321,39 +6430,8 @@
       <c r="L97" s="3">
         <v>5.04</v>
       </c>
-      <c r="N97" s="29">
-        <f t="shared" si="9"/>
-        <v>0.1388971</v>
-      </c>
-      <c r="O97" s="30">
-        <f t="shared" si="10"/>
-        <v>6.9448549999999998E-2</v>
-      </c>
-      <c r="P97" s="38">
-        <f t="shared" si="12"/>
-        <v>6.7091869726871978E-2</v>
-      </c>
-      <c r="R97" s="32">
-        <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-      <c r="S97" s="26">
-        <v>89</v>
-      </c>
-      <c r="T97" s="33">
-        <f t="shared" si="14"/>
-        <v>44.5</v>
-      </c>
-      <c r="U97" s="30">
-        <f t="shared" si="15"/>
-        <v>0.11424427782698754</v>
-      </c>
-      <c r="V97" s="29">
-        <f t="shared" si="11"/>
-        <v>0.10995164508215811</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="15">
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>90</v>
       </c>
@@ -9390,39 +6468,8 @@
       <c r="L98" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="N98" s="29">
-        <f t="shared" si="9"/>
-        <v>0.15431885000000001</v>
-      </c>
-      <c r="O98" s="30">
-        <f t="shared" si="10"/>
-        <v>7.7159425000000004E-2</v>
-      </c>
-      <c r="P98" s="38">
-        <f t="shared" si="12"/>
-        <v>7.4257744617679755E-2</v>
-      </c>
-      <c r="R98" s="32">
-        <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-      <c r="S98" s="26">
-        <v>90</v>
-      </c>
-      <c r="T98" s="33">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="U98" s="30">
-        <f t="shared" si="15"/>
-        <v>0.12737908501720574</v>
-      </c>
-      <c r="V98" s="29">
-        <f t="shared" si="11"/>
-        <v>9.5946105135456261E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="15">
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>91</v>
       </c>
@@ -9459,39 +6506,8 @@
       <c r="L99" s="3">
         <v>4.3</v>
       </c>
-      <c r="N99" s="29">
-        <f t="shared" si="9"/>
-        <v>0.17481094999999999</v>
-      </c>
-      <c r="O99" s="30">
-        <f t="shared" si="10"/>
-        <v>8.7405474999999996E-2</v>
-      </c>
-      <c r="P99" s="38">
-        <f t="shared" si="12"/>
-        <v>8.3694518666953988E-2</v>
-      </c>
-      <c r="R99" s="32">
-        <f t="shared" si="13"/>
-        <v>95</v>
-      </c>
-      <c r="S99" s="26">
-        <v>91</v>
-      </c>
-      <c r="T99" s="33">
-        <f t="shared" si="14"/>
-        <v>45.5</v>
-      </c>
-      <c r="U99" s="30">
-        <f t="shared" si="15"/>
-        <v>0.12737908501720574</v>
-      </c>
-      <c r="V99" s="29">
-        <f t="shared" si="11"/>
-        <v>8.3724578052337212E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" ht="15">
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>92</v>
       </c>
@@ -9528,39 +6544,8 @@
       <c r="L100" s="3">
         <v>3.97</v>
       </c>
-      <c r="N100" s="29">
-        <f t="shared" si="9"/>
-        <v>0.19496289999999999</v>
-      </c>
-      <c r="O100" s="30">
-        <f t="shared" si="10"/>
-        <v>9.7481449999999997E-2</v>
-      </c>
-      <c r="P100" s="38">
-        <f t="shared" si="12"/>
-        <v>9.2880831539693398E-2</v>
-      </c>
-      <c r="R100" s="32">
-        <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="S100" s="26">
-        <v>92</v>
-      </c>
-      <c r="T100" s="33">
-        <f t="shared" si="14"/>
-        <v>46</v>
-      </c>
-      <c r="U100" s="30">
-        <f t="shared" si="15"/>
-        <v>0.14080025326846302</v>
-      </c>
-      <c r="V100" s="29">
-        <f t="shared" si="11"/>
-        <v>7.1936136257772926E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="15">
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>93</v>
       </c>
@@ -9597,39 +6582,8 @@
       <c r="L101" s="3">
         <v>3.67</v>
       </c>
-      <c r="N101" s="29">
-        <f t="shared" si="9"/>
-        <v>0.21632219999999999</v>
-      </c>
-      <c r="O101" s="30">
-        <f t="shared" si="10"/>
-        <v>0.1081611</v>
-      </c>
-      <c r="P101" s="38">
-        <f t="shared" si="12"/>
-        <v>0.1025169997278168</v>
-      </c>
-      <c r="R101" s="32">
-        <f t="shared" si="13"/>
-        <v>96</v>
-      </c>
-      <c r="S101" s="26">
-        <v>93</v>
-      </c>
-      <c r="T101" s="33">
-        <f t="shared" si="14"/>
-        <v>46.5</v>
-      </c>
-      <c r="U101" s="30">
-        <f t="shared" si="15"/>
-        <v>0.14080025326846302</v>
-      </c>
-      <c r="V101" s="29">
-        <f t="shared" si="11"/>
-        <v>6.1807510053523834E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" ht="15">
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>94</v>
       </c>
@@ -9666,39 +6620,8 @@
       <c r="L102" s="3">
         <v>3.38</v>
       </c>
-      <c r="N102" s="29">
-        <f t="shared" si="9"/>
-        <v>0.24262815000000001</v>
-      </c>
-      <c r="O102" s="30">
-        <f t="shared" si="10"/>
-        <v>0.12131407500000001</v>
-      </c>
-      <c r="P102" s="38">
-        <f t="shared" si="12"/>
-        <v>0.11424427782698754</v>
-      </c>
-      <c r="R102" s="32">
-        <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-      <c r="S102" s="26">
-        <v>94</v>
-      </c>
-      <c r="T102" s="33">
-        <f t="shared" si="14"/>
-        <v>47</v>
-      </c>
-      <c r="U102" s="30">
-        <f t="shared" si="15"/>
-        <v>0.15035184458642925</v>
-      </c>
-      <c r="V102" s="29">
-        <f t="shared" si="11"/>
-        <v>5.2514636907682252E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" ht="15">
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>95</v>
       </c>
@@ -9735,39 +6658,8 @@
       <c r="L103" s="3">
         <v>3.12</v>
       </c>
-      <c r="N103" s="29">
-        <f t="shared" si="9"/>
-        <v>0.27250810000000003</v>
-      </c>
-      <c r="O103" s="30">
-        <f t="shared" si="10"/>
-        <v>0.13625405000000002</v>
-      </c>
-      <c r="P103" s="38">
-        <f t="shared" si="12"/>
-        <v>0.12737908501720574</v>
-      </c>
-      <c r="R103" s="32">
-        <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-      <c r="S103" s="26">
-        <v>95</v>
-      </c>
-      <c r="T103" s="33">
-        <f t="shared" si="14"/>
-        <v>47.5</v>
-      </c>
-      <c r="U103" s="30">
-        <f t="shared" si="15"/>
-        <v>0.15035184458642925</v>
-      </c>
-      <c r="V103" s="29">
-        <f t="shared" si="11"/>
-        <v>4.4618964380825646E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="15">
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>96</v>
       </c>
@@ -9804,39 +6696,8 @@
       <c r="L104" s="3">
         <v>2.9</v>
       </c>
-      <c r="N104" s="29">
-        <f t="shared" si="9"/>
-        <v>0.30350770000000005</v>
-      </c>
-      <c r="O104" s="30">
-        <f t="shared" si="10"/>
-        <v>0.15175385000000002</v>
-      </c>
-      <c r="P104" s="38">
-        <f t="shared" si="12"/>
-        <v>0.14080025326846302</v>
-      </c>
-      <c r="R104" s="32">
-        <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
-      <c r="S104" s="26">
-        <v>96</v>
-      </c>
-      <c r="T104" s="33">
-        <f t="shared" si="14"/>
-        <v>48</v>
-      </c>
-      <c r="U104" s="30">
-        <f t="shared" si="15"/>
-        <v>0.16383364796110145</v>
-      </c>
-      <c r="V104" s="29">
-        <f t="shared" si="11"/>
-        <v>3.730887667806853E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" ht="15">
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>97</v>
       </c>
@@ -9873,39 +6734,8 @@
       <c r="L105" s="3">
         <v>2.7</v>
       </c>
-      <c r="N105" s="29">
-        <f t="shared" si="9"/>
-        <v>0.32586589999999999</v>
-      </c>
-      <c r="O105" s="30">
-        <f t="shared" si="10"/>
-        <v>0.16293294999999999</v>
-      </c>
-      <c r="P105" s="38">
-        <f t="shared" si="12"/>
-        <v>0.15035184458642925</v>
-      </c>
-      <c r="R105" s="32">
-        <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
-      <c r="S105" s="26">
-        <v>97</v>
-      </c>
-      <c r="T105" s="33">
-        <f t="shared" si="14"/>
-        <v>48.5</v>
-      </c>
-      <c r="U105" s="30">
-        <f t="shared" si="15"/>
-        <v>0.16383364796110145</v>
-      </c>
-      <c r="V105" s="29">
-        <f t="shared" si="11"/>
-        <v>3.1196427310569701E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="15">
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>98</v>
       </c>
@@ -9942,39 +6772,8 @@
       <c r="L106" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="N106" s="29">
-        <f t="shared" si="9"/>
-        <v>0.35785540000000005</v>
-      </c>
-      <c r="O106" s="30">
-        <f t="shared" si="10"/>
-        <v>0.17892770000000002</v>
-      </c>
-      <c r="P106" s="38">
-        <f t="shared" si="12"/>
-        <v>0.16383364796110145</v>
-      </c>
-      <c r="R106" s="32">
-        <f t="shared" si="13"/>
-        <v>99</v>
-      </c>
-      <c r="S106" s="26">
-        <v>98</v>
-      </c>
-      <c r="T106" s="33">
-        <f t="shared" si="14"/>
-        <v>49</v>
-      </c>
-      <c r="U106" s="30">
-        <f t="shared" si="15"/>
-        <v>0.17991050136265796</v>
-      </c>
-      <c r="V106" s="29">
-        <f t="shared" si="11"/>
-        <v>2.5583862432401391E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="15">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>99</v>
       </c>
@@ -10011,39 +6810,8 @@
       <c r="L107" s="3">
         <v>2.33</v>
       </c>
-      <c r="N107" s="29">
-        <f t="shared" si="9"/>
-        <v>0.39668360000000003</v>
-      </c>
-      <c r="O107" s="30">
-        <f t="shared" si="10"/>
-        <v>0.19834180000000001</v>
-      </c>
-      <c r="P107" s="38">
-        <f t="shared" si="12"/>
-        <v>0.17991050136265796</v>
-      </c>
-      <c r="R107" s="32">
-        <f t="shared" si="13"/>
-        <v>99</v>
-      </c>
-      <c r="S107" s="26">
-        <v>99</v>
-      </c>
-      <c r="T107" s="33">
-        <f t="shared" si="14"/>
-        <v>49.5</v>
-      </c>
-      <c r="U107" s="30">
-        <f t="shared" si="15"/>
-        <v>0.17991050136265796</v>
-      </c>
-      <c r="V107" s="29">
-        <f t="shared" si="11"/>
-        <v>2.0981056915394786E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="15">
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>100</v>
       </c>
@@ -10079,37 +6847,6 @@
       </c>
       <c r="L108" s="3">
         <v>2.15</v>
-      </c>
-      <c r="N108" s="29">
-        <f t="shared" si="9"/>
-        <v>0.43598815000000002</v>
-      </c>
-      <c r="O108" s="30">
-        <f t="shared" si="10"/>
-        <v>0.21799407500000001</v>
-      </c>
-      <c r="P108" s="38">
-        <f t="shared" si="12"/>
-        <v>0.19586979387608383</v>
-      </c>
-      <c r="R108" s="32">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="S108" s="26">
-        <v>100</v>
-      </c>
-      <c r="T108" s="33">
-        <f t="shared" si="14"/>
-        <v>50</v>
-      </c>
-      <c r="U108" s="30">
-        <f t="shared" si="15"/>
-        <v>0.19586979387608383</v>
-      </c>
-      <c r="V108" s="29">
-        <f t="shared" si="11"/>
-        <v>1.6871501622074025E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10133,6 +6870,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66bfcbf4bccf85a1e5fe9945d50e202a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1366b0ad4ac173e0c9745adbca88cb2b" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -10271,15 +7017,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC48AE-B3DB-46D6-B4E7-97D4169F4298}">
   <ds:schemaRefs>
@@ -10289,6 +7026,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB3D695-28AF-4E8B-8C44-209B85B2568A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10305,15 +7053,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/UK/nationallifetables3yearuk.xlsx
+++ b/input/UK/nationallifetables3yearuk.xlsx
@@ -6870,15 +6870,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
-    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089726FB0C1A31D49973FEF98EF33984E" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66bfcbf4bccf85a1e5fe9945d50e202a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73541d3-5dbc-467b-ad85-92b29e93bc53" xmlns:ns3="2541d45d-41ad-4814-bf67-1422fc7ee58e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1366b0ad4ac173e0c9745adbca88cb2b" ns2:_="" ns3:_="">
     <xsd:import namespace="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
@@ -7017,6 +7008,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TrackerID xmlns="e73541d3-5dbc-467b-ad85-92b29e93bc53">1682</TrackerID>
+    <MoveTo xmlns="2541d45d-41ad-4814-bf67-1422fc7ee58e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BC48AE-B3DB-46D6-B4E7-97D4169F4298}">
   <ds:schemaRefs>
@@ -7026,17 +7026,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
-    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB3D695-28AF-4E8B-8C44-209B85B2568A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7053,4 +7042,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6814EB-C0C8-4C16-B899-8E6499A78F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e73541d3-5dbc-467b-ad85-92b29e93bc53"/>
+    <ds:schemaRef ds:uri="2541d45d-41ad-4814-bf67-1422fc7ee58e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>